--- a/BC.MI.xlsx
+++ b/BC.MI.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2A32D34-86E9-41AE-96FE-A943D87E4A59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B4BB1B1-0192-4C4E-9DDE-A3BF31A120F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" activeTab="1" xr2:uid="{6AFCE97C-0CAA-47F0-9D92-585A8A3029EA}"/>
+    <workbookView xWindow="225" yWindow="1950" windowWidth="38175" windowHeight="15240" xr2:uid="{6AFCE97C-0CAA-47F0-9D92-585A8A3029EA}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="67">
   <si>
     <t>numbers in mio EUR</t>
   </si>
@@ -236,6 +236,9 @@
   <si>
     <t>Notes</t>
   </si>
+  <si>
+    <t>CEO &amp; CD</t>
+  </si>
 </sst>
 </file>
 
@@ -244,7 +247,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -275,6 +278,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -298,7 +310,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -311,6 +323,7 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -328,6 +341,61 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>14288</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>142876</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>94759</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B15CEBB-31DC-89DE-CB20-5FF30DE07C3E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="338138" y="2133601"/>
+          <a:ext cx="3176588" cy="3295158"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -649,8 +717,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFA851A1-D74E-4AEB-99AF-D5881E06E123}">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -732,8 +800,16 @@
         <v>7629.6819331999995</v>
       </c>
     </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I9" t="s">
+        <v>66</v>
+      </c>
+      <c r="J9" t="s">
+        <v>52</v>
+      </c>
+    </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+      <c r="B11" s="10" t="s">
         <v>65</v>
       </c>
     </row>
@@ -742,6 +818,7 @@
     <hyperlink ref="B5" r:id="rId1" xr:uid="{7374A89A-6021-4988-A070-080777F6DB01}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -749,11 +826,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1334857E-06C9-4A6E-809B-B62D56C178F7}">
   <dimension ref="A1:BK269"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="M10" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="P1" sqref="P1"/>
+      <selection pane="bottomRight" activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4363,7 +4440,7 @@
       <c r="I43" s="5"/>
       <c r="J43" s="5"/>
       <c r="K43" s="9">
-        <f t="shared" ref="K43:P43" si="38">+K16/J16-1</f>
+        <f t="shared" ref="K43:O43" si="38">+K16/J16-1</f>
         <v>9.9033266063407233E-2</v>
       </c>
       <c r="L43" s="9">

--- a/BC.MI.xlsx
+++ b/BC.MI.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B4BB1B1-0192-4C4E-9DDE-A3BF31A120F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03C41906-194E-40D9-ADB7-4F29A74D1D77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="225" yWindow="1950" windowWidth="38175" windowHeight="15240" xr2:uid="{6AFCE97C-0CAA-47F0-9D92-585A8A3029EA}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="20925" activeTab="1" xr2:uid="{6AFCE97C-0CAA-47F0-9D92-585A8A3029EA}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="69">
   <si>
     <t>numbers in mio EUR</t>
   </si>
@@ -228,9 +228,6 @@
     <t>ARPS</t>
   </si>
   <si>
-    <t>Q424</t>
-  </si>
-  <si>
     <t>Revenue Growth</t>
   </si>
   <si>
@@ -238,6 +235,15 @@
   </si>
   <si>
     <t>CEO &amp; CD</t>
+  </si>
+  <si>
+    <t>Q225</t>
+  </si>
+  <si>
+    <t>H125</t>
+  </si>
+  <si>
+    <t>H225</t>
   </si>
 </sst>
 </file>
@@ -310,7 +316,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -324,6 +330,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -717,8 +724,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFA851A1-D74E-4AEB-99AF-D5881E06E123}">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -739,7 +746,7 @@
         <v>1</v>
       </c>
       <c r="J2">
-        <v>110.7</v>
+        <v>108.4</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -750,7 +757,7 @@
         <v>67.993675999999994</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -762,7 +769,7 @@
       </c>
       <c r="J4" s="5">
         <f>+J2*J3</f>
-        <v>7526.8999331999994</v>
+        <v>7370.5144783999995</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -776,7 +783,7 @@
         <v>182.05</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -788,7 +795,7 @@
         <v>284.83199999999999</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -797,12 +804,12 @@
       </c>
       <c r="J7" s="5">
         <f>+J4+J6-J5</f>
-        <v>7629.6819331999995</v>
+        <v>7473.2964783999996</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="I9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J9" t="s">
         <v>52</v>
@@ -810,7 +817,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -824,13 +831,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1334857E-06C9-4A6E-809B-B62D56C178F7}">
-  <dimension ref="A1:BK269"/>
+  <dimension ref="A1:BM269"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H4" sqref="H4"/>
+      <selection pane="bottomRight" activeCell="J44" sqref="C44:J46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -839,12 +846,12 @@
     <col min="2" max="2" width="27.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:65" x14ac:dyDescent="0.25">
       <c r="C2" s="3" t="s">
         <v>9</v>
       </c>
@@ -863,30 +870,36 @@
       <c r="H2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="3"/>
+      <c r="I2" s="3" t="s">
+        <v>67</v>
+      </c>
       <c r="J2" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="M2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="N2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="O2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="P2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="Q2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="R2" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:65" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>22</v>
       </c>
@@ -894,25 +907,21 @@
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
       <c r="F3" s="6">
-        <f>+O3</f>
+        <f>+Q3</f>
         <v>13</v>
       </c>
       <c r="G3" s="6">
         <v>13</v>
       </c>
       <c r="H3" s="6">
-        <f>+P3</f>
+        <f>+R3</f>
         <v>0</v>
       </c>
       <c r="I3" s="6"/>
-      <c r="J3" s="6">
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6">
         <v>15</v>
-      </c>
-      <c r="K3" s="6">
-        <v>14</v>
-      </c>
-      <c r="L3" s="6">
-        <v>14</v>
       </c>
       <c r="M3" s="6">
         <v>14</v>
@@ -921,10 +930,14 @@
         <v>14</v>
       </c>
       <c r="O3" s="6">
+        <v>14</v>
+      </c>
+      <c r="P3" s="6">
+        <v>14</v>
+      </c>
+      <c r="Q3" s="6">
         <v>13</v>
       </c>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
       <c r="R3" s="6"/>
       <c r="S3" s="6"/>
       <c r="T3" s="6"/>
@@ -970,8 +983,10 @@
       <c r="BH3" s="6"/>
       <c r="BI3" s="6"/>
       <c r="BJ3" s="6"/>
-    </row>
-    <row r="4" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="BK3" s="6"/>
+      <c r="BL3" s="6"/>
+    </row>
+    <row r="4" spans="1:65" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>23</v>
       </c>
@@ -979,37 +994,37 @@
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="F4" s="6">
-        <f t="shared" ref="F4:F6" si="0">+O4</f>
+        <f t="shared" ref="F4:F6" si="0">+Q4</f>
         <v>46</v>
       </c>
       <c r="G4" s="6">
         <v>46</v>
       </c>
       <c r="H4" s="6">
-        <f t="shared" ref="H4:H6" si="1">+P4</f>
+        <f t="shared" ref="H4:H6" si="1">+R4</f>
         <v>0</v>
       </c>
       <c r="I4" s="6"/>
-      <c r="J4" s="6">
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6">
         <v>46</v>
       </c>
-      <c r="K4" s="6">
+      <c r="M4" s="6">
         <v>48</v>
       </c>
-      <c r="L4" s="6">
+      <c r="N4" s="6">
         <v>49</v>
-      </c>
-      <c r="M4" s="6">
-        <v>46</v>
-      </c>
-      <c r="N4" s="6">
-        <v>45</v>
       </c>
       <c r="O4" s="6">
         <v>46</v>
       </c>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
+      <c r="P4" s="6">
+        <v>45</v>
+      </c>
+      <c r="Q4" s="6">
+        <v>46</v>
+      </c>
       <c r="R4" s="6"/>
       <c r="S4" s="6"/>
       <c r="T4" s="6"/>
@@ -1055,8 +1070,10 @@
       <c r="BH4" s="6"/>
       <c r="BI4" s="6"/>
       <c r="BJ4" s="6"/>
-    </row>
-    <row r="5" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="BK4" s="6"/>
+      <c r="BL4" s="6"/>
+    </row>
+    <row r="5" spans="1:65" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>24</v>
       </c>
@@ -1075,26 +1092,26 @@
         <v>0</v>
       </c>
       <c r="I5" s="6"/>
-      <c r="J5" s="6">
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6">
         <v>26</v>
       </c>
-      <c r="K5" s="6">
+      <c r="M5" s="6">
         <v>31</v>
       </c>
-      <c r="L5" s="6">
+      <c r="N5" s="6">
         <v>32</v>
       </c>
-      <c r="M5" s="6">
+      <c r="O5" s="6">
         <v>36</v>
       </c>
-      <c r="N5" s="6">
+      <c r="P5" s="6">
         <v>38</v>
       </c>
-      <c r="O5" s="6">
+      <c r="Q5" s="6">
         <v>35</v>
       </c>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6"/>
       <c r="R5" s="6"/>
       <c r="S5" s="6"/>
       <c r="T5" s="6"/>
@@ -1140,8 +1157,10 @@
       <c r="BH5" s="6"/>
       <c r="BI5" s="6"/>
       <c r="BJ5" s="6"/>
-    </row>
-    <row r="6" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="BK5" s="6"/>
+      <c r="BL5" s="6"/>
+    </row>
+    <row r="6" spans="1:65" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>25</v>
       </c>
@@ -1160,29 +1179,29 @@
         <v>0</v>
       </c>
       <c r="I6" s="6"/>
-      <c r="J6" s="6">
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6">
         <f>22+18</f>
         <v>40</v>
       </c>
-      <c r="K6" s="6">
+      <c r="M6" s="6">
         <f>24+19</f>
         <v>43</v>
       </c>
-      <c r="L6" s="6">
+      <c r="N6" s="6">
         <f>24+19</f>
         <v>43</v>
       </c>
-      <c r="M6" s="6">
+      <c r="O6" s="6">
         <v>48</v>
       </c>
-      <c r="N6" s="6">
+      <c r="P6" s="6">
         <v>52</v>
       </c>
-      <c r="O6" s="6">
+      <c r="Q6" s="6">
         <v>58</v>
       </c>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="6"/>
       <c r="R6" s="6"/>
       <c r="S6" s="6"/>
       <c r="T6" s="6"/>
@@ -1228,8 +1247,10 @@
       <c r="BH6" s="6"/>
       <c r="BI6" s="6"/>
       <c r="BJ6" s="6"/>
-    </row>
-    <row r="7" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="BK6" s="6"/>
+      <c r="BL6" s="6"/>
+    </row>
+    <row r="7" spans="1:65" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>26</v>
       </c>
@@ -1258,33 +1279,33 @@
         <v>0</v>
       </c>
       <c r="I7" s="7"/>
-      <c r="J7" s="7">
-        <f t="shared" ref="J7:O7" si="3">+SUM(J3:J6)</f>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7">
+        <f t="shared" ref="L7:Q7" si="3">+SUM(L3:L6)</f>
         <v>127</v>
       </c>
-      <c r="K7" s="7">
+      <c r="M7" s="7">
         <f t="shared" si="3"/>
         <v>136</v>
       </c>
-      <c r="L7" s="7">
+      <c r="N7" s="7">
         <f t="shared" si="3"/>
         <v>138</v>
       </c>
-      <c r="M7" s="7">
+      <c r="O7" s="7">
         <f t="shared" si="3"/>
         <v>144</v>
       </c>
-      <c r="N7" s="7">
+      <c r="P7" s="7">
         <f t="shared" si="3"/>
         <v>149</v>
       </c>
-      <c r="O7" s="7">
+      <c r="Q7" s="7">
         <f t="shared" si="3"/>
         <v>152</v>
       </c>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="6"/>
-      <c r="R7" s="6"/>
+      <c r="R7" s="7"/>
       <c r="S7" s="6"/>
       <c r="T7" s="6"/>
       <c r="U7" s="6"/>
@@ -1329,8 +1350,10 @@
       <c r="BH7" s="6"/>
       <c r="BI7" s="6"/>
       <c r="BJ7" s="6"/>
-    </row>
-    <row r="8" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="BK7" s="6"/>
+      <c r="BL7" s="6"/>
+    </row>
+    <row r="8" spans="1:65" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>62</v>
       </c>
@@ -1358,34 +1381,34 @@
         <f t="shared" ref="H8" si="9">+H16/H7</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I8" s="7"/>
-      <c r="J8" s="4">
-        <f t="shared" ref="J8:N8" si="10">+J16/J7</f>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="4">
+        <f t="shared" ref="L8:P8" si="10">+L16/L7</f>
         <v>4.3542992125984252</v>
       </c>
-      <c r="K8" s="4">
+      <c r="M8" s="4">
         <f t="shared" si="10"/>
         <v>4.4688308823529406</v>
       </c>
-      <c r="L8" s="4">
+      <c r="N8" s="4">
         <f t="shared" si="10"/>
         <v>3.9421231884057972</v>
       </c>
-      <c r="M8" s="4">
+      <c r="O8" s="4">
         <f t="shared" si="10"/>
         <v>4.9456875000000009</v>
       </c>
-      <c r="N8" s="4">
+      <c r="P8" s="4">
         <f t="shared" si="10"/>
         <v>6.1725369127516787</v>
       </c>
-      <c r="O8" s="4">
-        <f>+O16/O7</f>
+      <c r="Q8" s="4">
+        <f>+Q16/Q7</f>
         <v>7.4961842105263159</v>
       </c>
-      <c r="P8" s="7"/>
-      <c r="Q8" s="6"/>
-      <c r="R8" s="6"/>
+      <c r="R8" s="7"/>
       <c r="S8" s="6"/>
       <c r="T8" s="6"/>
       <c r="U8" s="6"/>
@@ -1430,8 +1453,10 @@
       <c r="BH8" s="6"/>
       <c r="BI8" s="6"/>
       <c r="BJ8" s="6"/>
-    </row>
-    <row r="9" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="BK8" s="6"/>
+      <c r="BL8" s="6"/>
+    </row>
+    <row r="9" spans="1:65" x14ac:dyDescent="0.25">
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
@@ -1492,8 +1517,10 @@
       <c r="BH9" s="6"/>
       <c r="BI9" s="6"/>
       <c r="BJ9" s="6"/>
-    </row>
-    <row r="10" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="BK9" s="6"/>
+      <c r="BL9" s="6"/>
+    </row>
+    <row r="10" spans="1:65" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>27</v>
       </c>
@@ -1503,37 +1530,39 @@
         <v>141.881</v>
       </c>
       <c r="F10" s="5">
-        <f>+O10-E10</f>
+        <f>+Q10-E10</f>
         <v>157.499</v>
       </c>
       <c r="G10" s="5">
         <v>152.959</v>
       </c>
       <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5">
+      <c r="I10" s="5">
+        <v>243.148</v>
+      </c>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5">
         <v>163.70699999999999</v>
       </c>
-      <c r="K10" s="5">
+      <c r="M10" s="5">
         <v>176.9</v>
       </c>
-      <c r="L10" s="5">
+      <c r="N10" s="5">
         <v>173.078</v>
       </c>
-      <c r="M10" s="5">
+      <c r="O10" s="5">
         <v>219.15</v>
       </c>
-      <c r="N10" s="5">
+      <c r="P10" s="5">
         <v>263.81400000000002</v>
       </c>
-      <c r="O10" s="5">
+      <c r="Q10" s="5">
         <v>299.38</v>
       </c>
-      <c r="P10" s="5">
+      <c r="R10" s="5">
         <v>315.666</v>
       </c>
-      <c r="Q10" s="5"/>
-      <c r="R10" s="5"/>
       <c r="S10" s="5"/>
       <c r="T10" s="5"/>
       <c r="U10" s="5"/>
@@ -1579,8 +1608,10 @@
       <c r="BI10" s="5"/>
       <c r="BJ10" s="5"/>
       <c r="BK10" s="5"/>
-    </row>
-    <row r="11" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="BL10" s="5"/>
+      <c r="BM10" s="5"/>
+    </row>
+    <row r="11" spans="1:65" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>28</v>
       </c>
@@ -1590,7 +1621,7 @@
         <v>60.887999999999998</v>
       </c>
       <c r="F11" s="5">
-        <f t="shared" ref="F11:F32" si="11">+O11-E11</f>
+        <f t="shared" ref="F11:F32" si="11">+Q11-E11</f>
         <v>67.963999999999999</v>
       </c>
       <c r="G11" s="5">
@@ -1598,29 +1629,29 @@
       </c>
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
-      <c r="J11" s="5">
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5">
         <v>88.22</v>
       </c>
-      <c r="K11" s="5">
+      <c r="M11" s="5">
         <v>89.72</v>
       </c>
-      <c r="L11" s="5">
+      <c r="N11" s="5">
         <v>68.322999999999993</v>
       </c>
-      <c r="M11" s="5">
+      <c r="O11" s="5">
         <v>84.222999999999999</v>
       </c>
-      <c r="N11" s="5">
+      <c r="P11" s="5">
         <v>102.753</v>
       </c>
-      <c r="O11" s="5">
+      <c r="Q11" s="5">
         <v>128.852</v>
       </c>
-      <c r="P11" s="5">
+      <c r="R11" s="5">
         <v>140.92099999999999</v>
       </c>
-      <c r="Q11" s="5"/>
-      <c r="R11" s="5"/>
       <c r="S11" s="5"/>
       <c r="T11" s="5"/>
       <c r="U11" s="5"/>
@@ -1666,8 +1697,10 @@
       <c r="BI11" s="5"/>
       <c r="BJ11" s="5"/>
       <c r="BK11" s="5"/>
-    </row>
-    <row r="12" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="BL11" s="5"/>
+      <c r="BM11" s="5"/>
+    </row>
+    <row r="12" spans="1:65" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>29</v>
       </c>
@@ -1684,30 +1717,32 @@
         <v>225.61600000000001</v>
       </c>
       <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5">
+      <c r="I12" s="5">
+        <v>245.23699999999999</v>
+      </c>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5">
         <v>187.23599999999999</v>
       </c>
-      <c r="K12" s="5">
+      <c r="M12" s="5">
         <v>205.768</v>
       </c>
-      <c r="L12" s="5">
+      <c r="N12" s="5">
         <v>174.24199999999999</v>
       </c>
-      <c r="M12" s="5">
+      <c r="O12" s="5">
         <v>238.238</v>
       </c>
-      <c r="N12" s="5">
+      <c r="P12" s="5">
         <v>334.69299999999998</v>
       </c>
-      <c r="O12" s="5">
+      <c r="Q12" s="5">
         <v>404.45299999999997</v>
       </c>
-      <c r="P12" s="5">
+      <c r="R12" s="5">
         <v>476.55900000000003</v>
       </c>
-      <c r="Q12" s="5"/>
-      <c r="R12" s="5"/>
       <c r="S12" s="5"/>
       <c r="T12" s="5"/>
       <c r="U12" s="5"/>
@@ -1753,8 +1788,10 @@
       <c r="BI12" s="5"/>
       <c r="BJ12" s="5"/>
       <c r="BK12" s="5"/>
-    </row>
-    <row r="13" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="BL12" s="5"/>
+      <c r="BM12" s="5"/>
+    </row>
+    <row r="13" spans="1:65" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>30</v>
       </c>
@@ -1771,31 +1808,33 @@
         <v>173.994</v>
       </c>
       <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5">
+      <c r="I13" s="5">
+        <v>195.66200000000001</v>
+      </c>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5">
         <f>54.887+58.946</f>
         <v>113.833</v>
       </c>
-      <c r="K13" s="5">
+      <c r="M13" s="5">
         <v>135.37299999999999</v>
       </c>
-      <c r="L13" s="5">
+      <c r="N13" s="5">
         <v>128.37</v>
       </c>
-      <c r="M13" s="5">
+      <c r="O13" s="5">
         <v>170.56800000000001</v>
       </c>
-      <c r="N13" s="5">
+      <c r="P13" s="5">
         <v>218.44800000000001</v>
       </c>
-      <c r="O13" s="5">
+      <c r="Q13" s="5">
         <v>306.73500000000001</v>
       </c>
-      <c r="P13" s="5">
+      <c r="R13" s="5">
         <v>345.39400000000001</v>
       </c>
-      <c r="Q13" s="5"/>
-      <c r="R13" s="5"/>
       <c r="S13" s="5"/>
       <c r="T13" s="5"/>
       <c r="U13" s="5"/>
@@ -1841,8 +1880,10 @@
       <c r="BI13" s="5"/>
       <c r="BJ13" s="5"/>
       <c r="BK13" s="5"/>
-    </row>
-    <row r="14" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="BL13" s="5"/>
+      <c r="BM13" s="5"/>
+    </row>
+    <row r="14" spans="1:65" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>31</v>
       </c>
@@ -1859,30 +1900,32 @@
         <v>395.18400000000003</v>
       </c>
       <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5">
+      <c r="I14" s="5">
+        <v>435.80599999999998</v>
+      </c>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5">
         <v>296.26499999999999</v>
       </c>
-      <c r="K14" s="5">
+      <c r="M14" s="5">
         <v>339.435</v>
       </c>
-      <c r="L14" s="5">
+      <c r="N14" s="5">
         <v>268.77300000000002</v>
       </c>
-      <c r="M14" s="5">
+      <c r="O14" s="5">
         <v>419.81700000000001</v>
       </c>
-      <c r="N14" s="5">
+      <c r="P14" s="5">
         <v>573.32000000000005</v>
       </c>
-      <c r="O14" s="5">
+      <c r="Q14" s="5">
         <v>746.81600000000003</v>
       </c>
-      <c r="P14" s="5">
+      <c r="R14" s="5">
         <v>851.24300000000005</v>
       </c>
-      <c r="Q14" s="5"/>
-      <c r="R14" s="5"/>
       <c r="S14" s="5"/>
       <c r="T14" s="5"/>
       <c r="U14" s="5"/>
@@ -1928,8 +1971,10 @@
       <c r="BI14" s="5"/>
       <c r="BJ14" s="5"/>
       <c r="BK14" s="5"/>
-    </row>
-    <row r="15" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="BL14" s="5"/>
+      <c r="BM14" s="5"/>
+    </row>
+    <row r="15" spans="1:65" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>32</v>
       </c>
@@ -1946,31 +1991,33 @@
         <v>225.47800000000001</v>
       </c>
       <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5">
+      <c r="I15" s="5">
+        <v>248.24100000000001</v>
+      </c>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5">
         <f>30.205+226.526</f>
         <v>256.73099999999999</v>
       </c>
-      <c r="K15" s="5">
+      <c r="M15" s="5">
         <v>268.32600000000002</v>
       </c>
-      <c r="L15" s="5">
+      <c r="N15" s="5">
         <v>275.24</v>
       </c>
-      <c r="M15" s="5">
+      <c r="O15" s="5">
         <v>292.36200000000002</v>
       </c>
-      <c r="N15" s="5">
+      <c r="P15" s="5">
         <v>346.38799999999998</v>
       </c>
-      <c r="O15" s="5">
+      <c r="Q15" s="5">
         <v>392.60399999999998</v>
       </c>
-      <c r="P15" s="5">
+      <c r="R15" s="5">
         <v>427.29700000000003</v>
       </c>
-      <c r="Q15" s="5"/>
-      <c r="R15" s="5"/>
       <c r="S15" s="5"/>
       <c r="T15" s="5"/>
       <c r="U15" s="5"/>
@@ -2016,8 +2063,10 @@
       <c r="BI15" s="5"/>
       <c r="BJ15" s="5"/>
       <c r="BK15" s="5"/>
-    </row>
-    <row r="16" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="BL15" s="5"/>
+      <c r="BM15" s="5"/>
+    </row>
+    <row r="16" spans="1:65" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>33</v>
       </c>
@@ -2041,41 +2090,41 @@
         <f t="shared" si="13"/>
         <v>620.66200000000003</v>
       </c>
-      <c r="H16" s="8">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="I16" s="5"/>
-      <c r="J16" s="8">
-        <f t="shared" ref="J16:N16" si="14">+J14+J15</f>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8">
+        <f t="shared" ref="I16" si="14">+I14+I15</f>
+        <v>684.04700000000003</v>
+      </c>
+      <c r="J16" s="8"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="8">
+        <f t="shared" ref="L16:P16" si="15">+L14+L15</f>
         <v>552.99599999999998</v>
       </c>
-      <c r="K16" s="8">
-        <f t="shared" si="14"/>
+      <c r="M16" s="8">
+        <f t="shared" si="15"/>
         <v>607.76099999999997</v>
       </c>
-      <c r="L16" s="8">
-        <f t="shared" si="14"/>
+      <c r="N16" s="8">
+        <f t="shared" si="15"/>
         <v>544.01300000000003</v>
       </c>
-      <c r="M16" s="8">
-        <f t="shared" si="14"/>
+      <c r="O16" s="8">
+        <f t="shared" si="15"/>
         <v>712.17900000000009</v>
       </c>
-      <c r="N16" s="8">
-        <f t="shared" si="14"/>
+      <c r="P16" s="8">
+        <f t="shared" si="15"/>
         <v>919.70800000000008</v>
       </c>
-      <c r="O16" s="8">
-        <f>+O14+O15</f>
+      <c r="Q16" s="8">
+        <f>+Q14+Q15</f>
         <v>1139.42</v>
       </c>
-      <c r="P16" s="8">
-        <f>+P14+P15</f>
+      <c r="R16" s="8">
+        <f>+R14+R15</f>
         <v>1278.54</v>
       </c>
-      <c r="Q16" s="5"/>
-      <c r="R16" s="5"/>
       <c r="S16" s="5"/>
       <c r="T16" s="5"/>
       <c r="U16" s="5"/>
@@ -2121,8 +2170,10 @@
       <c r="BI16" s="5"/>
       <c r="BJ16" s="5"/>
       <c r="BK16" s="5"/>
-    </row>
-    <row r="17" spans="2:63" x14ac:dyDescent="0.25">
+      <c r="BL16" s="5"/>
+      <c r="BM16" s="5"/>
+    </row>
+    <row r="17" spans="2:65" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>34</v>
       </c>
@@ -2140,29 +2191,29 @@
       </c>
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
-      <c r="J17" s="5">
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5">
         <v>88.055999999999997</v>
       </c>
-      <c r="K17" s="5">
+      <c r="M17" s="5">
         <v>72.278999999999996</v>
       </c>
-      <c r="L17" s="5">
+      <c r="N17" s="5">
         <v>53.725000000000001</v>
       </c>
-      <c r="M17" s="5">
+      <c r="O17" s="5">
         <v>113.61</v>
       </c>
-      <c r="N17" s="5">
+      <c r="P17" s="5">
         <v>95.537000000000006</v>
       </c>
-      <c r="O17" s="5">
+      <c r="Q17" s="5">
         <v>114.343</v>
       </c>
-      <c r="P17" s="5">
+      <c r="R17" s="5">
         <v>101.8</v>
       </c>
-      <c r="Q17" s="5"/>
-      <c r="R17" s="5"/>
       <c r="S17" s="5"/>
       <c r="T17" s="5"/>
       <c r="U17" s="5"/>
@@ -2208,25 +2259,27 @@
       <c r="BI17" s="5"/>
       <c r="BJ17" s="5"/>
       <c r="BK17" s="5"/>
-    </row>
-    <row r="18" spans="2:63" x14ac:dyDescent="0.25">
+      <c r="BL17" s="5"/>
+      <c r="BM17" s="5"/>
+    </row>
+    <row r="18" spans="2:65" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>35</v>
       </c>
       <c r="C18" s="5">
-        <f t="shared" ref="C18:F18" si="15">+C16-C17</f>
+        <f t="shared" ref="C18:F18" si="16">+C16-C17</f>
         <v>0</v>
       </c>
       <c r="D18" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="E18" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>489.94200000000001</v>
       </c>
       <c r="F18" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>535.13499999999999</v>
       </c>
       <c r="G18" s="5">
@@ -2235,36 +2288,36 @@
       </c>
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
-      <c r="J18" s="5">
-        <f t="shared" ref="J18:M18" si="16">+J16-J17</f>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5">
+        <f t="shared" ref="L18:O18" si="17">+L16-L17</f>
         <v>464.94</v>
       </c>
-      <c r="K18" s="5">
-        <f t="shared" si="16"/>
+      <c r="M18" s="5">
+        <f t="shared" si="17"/>
         <v>535.48199999999997</v>
       </c>
-      <c r="L18" s="5">
-        <f t="shared" si="16"/>
+      <c r="N18" s="5">
+        <f t="shared" si="17"/>
         <v>490.28800000000001</v>
       </c>
-      <c r="M18" s="5">
-        <f t="shared" si="16"/>
+      <c r="O18" s="5">
+        <f t="shared" si="17"/>
         <v>598.56900000000007</v>
-      </c>
-      <c r="N18" s="5">
-        <f>+N16-N17</f>
-        <v>824.17100000000005</v>
-      </c>
-      <c r="O18" s="5">
-        <f>+O16-O17</f>
-        <v>1025.077</v>
       </c>
       <c r="P18" s="5">
         <f>+P16-P17</f>
+        <v>824.17100000000005</v>
+      </c>
+      <c r="Q18" s="5">
+        <f>+Q16-Q17</f>
+        <v>1025.077</v>
+      </c>
+      <c r="R18" s="5">
+        <f>+R16-R17</f>
         <v>1176.74</v>
       </c>
-      <c r="Q18" s="5"/>
-      <c r="R18" s="5"/>
       <c r="S18" s="5"/>
       <c r="T18" s="5"/>
       <c r="U18" s="5"/>
@@ -2310,8 +2363,10 @@
       <c r="BI18" s="5"/>
       <c r="BJ18" s="5"/>
       <c r="BK18" s="5"/>
-    </row>
-    <row r="19" spans="2:63" x14ac:dyDescent="0.25">
+      <c r="BL18" s="5"/>
+      <c r="BM18" s="5"/>
+    </row>
+    <row r="19" spans="2:65" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>36</v>
       </c>
@@ -2329,29 +2384,29 @@
       </c>
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
-      <c r="J19" s="5">
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5">
         <v>268.32799999999997</v>
       </c>
-      <c r="K19" s="5">
+      <c r="M19" s="5">
         <v>248.06700000000001</v>
       </c>
-      <c r="L19" s="5">
+      <c r="N19" s="5">
         <v>243.29599999999999</v>
       </c>
-      <c r="M19" s="5">
+      <c r="O19" s="5">
         <v>271.084</v>
       </c>
-      <c r="N19" s="5">
+      <c r="P19" s="5">
         <v>372.22399999999999</v>
       </c>
-      <c r="O19" s="5">
+      <c r="Q19" s="5">
         <v>475.76900000000001</v>
       </c>
-      <c r="P19" s="5">
+      <c r="R19" s="5">
         <v>560.36099999999999</v>
       </c>
-      <c r="Q19" s="5"/>
-      <c r="R19" s="5"/>
       <c r="S19" s="5"/>
       <c r="T19" s="5"/>
       <c r="U19" s="5"/>
@@ -2397,8 +2452,10 @@
       <c r="BI19" s="5"/>
       <c r="BJ19" s="5"/>
       <c r="BK19" s="5"/>
-    </row>
-    <row r="20" spans="2:63" x14ac:dyDescent="0.25">
+      <c r="BL19" s="5"/>
+      <c r="BM19" s="5"/>
+    </row>
+    <row r="20" spans="2:65" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>37</v>
       </c>
@@ -2416,29 +2473,29 @@
       </c>
       <c r="H20" s="5"/>
       <c r="I20" s="5"/>
-      <c r="J20" s="5">
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5">
         <v>98.328999999999994</v>
       </c>
-      <c r="K20" s="5">
+      <c r="M20" s="5">
         <v>112.199</v>
       </c>
-      <c r="L20" s="5">
+      <c r="N20" s="5">
         <v>119.569</v>
       </c>
-      <c r="M20" s="5">
+      <c r="O20" s="5">
         <v>132.94800000000001</v>
       </c>
-      <c r="N20" s="5">
+      <c r="P20" s="5">
         <v>164.71299999999999</v>
       </c>
-      <c r="O20" s="5">
+      <c r="Q20" s="5">
         <v>194.96899999999999</v>
       </c>
-      <c r="P20" s="5">
+      <c r="R20" s="5">
         <v>233.49199999999999</v>
       </c>
-      <c r="Q20" s="5"/>
-      <c r="R20" s="5"/>
       <c r="S20" s="5"/>
       <c r="T20" s="5"/>
       <c r="U20" s="5"/>
@@ -2484,8 +2541,10 @@
       <c r="BI20" s="5"/>
       <c r="BJ20" s="5"/>
       <c r="BK20" s="5"/>
-    </row>
-    <row r="21" spans="2:63" x14ac:dyDescent="0.25">
+      <c r="BL20" s="5"/>
+      <c r="BM20" s="5"/>
+    </row>
+    <row r="21" spans="2:65" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>38</v>
       </c>
@@ -2503,29 +2562,29 @@
       </c>
       <c r="H21" s="5"/>
       <c r="I21" s="5"/>
-      <c r="J21" s="5">
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5">
         <v>5.9160000000000004</v>
       </c>
-      <c r="K21" s="5">
+      <c r="M21" s="5">
         <v>7.53</v>
       </c>
-      <c r="L21" s="5">
+      <c r="N21" s="5">
         <v>8.9019999999999992</v>
       </c>
-      <c r="M21" s="5">
+      <c r="O21" s="5">
         <v>9.8130000000000006</v>
       </c>
-      <c r="N21" s="5">
+      <c r="P21" s="5">
         <v>16.491</v>
       </c>
-      <c r="O21" s="5">
+      <c r="Q21" s="5">
         <v>21.568999999999999</v>
       </c>
-      <c r="P21" s="5">
+      <c r="R21" s="5">
         <v>21.079000000000001</v>
       </c>
-      <c r="Q21" s="5"/>
-      <c r="R21" s="5"/>
       <c r="S21" s="5"/>
       <c r="T21" s="5"/>
       <c r="U21" s="5"/>
@@ -2571,8 +2630,10 @@
       <c r="BI21" s="5"/>
       <c r="BJ21" s="5"/>
       <c r="BK21" s="5"/>
-    </row>
-    <row r="22" spans="2:63" x14ac:dyDescent="0.25">
+      <c r="BL21" s="5"/>
+      <c r="BM21" s="5"/>
+    </row>
+    <row r="22" spans="2:65" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>39</v>
       </c>
@@ -2590,29 +2651,29 @@
       </c>
       <c r="H22" s="5"/>
       <c r="I22" s="5"/>
-      <c r="J22" s="5">
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5">
         <v>1.448</v>
       </c>
-      <c r="K22" s="5">
+      <c r="M22" s="5">
         <v>0.82599999999999996</v>
       </c>
-      <c r="L22" s="5">
+      <c r="N22" s="5">
         <v>2.7719999999999998</v>
       </c>
-      <c r="M22" s="5">
+      <c r="O22" s="5">
         <v>10.054</v>
       </c>
-      <c r="N22" s="5">
+      <c r="P22" s="5">
         <v>1.9470000000000001</v>
       </c>
-      <c r="O22" s="5">
+      <c r="Q22" s="5">
         <v>2.3690000000000002</v>
       </c>
-      <c r="P22" s="5">
+      <c r="R22" s="5">
         <v>3.2709999999999999</v>
       </c>
-      <c r="Q22" s="5"/>
-      <c r="R22" s="5"/>
       <c r="S22" s="5"/>
       <c r="T22" s="5"/>
       <c r="U22" s="5"/>
@@ -2658,8 +2719,10 @@
       <c r="BI22" s="5"/>
       <c r="BJ22" s="5"/>
       <c r="BK22" s="5"/>
-    </row>
-    <row r="23" spans="2:63" x14ac:dyDescent="0.25">
+      <c r="BL22" s="5"/>
+      <c r="BM22" s="5"/>
+    </row>
+    <row r="23" spans="2:65" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>40</v>
       </c>
@@ -2677,29 +2740,29 @@
       </c>
       <c r="H23" s="5"/>
       <c r="I23" s="5"/>
-      <c r="J23" s="5">
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5">
         <v>2.4700000000000002</v>
       </c>
-      <c r="K23" s="5">
+      <c r="M23" s="5">
         <v>2.3820000000000001</v>
       </c>
-      <c r="L23" s="5">
+      <c r="N23" s="5">
         <v>3.258</v>
       </c>
-      <c r="M23" s="5">
+      <c r="O23" s="5">
         <v>3.4449999999999998</v>
       </c>
-      <c r="N23" s="5">
+      <c r="P23" s="5">
         <v>2.153</v>
       </c>
-      <c r="O23" s="5">
+      <c r="Q23" s="5">
         <v>2.4319999999999999</v>
       </c>
-      <c r="P23" s="5">
+      <c r="R23" s="5">
         <v>2.4169999999999998</v>
       </c>
-      <c r="Q23" s="5"/>
-      <c r="R23" s="5"/>
       <c r="S23" s="5"/>
       <c r="T23" s="5"/>
       <c r="U23" s="5"/>
@@ -2745,8 +2808,10 @@
       <c r="BI23" s="5"/>
       <c r="BJ23" s="5"/>
       <c r="BK23" s="5"/>
-    </row>
-    <row r="24" spans="2:63" x14ac:dyDescent="0.25">
+      <c r="BL23" s="5"/>
+      <c r="BM23" s="5"/>
+    </row>
+    <row r="24" spans="2:65" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>41</v>
       </c>
@@ -2764,29 +2829,29 @@
       </c>
       <c r="H24" s="5"/>
       <c r="I24" s="5"/>
-      <c r="J24" s="5">
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5">
         <v>25.605</v>
       </c>
-      <c r="K24" s="5">
+      <c r="M24" s="5">
         <v>86.25</v>
       </c>
-      <c r="L24" s="5">
+      <c r="N24" s="5">
         <v>104.28400000000001</v>
       </c>
-      <c r="M24" s="5">
+      <c r="O24" s="5">
         <v>116.27500000000001</v>
       </c>
-      <c r="N24" s="5">
+      <c r="P24" s="5">
         <v>131.94499999999999</v>
       </c>
-      <c r="O24" s="5">
+      <c r="Q24" s="5">
         <v>138.845</v>
       </c>
-      <c r="P24" s="5">
+      <c r="R24" s="5">
         <v>153.00399999999999</v>
       </c>
-      <c r="Q24" s="5"/>
-      <c r="R24" s="5"/>
       <c r="S24" s="5"/>
       <c r="T24" s="5"/>
       <c r="U24" s="5"/>
@@ -2832,8 +2897,10 @@
       <c r="BI24" s="5"/>
       <c r="BJ24" s="5"/>
       <c r="BK24" s="5"/>
-    </row>
-    <row r="25" spans="2:63" x14ac:dyDescent="0.25">
+      <c r="BL24" s="5"/>
+      <c r="BM24" s="5"/>
+    </row>
+    <row r="25" spans="2:65" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>42</v>
       </c>
@@ -2851,29 +2918,29 @@
       </c>
       <c r="H25" s="5"/>
       <c r="I25" s="5"/>
-      <c r="J25" s="5">
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5">
         <v>1.1419999999999999</v>
       </c>
-      <c r="K25" s="5">
+      <c r="M25" s="5">
         <v>1.268</v>
       </c>
-      <c r="L25" s="5">
+      <c r="N25" s="5">
         <v>35.085000000000001</v>
       </c>
-      <c r="M25" s="5">
+      <c r="O25" s="5">
         <v>4.9119999999999999</v>
       </c>
-      <c r="N25" s="5">
+      <c r="P25" s="5">
         <v>8.4860000000000007</v>
       </c>
-      <c r="O25" s="5">
+      <c r="Q25" s="5">
         <v>11.32</v>
       </c>
-      <c r="P25" s="5">
+      <c r="R25" s="5">
         <v>2.8210000000000002</v>
       </c>
-      <c r="Q25" s="5"/>
-      <c r="R25" s="5"/>
       <c r="S25" s="5"/>
       <c r="T25" s="5"/>
       <c r="U25" s="5"/>
@@ -2919,25 +2986,27 @@
       <c r="BI25" s="5"/>
       <c r="BJ25" s="5"/>
       <c r="BK25" s="5"/>
-    </row>
-    <row r="26" spans="2:63" x14ac:dyDescent="0.25">
+      <c r="BL25" s="5"/>
+      <c r="BM25" s="5"/>
+    </row>
+    <row r="26" spans="2:65" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>43</v>
       </c>
       <c r="C26" s="5">
-        <f t="shared" ref="C26:F26" si="17">+C18-SUM(C19:C21)+C22+C23-C24-C25</f>
+        <f t="shared" ref="C26:F26" si="18">+C18-SUM(C19:C21)+C22+C23-C24-C25</f>
         <v>0</v>
       </c>
       <c r="D26" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="E26" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>87.692999999999998</v>
       </c>
       <c r="F26" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>99.712999999999965</v>
       </c>
       <c r="G26" s="5">
@@ -2945,40 +3014,40 @@
         <v>104.58700000000006</v>
       </c>
       <c r="H26" s="5">
-        <f t="shared" ref="H26:P26" si="18">+H18-SUM(H19:H21)+H22+H23-H24-H25</f>
+        <f t="shared" ref="H26:R26" si="19">+H18-SUM(H19:H21)+H22+H23-H24-H25</f>
         <v>0</v>
       </c>
       <c r="I26" s="5"/>
-      <c r="J26" s="5">
-        <f t="shared" si="18"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5">
+        <f t="shared" si="19"/>
         <v>69.538000000000011</v>
       </c>
-      <c r="K26" s="5">
-        <f t="shared" si="18"/>
+      <c r="M26" s="5">
+        <f t="shared" si="19"/>
         <v>83.375999999999976</v>
       </c>
-      <c r="L26" s="5">
-        <f t="shared" si="18"/>
+      <c r="N26" s="5">
+        <f t="shared" si="19"/>
         <v>-14.817999999999991</v>
       </c>
-      <c r="M26" s="5">
-        <f t="shared" si="18"/>
+      <c r="O26" s="5">
+        <f t="shared" si="19"/>
         <v>77.03600000000003</v>
       </c>
-      <c r="N26" s="5">
-        <f t="shared" si="18"/>
+      <c r="P26" s="5">
+        <f t="shared" si="19"/>
         <v>134.41200000000009</v>
       </c>
-      <c r="O26" s="5">
-        <f t="shared" si="18"/>
+      <c r="Q26" s="5">
+        <f t="shared" si="19"/>
         <v>187.40600000000003</v>
       </c>
-      <c r="P26" s="5">
-        <f t="shared" si="18"/>
+      <c r="R26" s="5">
+        <f t="shared" si="19"/>
         <v>211.67100000000011</v>
       </c>
-      <c r="Q26" s="5"/>
-      <c r="R26" s="5"/>
       <c r="S26" s="5"/>
       <c r="T26" s="5"/>
       <c r="U26" s="5"/>
@@ -3024,8 +3093,10 @@
       <c r="BI26" s="5"/>
       <c r="BJ26" s="5"/>
       <c r="BK26" s="5"/>
-    </row>
-    <row r="27" spans="2:63" x14ac:dyDescent="0.25">
+      <c r="BL26" s="5"/>
+      <c r="BM26" s="5"/>
+    </row>
+    <row r="27" spans="2:65" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>44</v>
       </c>
@@ -3043,29 +3114,29 @@
       </c>
       <c r="H27" s="5"/>
       <c r="I27" s="5"/>
-      <c r="J27" s="5">
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5">
         <v>26.33</v>
       </c>
-      <c r="K27" s="5">
+      <c r="M27" s="5">
         <v>41.401000000000003</v>
       </c>
-      <c r="L27" s="5">
+      <c r="N27" s="5">
         <v>46.956000000000003</v>
       </c>
-      <c r="M27" s="5">
+      <c r="O27" s="5">
         <v>34.908000000000001</v>
       </c>
-      <c r="N27" s="5">
+      <c r="P27" s="5">
         <v>80.917000000000002</v>
       </c>
-      <c r="O27" s="5">
+      <c r="Q27" s="5">
         <v>61.338000000000001</v>
       </c>
-      <c r="P27" s="5">
+      <c r="R27" s="5">
         <v>67.558999999999997</v>
       </c>
-      <c r="Q27" s="5"/>
-      <c r="R27" s="5"/>
       <c r="S27" s="5"/>
       <c r="T27" s="5"/>
       <c r="U27" s="5"/>
@@ -3111,8 +3182,10 @@
       <c r="BI27" s="5"/>
       <c r="BJ27" s="5"/>
       <c r="BK27" s="5"/>
-    </row>
-    <row r="28" spans="2:63" x14ac:dyDescent="0.25">
+      <c r="BL27" s="5"/>
+      <c r="BM27" s="5"/>
+    </row>
+    <row r="28" spans="2:65" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>45</v>
       </c>
@@ -3130,29 +3203,29 @@
       </c>
       <c r="H28" s="5"/>
       <c r="I28" s="5"/>
-      <c r="J28" s="5">
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5">
         <v>22.074000000000002</v>
       </c>
-      <c r="K28" s="5">
+      <c r="M28" s="5">
         <v>27.201000000000001</v>
       </c>
-      <c r="L28" s="5">
+      <c r="N28" s="5">
         <v>27.992000000000001</v>
       </c>
-      <c r="M28" s="5">
+      <c r="O28" s="5">
         <v>21.898</v>
       </c>
-      <c r="N28" s="5">
+      <c r="P28" s="5">
         <v>70.471999999999994</v>
       </c>
-      <c r="O28" s="5">
+      <c r="Q28" s="5">
         <v>47.273000000000003</v>
       </c>
-      <c r="P28" s="5">
+      <c r="R28" s="5">
         <v>35.625</v>
       </c>
-      <c r="Q28" s="5"/>
-      <c r="R28" s="5"/>
       <c r="S28" s="5"/>
       <c r="T28" s="5"/>
       <c r="U28" s="5"/>
@@ -3198,25 +3271,27 @@
       <c r="BI28" s="5"/>
       <c r="BJ28" s="5"/>
       <c r="BK28" s="5"/>
-    </row>
-    <row r="29" spans="2:63" x14ac:dyDescent="0.25">
+      <c r="BL28" s="5"/>
+      <c r="BM28" s="5"/>
+    </row>
+    <row r="29" spans="2:65" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>46</v>
       </c>
       <c r="C29" s="5">
-        <f t="shared" ref="C29:F29" si="19">+C26-C27+C28</f>
+        <f t="shared" ref="C29:F29" si="20">+C26-C27+C28</f>
         <v>0</v>
       </c>
       <c r="D29" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="E29" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>85.263999999999996</v>
       </c>
       <c r="F29" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>88.07699999999997</v>
       </c>
       <c r="G29" s="5">
@@ -3224,40 +3299,40 @@
         <v>95.247000000000043</v>
       </c>
       <c r="H29" s="5">
-        <f t="shared" ref="H29" si="20">+H26-H27+H28</f>
+        <f t="shared" ref="H29" si="21">+H26-H27+H28</f>
         <v>0</v>
       </c>
       <c r="I29" s="5"/>
-      <c r="J29" s="5">
-        <f t="shared" ref="J29:N29" si="21">+J26-J27+J28</f>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5">
+        <f t="shared" ref="L29:P29" si="22">+L26-L27+L28</f>
         <v>65.282000000000011</v>
       </c>
-      <c r="K29" s="5">
-        <f t="shared" si="21"/>
+      <c r="M29" s="5">
+        <f t="shared" si="22"/>
         <v>69.175999999999974</v>
       </c>
-      <c r="L29" s="5">
-        <f t="shared" si="21"/>
+      <c r="N29" s="5">
+        <f t="shared" si="22"/>
         <v>-33.781999999999996</v>
       </c>
-      <c r="M29" s="5">
-        <f t="shared" si="21"/>
+      <c r="O29" s="5">
+        <f t="shared" si="22"/>
         <v>64.026000000000025</v>
       </c>
-      <c r="N29" s="5">
-        <f t="shared" si="21"/>
+      <c r="P29" s="5">
+        <f t="shared" si="22"/>
         <v>123.96700000000008</v>
       </c>
-      <c r="O29" s="5">
-        <f>+O26-O27+O28</f>
+      <c r="Q29" s="5">
+        <f>+Q26-Q27+Q28</f>
         <v>173.34100000000004</v>
       </c>
-      <c r="P29" s="5">
-        <f>+P26-P27+P28</f>
+      <c r="R29" s="5">
+        <f>+R26-R27+R28</f>
         <v>179.73700000000011</v>
       </c>
-      <c r="Q29" s="5"/>
-      <c r="R29" s="5"/>
       <c r="S29" s="5"/>
       <c r="T29" s="5"/>
       <c r="U29" s="5"/>
@@ -3303,8 +3378,10 @@
       <c r="BI29" s="5"/>
       <c r="BJ29" s="5"/>
       <c r="BK29" s="5"/>
-    </row>
-    <row r="30" spans="2:63" x14ac:dyDescent="0.25">
+      <c r="BL29" s="5"/>
+      <c r="BM29" s="5"/>
+    </row>
+    <row r="30" spans="2:65" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>48</v>
       </c>
@@ -3322,29 +3399,29 @@
       </c>
       <c r="H30" s="5"/>
       <c r="I30" s="5"/>
-      <c r="J30" s="5">
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="5">
         <v>14.24</v>
       </c>
-      <c r="K30" s="5">
+      <c r="M30" s="5">
         <v>16.093</v>
       </c>
-      <c r="L30" s="5">
+      <c r="N30" s="5">
         <v>-1.7130000000000001</v>
       </c>
-      <c r="M30" s="5">
+      <c r="O30" s="5">
         <v>7.7309999999999999</v>
       </c>
-      <c r="N30" s="5">
+      <c r="P30" s="5">
         <v>36.762</v>
       </c>
-      <c r="O30" s="5">
+      <c r="Q30" s="5">
         <v>49.531999999999996</v>
       </c>
-      <c r="P30" s="5">
+      <c r="R30" s="5">
         <v>51.223999999999997</v>
       </c>
-      <c r="Q30" s="5"/>
-      <c r="R30" s="5"/>
       <c r="S30" s="5"/>
       <c r="T30" s="5"/>
       <c r="U30" s="5"/>
@@ -3390,25 +3467,27 @@
       <c r="BI30" s="5"/>
       <c r="BJ30" s="5"/>
       <c r="BK30" s="5"/>
-    </row>
-    <row r="31" spans="2:63" x14ac:dyDescent="0.25">
+      <c r="BL30" s="5"/>
+      <c r="BM30" s="5"/>
+    </row>
+    <row r="31" spans="2:65" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>47</v>
       </c>
       <c r="C31" s="5">
-        <f t="shared" ref="C31:F31" si="22">+C29-C30</f>
+        <f t="shared" ref="C31:F31" si="23">+C29-C30</f>
         <v>0</v>
       </c>
       <c r="D31" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="E31" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>66.686999999999998</v>
       </c>
       <c r="F31" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>57.121999999999971</v>
       </c>
       <c r="G31" s="5">
@@ -3416,40 +3495,40 @@
         <v>66.077000000000041</v>
       </c>
       <c r="H31" s="5">
-        <f t="shared" ref="H31" si="23">+H29-H30</f>
+        <f t="shared" ref="H31" si="24">+H29-H30</f>
         <v>0</v>
       </c>
       <c r="I31" s="5"/>
-      <c r="J31" s="5">
-        <f t="shared" ref="J31:N31" si="24">+J29-J30</f>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5"/>
+      <c r="L31" s="5">
+        <f t="shared" ref="L31:P31" si="25">+L29-L30</f>
         <v>51.042000000000009</v>
       </c>
-      <c r="K31" s="5">
-        <f t="shared" si="24"/>
+      <c r="M31" s="5">
+        <f t="shared" si="25"/>
         <v>53.08299999999997</v>
       </c>
-      <c r="L31" s="5">
-        <f t="shared" si="24"/>
+      <c r="N31" s="5">
+        <f t="shared" si="25"/>
         <v>-32.068999999999996</v>
       </c>
-      <c r="M31" s="5">
-        <f t="shared" si="24"/>
+      <c r="O31" s="5">
+        <f t="shared" si="25"/>
         <v>56.295000000000023</v>
       </c>
-      <c r="N31" s="5">
-        <f t="shared" si="24"/>
+      <c r="P31" s="5">
+        <f t="shared" si="25"/>
         <v>87.205000000000084</v>
       </c>
-      <c r="O31" s="5">
-        <f>+O29-O30</f>
+      <c r="Q31" s="5">
+        <f>+Q29-Q30</f>
         <v>123.80900000000004</v>
       </c>
-      <c r="P31" s="5">
-        <f>+P29-P30</f>
+      <c r="R31" s="5">
+        <f>+R29-R30</f>
         <v>128.51300000000012</v>
       </c>
-      <c r="Q31" s="5"/>
-      <c r="R31" s="5"/>
       <c r="S31" s="5"/>
       <c r="T31" s="5"/>
       <c r="U31" s="5"/>
@@ -3495,8 +3574,10 @@
       <c r="BI31" s="5"/>
       <c r="BJ31" s="5"/>
       <c r="BK31" s="5"/>
-    </row>
-    <row r="32" spans="2:63" x14ac:dyDescent="0.25">
+      <c r="BL31" s="5"/>
+      <c r="BM31" s="5"/>
+    </row>
+    <row r="32" spans="2:65" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>49</v>
       </c>
@@ -3514,29 +3595,29 @@
       </c>
       <c r="H32" s="5"/>
       <c r="I32" s="5"/>
-      <c r="J32" s="5">
+      <c r="J32" s="5"/>
+      <c r="K32" s="5"/>
+      <c r="L32" s="5">
         <v>0.35</v>
       </c>
-      <c r="K32" s="5">
+      <c r="M32" s="5">
         <v>0.53</v>
       </c>
-      <c r="L32" s="5">
+      <c r="N32" s="5">
         <v>1.147</v>
       </c>
-      <c r="M32" s="5">
+      <c r="O32" s="5">
         <v>2.9729999999999999</v>
       </c>
-      <c r="N32" s="5">
+      <c r="P32" s="5">
         <v>6.6059999999999999</v>
       </c>
-      <c r="O32" s="5">
+      <c r="Q32" s="5">
         <v>9.1920000000000002</v>
       </c>
-      <c r="P32" s="5">
+      <c r="R32" s="5">
         <v>9.0340000000000007</v>
       </c>
-      <c r="Q32" s="5"/>
-      <c r="R32" s="5"/>
       <c r="S32" s="5"/>
       <c r="T32" s="5"/>
       <c r="U32" s="5"/>
@@ -3582,25 +3663,27 @@
       <c r="BI32" s="5"/>
       <c r="BJ32" s="5"/>
       <c r="BK32" s="5"/>
-    </row>
-    <row r="33" spans="2:63" x14ac:dyDescent="0.25">
+      <c r="BL32" s="5"/>
+      <c r="BM32" s="5"/>
+    </row>
+    <row r="33" spans="2:65" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>50</v>
       </c>
       <c r="C33" s="5">
-        <f t="shared" ref="C33:F33" si="25">+C31-C32</f>
+        <f t="shared" ref="C33:F33" si="26">+C31-C32</f>
         <v>0</v>
       </c>
       <c r="D33" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="E33" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>61.781999999999996</v>
       </c>
       <c r="F33" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>52.834999999999972</v>
       </c>
       <c r="G33" s="5">
@@ -3608,40 +3691,40 @@
         <v>60.939000000000043</v>
       </c>
       <c r="H33" s="5">
-        <f t="shared" ref="H33" si="26">+H31-H32</f>
+        <f t="shared" ref="H33" si="27">+H31-H32</f>
         <v>0</v>
       </c>
       <c r="I33" s="5"/>
-      <c r="J33" s="5">
-        <f t="shared" ref="J33:M33" si="27">+J31-J32</f>
+      <c r="J33" s="5"/>
+      <c r="K33" s="5"/>
+      <c r="L33" s="5">
+        <f t="shared" ref="L33:O33" si="28">+L31-L32</f>
         <v>50.692000000000007</v>
       </c>
-      <c r="K33" s="5">
-        <f t="shared" si="27"/>
+      <c r="M33" s="5">
+        <f t="shared" si="28"/>
         <v>52.552999999999969</v>
-      </c>
-      <c r="L33" s="5">
-        <f>+L31-L32</f>
-        <v>-33.215999999999994</v>
-      </c>
-      <c r="M33" s="5">
-        <f t="shared" si="27"/>
-        <v>53.322000000000024</v>
       </c>
       <c r="N33" s="5">
         <f>+N31-N32</f>
-        <v>80.599000000000089</v>
+        <v>-33.215999999999994</v>
       </c>
       <c r="O33" s="5">
-        <f>+O31-O32</f>
-        <v>114.61700000000005</v>
+        <f t="shared" si="28"/>
+        <v>53.322000000000024</v>
       </c>
       <c r="P33" s="5">
         <f>+P31-P32</f>
+        <v>80.599000000000089</v>
+      </c>
+      <c r="Q33" s="5">
+        <f>+Q31-Q32</f>
+        <v>114.61700000000005</v>
+      </c>
+      <c r="R33" s="5">
+        <f>+R31-R32</f>
         <v>119.47900000000011</v>
       </c>
-      <c r="Q33" s="5"/>
-      <c r="R33" s="5"/>
       <c r="S33" s="5"/>
       <c r="T33" s="5"/>
       <c r="U33" s="5"/>
@@ -3687,8 +3770,10 @@
       <c r="BI33" s="5"/>
       <c r="BJ33" s="5"/>
       <c r="BK33" s="5"/>
-    </row>
-    <row r="34" spans="2:63" x14ac:dyDescent="0.25">
+      <c r="BL33" s="5"/>
+      <c r="BM33" s="5"/>
+    </row>
+    <row r="34" spans="2:65" x14ac:dyDescent="0.25">
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
       <c r="E34" s="5"/>
@@ -3750,17 +3835,19 @@
       <c r="BI34" s="5"/>
       <c r="BJ34" s="5"/>
       <c r="BK34" s="5"/>
-    </row>
-    <row r="35" spans="2:63" x14ac:dyDescent="0.25">
+      <c r="BL34" s="5"/>
+      <c r="BM34" s="5"/>
+    </row>
+    <row r="35" spans="2:65" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>51</v>
       </c>
       <c r="C35" s="4" t="e">
-        <f t="shared" ref="C35:D35" si="28">+C33/C36</f>
+        <f t="shared" ref="C35:D35" si="29">+C33/C36</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D35" s="4" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E35" s="4">
@@ -3768,48 +3855,48 @@
         <v>0.90879845229778977</v>
       </c>
       <c r="F35" s="4">
-        <f t="shared" ref="F35:H35" si="29">+F33/F36</f>
+        <f t="shared" ref="F35:H35" si="30">+F33/F36</f>
         <v>0.77719022089206724</v>
       </c>
       <c r="G35" s="4">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0.89703669208184811</v>
       </c>
       <c r="H35" s="4">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="I35" s="5"/>
-      <c r="J35" s="4">
-        <f t="shared" ref="J35" si="30">+J33/J36</f>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="5"/>
+      <c r="L35" s="4">
+        <f t="shared" ref="L35" si="31">+L33/L36</f>
         <v>0.74547058823529422</v>
       </c>
-      <c r="K35" s="4">
-        <f t="shared" ref="K35" si="31">+K33/K36</f>
+      <c r="M35" s="4">
+        <f t="shared" ref="M35" si="32">+M33/M36</f>
         <v>0.77283823529411722</v>
       </c>
-      <c r="L35" s="4">
-        <f t="shared" ref="L35" si="32">+L33/L36</f>
+      <c r="N35" s="4">
+        <f t="shared" ref="N35" si="33">+N33/N36</f>
         <v>-0.48847058823529405</v>
       </c>
-      <c r="M35" s="4">
-        <f t="shared" ref="M35" si="33">+M33/M36</f>
+      <c r="O35" s="4">
+        <f t="shared" ref="O35" si="34">+O33/O36</f>
         <v>0.78414705882352975</v>
       </c>
-      <c r="N35" s="4">
-        <f t="shared" ref="N35" si="34">+N33/N36</f>
+      <c r="P35" s="4">
+        <f t="shared" ref="P35" si="35">+P33/P36</f>
         <v>1.1852794117647072</v>
       </c>
-      <c r="O35" s="4">
-        <f>+O33/O36</f>
+      <c r="Q35" s="4">
+        <f>+Q33/Q36</f>
         <v>1.6857645313595349</v>
       </c>
-      <c r="P35" s="4">
-        <f>+P33/P36</f>
+      <c r="R35" s="4">
+        <f>+R33/R36</f>
         <v>1.7572738812070285</v>
       </c>
-      <c r="Q35" s="5"/>
-      <c r="R35" s="5"/>
       <c r="S35" s="5"/>
       <c r="T35" s="5"/>
       <c r="U35" s="5"/>
@@ -3855,8 +3942,10 @@
       <c r="BI35" s="5"/>
       <c r="BJ35" s="5"/>
       <c r="BK35" s="5"/>
-    </row>
-    <row r="36" spans="2:63" x14ac:dyDescent="0.25">
+      <c r="BL35" s="5"/>
+      <c r="BM35" s="5"/>
+    </row>
+    <row r="36" spans="2:65" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>2</v>
       </c>
@@ -3875,12 +3964,8 @@
         <v>67.933676000000006</v>
       </c>
       <c r="I36" s="5"/>
-      <c r="J36" s="5">
-        <v>68</v>
-      </c>
-      <c r="K36" s="5">
-        <v>68</v>
-      </c>
+      <c r="J36" s="5"/>
+      <c r="K36" s="5"/>
       <c r="L36" s="5">
         <v>68</v>
       </c>
@@ -3891,13 +3976,17 @@
         <v>68</v>
       </c>
       <c r="O36" s="5">
+        <v>68</v>
+      </c>
+      <c r="P36" s="5">
+        <v>68</v>
+      </c>
+      <c r="Q36" s="5">
         <v>67.991108999999994</v>
       </c>
-      <c r="P36" s="5">
+      <c r="R36" s="5">
         <v>67.991108999999994</v>
       </c>
-      <c r="Q36" s="5"/>
-      <c r="R36" s="5"/>
       <c r="S36" s="5"/>
       <c r="T36" s="5"/>
       <c r="U36" s="5"/>
@@ -3943,8 +4032,10 @@
       <c r="BI36" s="5"/>
       <c r="BJ36" s="5"/>
       <c r="BK36" s="5"/>
-    </row>
-    <row r="37" spans="2:63" x14ac:dyDescent="0.25">
+      <c r="BL36" s="5"/>
+      <c r="BM36" s="5"/>
+    </row>
+    <row r="37" spans="2:65" x14ac:dyDescent="0.25">
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
       <c r="E37" s="5"/>
@@ -4006,8 +4097,10 @@
       <c r="BI37" s="5"/>
       <c r="BJ37" s="5"/>
       <c r="BK37" s="5"/>
-    </row>
-    <row r="38" spans="2:63" x14ac:dyDescent="0.25">
+      <c r="BL37" s="5"/>
+      <c r="BM37" s="5"/>
+    </row>
+    <row r="38" spans="2:65" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>54</v>
       </c>
@@ -4019,32 +4112,32 @@
       <c r="H38" s="5"/>
       <c r="I38" s="5"/>
       <c r="J38" s="5"/>
-      <c r="K38" s="9">
-        <f t="shared" ref="K38:N38" si="35">+K7/J7-1</f>
+      <c r="K38" s="5"/>
+      <c r="L38" s="5"/>
+      <c r="M38" s="9">
+        <f t="shared" ref="M38:P38" si="36">+M7/L7-1</f>
         <v>7.0866141732283561E-2</v>
       </c>
-      <c r="L38" s="9">
-        <f t="shared" si="35"/>
+      <c r="N38" s="9">
+        <f t="shared" si="36"/>
         <v>1.4705882352941124E-2</v>
       </c>
-      <c r="M38" s="9">
-        <f t="shared" si="35"/>
+      <c r="O38" s="9">
+        <f t="shared" si="36"/>
         <v>4.3478260869565188E-2</v>
       </c>
-      <c r="N38" s="9">
-        <f t="shared" si="35"/>
+      <c r="P38" s="9">
+        <f t="shared" si="36"/>
         <v>3.4722222222222321E-2</v>
       </c>
-      <c r="O38" s="9">
-        <f>+O7/N7-1</f>
+      <c r="Q38" s="9">
+        <f>+Q7/P7-1</f>
         <v>2.0134228187919545E-2</v>
       </c>
-      <c r="P38" s="9">
-        <f>+P7/O7-1</f>
+      <c r="R38" s="9">
+        <f>+R7/Q7-1</f>
         <v>-1</v>
       </c>
-      <c r="Q38" s="5"/>
-      <c r="R38" s="5"/>
       <c r="S38" s="5"/>
       <c r="T38" s="5"/>
       <c r="U38" s="5"/>
@@ -4090,8 +4183,10 @@
       <c r="BI38" s="5"/>
       <c r="BJ38" s="5"/>
       <c r="BK38" s="5"/>
-    </row>
-    <row r="39" spans="2:63" x14ac:dyDescent="0.25">
+      <c r="BL38" s="5"/>
+      <c r="BM38" s="5"/>
+    </row>
+    <row r="39" spans="2:65" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>55</v>
       </c>
@@ -4103,32 +4198,32 @@
       <c r="H39" s="5"/>
       <c r="I39" s="5"/>
       <c r="J39" s="5"/>
-      <c r="K39" s="9">
-        <f t="shared" ref="K39:N42" si="36">+K10/J10-1</f>
+      <c r="K39" s="5"/>
+      <c r="L39" s="5"/>
+      <c r="M39" s="9">
+        <f t="shared" ref="M39:P42" si="37">+M10/L10-1</f>
         <v>8.0589101260178264E-2</v>
       </c>
-      <c r="L39" s="9">
-        <f t="shared" si="36"/>
+      <c r="N39" s="9">
+        <f t="shared" si="37"/>
         <v>-2.1605426794799376E-2</v>
       </c>
-      <c r="M39" s="9">
-        <f t="shared" si="36"/>
+      <c r="O39" s="9">
+        <f t="shared" si="37"/>
         <v>0.26619212147124416</v>
       </c>
-      <c r="N39" s="9">
-        <f t="shared" si="36"/>
+      <c r="P39" s="9">
+        <f t="shared" si="37"/>
         <v>0.20380561259411367</v>
       </c>
-      <c r="O39" s="9">
-        <f>+O10/N10-1</f>
+      <c r="Q39" s="9">
+        <f>+Q10/P10-1</f>
         <v>0.13481468003972474</v>
       </c>
-      <c r="P39" s="9">
-        <f>+P10/O10-1</f>
+      <c r="R39" s="9">
+        <f>+R10/Q10-1</f>
         <v>5.4399091455675119E-2</v>
       </c>
-      <c r="Q39" s="5"/>
-      <c r="R39" s="5"/>
       <c r="S39" s="5"/>
       <c r="T39" s="5"/>
       <c r="U39" s="5"/>
@@ -4174,8 +4269,10 @@
       <c r="BI39" s="5"/>
       <c r="BJ39" s="5"/>
       <c r="BK39" s="5"/>
-    </row>
-    <row r="40" spans="2:63" x14ac:dyDescent="0.25">
+      <c r="BL39" s="5"/>
+      <c r="BM39" s="5"/>
+    </row>
+    <row r="40" spans="2:65" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>56</v>
       </c>
@@ -4187,32 +4284,32 @@
       <c r="H40" s="5"/>
       <c r="I40" s="5"/>
       <c r="J40" s="5"/>
-      <c r="K40" s="9">
-        <f t="shared" si="36"/>
+      <c r="K40" s="5"/>
+      <c r="L40" s="5"/>
+      <c r="M40" s="9">
+        <f t="shared" si="37"/>
         <v>1.700294717751083E-2</v>
       </c>
-      <c r="L40" s="9">
-        <f t="shared" si="36"/>
+      <c r="N40" s="9">
+        <f t="shared" si="37"/>
         <v>-0.23848640213999117</v>
       </c>
-      <c r="M40" s="9">
-        <f t="shared" si="36"/>
+      <c r="O40" s="9">
+        <f t="shared" si="37"/>
         <v>0.2327181183496041</v>
-      </c>
-      <c r="N40" s="9">
-        <f t="shared" si="36"/>
-        <v>0.22001116084679961</v>
-      </c>
-      <c r="O40" s="9">
-        <f t="shared" ref="O40:P42" si="37">+O11/N11-1</f>
-        <v>0.25399745019610132</v>
       </c>
       <c r="P40" s="9">
         <f t="shared" si="37"/>
+        <v>0.22001116084679961</v>
+      </c>
+      <c r="Q40" s="9">
+        <f t="shared" ref="Q40:R42" si="38">+Q11/P11-1</f>
+        <v>0.25399745019610132</v>
+      </c>
+      <c r="R40" s="9">
+        <f t="shared" si="38"/>
         <v>9.3665600844379471E-2</v>
       </c>
-      <c r="Q40" s="5"/>
-      <c r="R40" s="5"/>
       <c r="S40" s="5"/>
       <c r="T40" s="5"/>
       <c r="U40" s="5"/>
@@ -4258,8 +4355,10 @@
       <c r="BI40" s="5"/>
       <c r="BJ40" s="5"/>
       <c r="BK40" s="5"/>
-    </row>
-    <row r="41" spans="2:63" x14ac:dyDescent="0.25">
+      <c r="BL40" s="5"/>
+      <c r="BM40" s="5"/>
+    </row>
+    <row r="41" spans="2:65" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>57</v>
       </c>
@@ -4271,32 +4370,32 @@
       <c r="H41" s="5"/>
       <c r="I41" s="5"/>
       <c r="J41" s="5"/>
-      <c r="K41" s="9">
-        <f t="shared" si="36"/>
+      <c r="K41" s="5"/>
+      <c r="L41" s="5"/>
+      <c r="M41" s="9">
+        <f t="shared" si="37"/>
         <v>9.8976692516396403E-2</v>
       </c>
-      <c r="L41" s="9">
-        <f t="shared" si="36"/>
+      <c r="N41" s="9">
+        <f t="shared" si="37"/>
         <v>-0.15321138369425769</v>
-      </c>
-      <c r="M41" s="9">
-        <f t="shared" si="36"/>
-        <v>0.36728228555686915</v>
-      </c>
-      <c r="N41" s="9">
-        <f t="shared" si="36"/>
-        <v>0.4048682410026947</v>
       </c>
       <c r="O41" s="9">
         <f t="shared" si="37"/>
-        <v>0.20842981478548994</v>
+        <v>0.36728228555686915</v>
       </c>
       <c r="P41" s="9">
         <f t="shared" si="37"/>
+        <v>0.4048682410026947</v>
+      </c>
+      <c r="Q41" s="9">
+        <f t="shared" si="38"/>
+        <v>0.20842981478548994</v>
+      </c>
+      <c r="R41" s="9">
+        <f t="shared" si="38"/>
         <v>0.17828029462014139</v>
       </c>
-      <c r="Q41" s="5"/>
-      <c r="R41" s="5"/>
       <c r="S41" s="5"/>
       <c r="T41" s="5"/>
       <c r="U41" s="5"/>
@@ -4342,8 +4441,10 @@
       <c r="BI41" s="5"/>
       <c r="BJ41" s="5"/>
       <c r="BK41" s="5"/>
-    </row>
-    <row r="42" spans="2:63" x14ac:dyDescent="0.25">
+      <c r="BL41" s="5"/>
+      <c r="BM41" s="5"/>
+    </row>
+    <row r="42" spans="2:65" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>58</v>
       </c>
@@ -4355,32 +4456,32 @@
       <c r="H42" s="5"/>
       <c r="I42" s="5"/>
       <c r="J42" s="5"/>
-      <c r="K42" s="9">
-        <f t="shared" si="36"/>
+      <c r="K42" s="5"/>
+      <c r="L42" s="5"/>
+      <c r="M42" s="9">
+        <f t="shared" si="37"/>
         <v>0.18922456581132008</v>
       </c>
-      <c r="L42" s="9">
-        <f t="shared" si="36"/>
+      <c r="N42" s="9">
+        <f t="shared" si="37"/>
         <v>-5.1731142842368794E-2</v>
-      </c>
-      <c r="M42" s="9">
-        <f t="shared" si="36"/>
-        <v>0.32872166394017288</v>
-      </c>
-      <c r="N42" s="9">
-        <f t="shared" si="36"/>
-        <v>0.2807091599831153</v>
       </c>
       <c r="O42" s="9">
         <f t="shared" si="37"/>
-        <v>0.40415568007031433</v>
+        <v>0.32872166394017288</v>
       </c>
       <c r="P42" s="9">
         <f t="shared" si="37"/>
+        <v>0.2807091599831153</v>
+      </c>
+      <c r="Q42" s="9">
+        <f t="shared" si="38"/>
+        <v>0.40415568007031433</v>
+      </c>
+      <c r="R42" s="9">
+        <f t="shared" si="38"/>
         <v>0.12603387288701962</v>
       </c>
-      <c r="Q42" s="5"/>
-      <c r="R42" s="5"/>
       <c r="S42" s="5"/>
       <c r="T42" s="5"/>
       <c r="U42" s="5"/>
@@ -4426,45 +4527,65 @@
       <c r="BI42" s="5"/>
       <c r="BJ42" s="5"/>
       <c r="BK42" s="5"/>
-    </row>
-    <row r="43" spans="2:63" x14ac:dyDescent="0.25">
-      <c r="B43" t="s">
-        <v>64</v>
-      </c>
-      <c r="C43" s="5"/>
-      <c r="D43" s="5"/>
-      <c r="E43" s="5"/>
-      <c r="F43" s="5"/>
-      <c r="G43" s="5"/>
-      <c r="H43" s="5"/>
-      <c r="I43" s="5"/>
-      <c r="J43" s="5"/>
-      <c r="K43" s="9">
-        <f t="shared" ref="K43:O43" si="38">+K16/J16-1</f>
+      <c r="BL42" s="5"/>
+      <c r="BM42" s="5"/>
+    </row>
+    <row r="43" spans="2:65" x14ac:dyDescent="0.25">
+      <c r="B43" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C43" s="8"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="11" t="e">
+        <f t="shared" ref="E43" si="39">+E16/C16-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F43" s="11" t="e">
+        <f t="shared" ref="F43" si="40">+F16/D16-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G43" s="11">
+        <f t="shared" ref="G43:H43" si="41">+G16/E16-1</f>
+        <v>0.1410444495920522</v>
+      </c>
+      <c r="H43" s="11">
+        <f t="shared" si="41"/>
+        <v>-1</v>
+      </c>
+      <c r="I43" s="11">
+        <f>+I16/G16-1</f>
+        <v>0.10212482800622569</v>
+      </c>
+      <c r="J43" s="11" t="e">
+        <f t="shared" ref="J43" si="42">+J16/H16-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K43" s="8"/>
+      <c r="L43" s="8"/>
+      <c r="M43" s="11">
+        <f t="shared" ref="M43:Q43" si="43">+M16/L16-1</f>
         <v>9.9033266063407233E-2</v>
       </c>
-      <c r="L43" s="9">
-        <f t="shared" si="38"/>
+      <c r="N43" s="11">
+        <f t="shared" si="43"/>
         <v>-0.10488991560827354</v>
       </c>
-      <c r="M43" s="9">
-        <f t="shared" si="38"/>
+      <c r="O43" s="11">
+        <f t="shared" si="43"/>
         <v>0.30912128938095229</v>
       </c>
-      <c r="N43" s="9">
-        <f t="shared" si="38"/>
+      <c r="P43" s="11">
+        <f t="shared" si="43"/>
         <v>0.29140005532317015</v>
       </c>
-      <c r="O43" s="9">
-        <f t="shared" si="38"/>
+      <c r="Q43" s="11">
+        <f t="shared" si="43"/>
         <v>0.23889321393311791</v>
       </c>
-      <c r="P43" s="9">
-        <f>+P16/O16-1</f>
+      <c r="R43" s="11">
+        <f>+R16/Q16-1</f>
         <v>0.12209720735110841</v>
       </c>
-      <c r="Q43" s="5"/>
-      <c r="R43" s="5"/>
       <c r="S43" s="5"/>
       <c r="T43" s="5"/>
       <c r="U43" s="5"/>
@@ -4510,48 +4631,74 @@
       <c r="BI43" s="5"/>
       <c r="BJ43" s="5"/>
       <c r="BK43" s="5"/>
-    </row>
-    <row r="44" spans="2:63" x14ac:dyDescent="0.25">
+      <c r="BL43" s="5"/>
+      <c r="BM43" s="5"/>
+    </row>
+    <row r="44" spans="2:65" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>61</v>
       </c>
-      <c r="C44" s="5"/>
-      <c r="D44" s="5"/>
-      <c r="E44" s="5"/>
-      <c r="F44" s="5"/>
-      <c r="G44" s="5"/>
-      <c r="H44" s="5"/>
-      <c r="I44" s="5"/>
-      <c r="J44" s="9">
-        <f t="shared" ref="J44:N44" si="39">+J18/J16</f>
+      <c r="C44" s="9" t="e">
+        <f t="shared" ref="C44:J44" si="44">+C18/C16</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D44" s="9" t="e">
+        <f t="shared" si="44"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E44" s="9">
+        <f t="shared" si="44"/>
+        <v>0.90072470961977569</v>
+      </c>
+      <c r="F44" s="9">
+        <f t="shared" si="44"/>
+        <v>0.8986646022187218</v>
+      </c>
+      <c r="G44" s="9">
+        <f t="shared" si="44"/>
+        <v>0.93671918048793068</v>
+      </c>
+      <c r="H44" s="9" t="e">
+        <f t="shared" si="44"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I44" s="9">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="J44" s="9" t="e">
+        <f t="shared" si="44"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K44" s="5"/>
+      <c r="L44" s="9">
+        <f t="shared" ref="L44:P44" si="45">+L18/L16</f>
         <v>0.84076557515786732</v>
       </c>
-      <c r="K44" s="9">
-        <f t="shared" si="39"/>
+      <c r="M44" s="9">
+        <f t="shared" si="45"/>
         <v>0.88107331664914335</v>
       </c>
-      <c r="L44" s="9">
-        <f t="shared" si="39"/>
+      <c r="N44" s="9">
+        <f t="shared" si="45"/>
         <v>0.90124316882133326</v>
       </c>
-      <c r="M44" s="9">
-        <f t="shared" si="39"/>
+      <c r="O44" s="9">
+        <f t="shared" si="45"/>
         <v>0.8404754984350844</v>
       </c>
-      <c r="N44" s="9">
-        <f t="shared" si="39"/>
+      <c r="P44" s="9">
+        <f t="shared" si="45"/>
         <v>0.89612246495626868</v>
       </c>
-      <c r="O44" s="9">
-        <f>+O18/O16</f>
+      <c r="Q44" s="9">
+        <f>+Q18/Q16</f>
         <v>0.8996480665601797</v>
       </c>
-      <c r="P44" s="9">
-        <f>+P18/P16</f>
+      <c r="R44" s="9">
+        <f>+R18/R16</f>
         <v>0.92037793107763544</v>
       </c>
-      <c r="Q44" s="5"/>
-      <c r="R44" s="5"/>
       <c r="S44" s="5"/>
       <c r="T44" s="5"/>
       <c r="U44" s="5"/>
@@ -4597,48 +4744,74 @@
       <c r="BI44" s="5"/>
       <c r="BJ44" s="5"/>
       <c r="BK44" s="5"/>
-    </row>
-    <row r="45" spans="2:63" x14ac:dyDescent="0.25">
+      <c r="BL44" s="5"/>
+      <c r="BM44" s="5"/>
+    </row>
+    <row r="45" spans="2:65" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>59</v>
       </c>
-      <c r="C45" s="5"/>
-      <c r="D45" s="5"/>
-      <c r="E45" s="5"/>
-      <c r="F45" s="5"/>
-      <c r="G45" s="5"/>
-      <c r="H45" s="5"/>
-      <c r="I45" s="5"/>
-      <c r="J45" s="9">
-        <f t="shared" ref="J45:N45" si="40">+J26/J16</f>
+      <c r="C45" s="9" t="e">
+        <f t="shared" ref="C45:J45" si="46">+C26/C16</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D45" s="9" t="e">
+        <f t="shared" si="46"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E45" s="9">
+        <f t="shared" si="46"/>
+        <v>0.16121755628357434</v>
+      </c>
+      <c r="F45" s="9">
+        <f t="shared" si="46"/>
+        <v>0.16745035081060924</v>
+      </c>
+      <c r="G45" s="9">
+        <f t="shared" si="46"/>
+        <v>0.16850878578034431</v>
+      </c>
+      <c r="H45" s="9" t="e">
+        <f t="shared" si="46"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I45" s="9">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="J45" s="9" t="e">
+        <f t="shared" si="46"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K45" s="5"/>
+      <c r="L45" s="9">
+        <f t="shared" ref="L45:P45" si="47">+L26/L16</f>
         <v>0.12574774501081384</v>
       </c>
-      <c r="K45" s="9">
-        <f t="shared" si="40"/>
+      <c r="M45" s="9">
+        <f t="shared" si="47"/>
         <v>0.13718550548653169</v>
       </c>
-      <c r="L45" s="9">
-        <f t="shared" si="40"/>
+      <c r="N45" s="9">
+        <f t="shared" si="47"/>
         <v>-2.7238319672507807E-2</v>
       </c>
-      <c r="M45" s="9">
-        <f t="shared" si="40"/>
+      <c r="O45" s="9">
+        <f t="shared" si="47"/>
         <v>0.10816943493138666</v>
       </c>
-      <c r="N45" s="9">
-        <f t="shared" si="40"/>
+      <c r="P45" s="9">
+        <f t="shared" si="47"/>
         <v>0.14614638559194884</v>
       </c>
-      <c r="O45" s="9">
-        <f>+O26/O16</f>
+      <c r="Q45" s="9">
+        <f>+Q26/Q16</f>
         <v>0.16447490828667219</v>
       </c>
-      <c r="P45" s="9">
-        <f>+P26/P16</f>
+      <c r="R45" s="9">
+        <f>+R26/R16</f>
         <v>0.16555680698296504</v>
       </c>
-      <c r="Q45" s="5"/>
-      <c r="R45" s="5"/>
       <c r="S45" s="5"/>
       <c r="T45" s="5"/>
       <c r="U45" s="5"/>
@@ -4684,48 +4857,74 @@
       <c r="BI45" s="5"/>
       <c r="BJ45" s="5"/>
       <c r="BK45" s="5"/>
-    </row>
-    <row r="46" spans="2:63" x14ac:dyDescent="0.25">
+      <c r="BL45" s="5"/>
+      <c r="BM45" s="5"/>
+    </row>
+    <row r="46" spans="2:65" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>60</v>
       </c>
-      <c r="C46" s="5"/>
-      <c r="D46" s="5"/>
-      <c r="E46" s="5"/>
-      <c r="F46" s="5"/>
-      <c r="G46" s="5"/>
-      <c r="H46" s="5"/>
-      <c r="I46" s="5"/>
-      <c r="J46" s="9">
-        <f t="shared" ref="J46:N46" si="41">+J30/J29</f>
+      <c r="C46" s="9" t="e">
+        <f t="shared" ref="C46:J46" si="48">+C30/C29</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D46" s="9" t="e">
+        <f t="shared" si="48"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E46" s="9">
+        <f t="shared" si="48"/>
+        <v>0.21787624319759807</v>
+      </c>
+      <c r="F46" s="9">
+        <f t="shared" si="48"/>
+        <v>0.35145384152502929</v>
+      </c>
+      <c r="G46" s="9">
+        <f t="shared" si="48"/>
+        <v>0.30625636502986958</v>
+      </c>
+      <c r="H46" s="9" t="e">
+        <f t="shared" si="48"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I46" s="9" t="e">
+        <f t="shared" si="48"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J46" s="9" t="e">
+        <f t="shared" si="48"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K46" s="5"/>
+      <c r="L46" s="9">
+        <f t="shared" ref="L46:P46" si="49">+L30/L29</f>
         <v>0.21813057198002508</v>
       </c>
-      <c r="K46" s="9">
-        <f t="shared" si="41"/>
+      <c r="M46" s="9">
+        <f t="shared" si="49"/>
         <v>0.23263848733664863</v>
       </c>
-      <c r="L46" s="9">
-        <f t="shared" si="41"/>
+      <c r="N46" s="9">
+        <f t="shared" si="49"/>
         <v>5.0707477354804339E-2</v>
       </c>
-      <c r="M46" s="9">
-        <f t="shared" si="41"/>
+      <c r="O46" s="9">
+        <f t="shared" si="49"/>
         <v>0.12074782119763841</v>
       </c>
-      <c r="N46" s="9">
-        <f t="shared" si="41"/>
+      <c r="P46" s="9">
+        <f t="shared" si="49"/>
         <v>0.29654666161155774</v>
       </c>
-      <c r="O46" s="9">
-        <f>+O30/O29</f>
+      <c r="Q46" s="9">
+        <f>+Q30/Q29</f>
         <v>0.28574889956790367</v>
       </c>
-      <c r="P46" s="9">
-        <f>+P30/P29</f>
+      <c r="R46" s="9">
+        <f>+R30/R29</f>
         <v>0.2849941859494704</v>
       </c>
-      <c r="Q46" s="5"/>
-      <c r="R46" s="5"/>
       <c r="S46" s="5"/>
       <c r="T46" s="5"/>
       <c r="U46" s="5"/>
@@ -4771,8 +4970,10 @@
       <c r="BI46" s="5"/>
       <c r="BJ46" s="5"/>
       <c r="BK46" s="5"/>
-    </row>
-    <row r="47" spans="2:63" x14ac:dyDescent="0.25">
+      <c r="BL46" s="5"/>
+      <c r="BM46" s="5"/>
+    </row>
+    <row r="47" spans="2:65" x14ac:dyDescent="0.25">
       <c r="C47" s="5"/>
       <c r="D47" s="5"/>
       <c r="E47" s="5"/>
@@ -4834,8 +5035,10 @@
       <c r="BI47" s="5"/>
       <c r="BJ47" s="5"/>
       <c r="BK47" s="5"/>
-    </row>
-    <row r="48" spans="2:63" x14ac:dyDescent="0.25">
+      <c r="BL47" s="5"/>
+      <c r="BM47" s="5"/>
+    </row>
+    <row r="48" spans="2:65" x14ac:dyDescent="0.25">
       <c r="C48" s="5"/>
       <c r="D48" s="5"/>
       <c r="E48" s="5"/>
@@ -4897,8 +5100,10 @@
       <c r="BI48" s="5"/>
       <c r="BJ48" s="5"/>
       <c r="BK48" s="5"/>
-    </row>
-    <row r="49" spans="3:63" x14ac:dyDescent="0.25">
+      <c r="BL48" s="5"/>
+      <c r="BM48" s="5"/>
+    </row>
+    <row r="49" spans="3:65" x14ac:dyDescent="0.25">
       <c r="C49" s="5"/>
       <c r="D49" s="5"/>
       <c r="E49" s="5"/>
@@ -4960,8 +5165,10 @@
       <c r="BI49" s="5"/>
       <c r="BJ49" s="5"/>
       <c r="BK49" s="5"/>
-    </row>
-    <row r="50" spans="3:63" x14ac:dyDescent="0.25">
+      <c r="BL49" s="5"/>
+      <c r="BM49" s="5"/>
+    </row>
+    <row r="50" spans="3:65" x14ac:dyDescent="0.25">
       <c r="C50" s="5"/>
       <c r="D50" s="5"/>
       <c r="E50" s="5"/>
@@ -5023,8 +5230,10 @@
       <c r="BI50" s="5"/>
       <c r="BJ50" s="5"/>
       <c r="BK50" s="5"/>
-    </row>
-    <row r="51" spans="3:63" x14ac:dyDescent="0.25">
+      <c r="BL50" s="5"/>
+      <c r="BM50" s="5"/>
+    </row>
+    <row r="51" spans="3:65" x14ac:dyDescent="0.25">
       <c r="C51" s="5"/>
       <c r="D51" s="5"/>
       <c r="E51" s="5"/>
@@ -5086,8 +5295,10 @@
       <c r="BI51" s="5"/>
       <c r="BJ51" s="5"/>
       <c r="BK51" s="5"/>
-    </row>
-    <row r="52" spans="3:63" x14ac:dyDescent="0.25">
+      <c r="BL51" s="5"/>
+      <c r="BM51" s="5"/>
+    </row>
+    <row r="52" spans="3:65" x14ac:dyDescent="0.25">
       <c r="C52" s="5"/>
       <c r="D52" s="5"/>
       <c r="E52" s="5"/>
@@ -5149,8 +5360,10 @@
       <c r="BI52" s="5"/>
       <c r="BJ52" s="5"/>
       <c r="BK52" s="5"/>
-    </row>
-    <row r="53" spans="3:63" x14ac:dyDescent="0.25">
+      <c r="BL52" s="5"/>
+      <c r="BM52" s="5"/>
+    </row>
+    <row r="53" spans="3:65" x14ac:dyDescent="0.25">
       <c r="C53" s="5"/>
       <c r="D53" s="5"/>
       <c r="E53" s="5"/>
@@ -5212,8 +5425,10 @@
       <c r="BI53" s="5"/>
       <c r="BJ53" s="5"/>
       <c r="BK53" s="5"/>
-    </row>
-    <row r="54" spans="3:63" x14ac:dyDescent="0.25">
+      <c r="BL53" s="5"/>
+      <c r="BM53" s="5"/>
+    </row>
+    <row r="54" spans="3:65" x14ac:dyDescent="0.25">
       <c r="C54" s="5"/>
       <c r="D54" s="5"/>
       <c r="E54" s="5"/>
@@ -5275,8 +5490,10 @@
       <c r="BI54" s="5"/>
       <c r="BJ54" s="5"/>
       <c r="BK54" s="5"/>
-    </row>
-    <row r="55" spans="3:63" x14ac:dyDescent="0.25">
+      <c r="BL54" s="5"/>
+      <c r="BM54" s="5"/>
+    </row>
+    <row r="55" spans="3:65" x14ac:dyDescent="0.25">
       <c r="C55" s="5"/>
       <c r="D55" s="5"/>
       <c r="E55" s="5"/>
@@ -5338,8 +5555,10 @@
       <c r="BI55" s="5"/>
       <c r="BJ55" s="5"/>
       <c r="BK55" s="5"/>
-    </row>
-    <row r="56" spans="3:63" x14ac:dyDescent="0.25">
+      <c r="BL55" s="5"/>
+      <c r="BM55" s="5"/>
+    </row>
+    <row r="56" spans="3:65" x14ac:dyDescent="0.25">
       <c r="C56" s="5"/>
       <c r="D56" s="5"/>
       <c r="E56" s="5"/>
@@ -5401,8 +5620,10 @@
       <c r="BI56" s="5"/>
       <c r="BJ56" s="5"/>
       <c r="BK56" s="5"/>
-    </row>
-    <row r="57" spans="3:63" x14ac:dyDescent="0.25">
+      <c r="BL56" s="5"/>
+      <c r="BM56" s="5"/>
+    </row>
+    <row r="57" spans="3:65" x14ac:dyDescent="0.25">
       <c r="C57" s="5"/>
       <c r="D57" s="5"/>
       <c r="E57" s="5"/>
@@ -5464,8 +5685,10 @@
       <c r="BI57" s="5"/>
       <c r="BJ57" s="5"/>
       <c r="BK57" s="5"/>
-    </row>
-    <row r="58" spans="3:63" x14ac:dyDescent="0.25">
+      <c r="BL57" s="5"/>
+      <c r="BM57" s="5"/>
+    </row>
+    <row r="58" spans="3:65" x14ac:dyDescent="0.25">
       <c r="C58" s="5"/>
       <c r="D58" s="5"/>
       <c r="E58" s="5"/>
@@ -5527,8 +5750,10 @@
       <c r="BI58" s="5"/>
       <c r="BJ58" s="5"/>
       <c r="BK58" s="5"/>
-    </row>
-    <row r="59" spans="3:63" x14ac:dyDescent="0.25">
+      <c r="BL58" s="5"/>
+      <c r="BM58" s="5"/>
+    </row>
+    <row r="59" spans="3:65" x14ac:dyDescent="0.25">
       <c r="C59" s="5"/>
       <c r="D59" s="5"/>
       <c r="E59" s="5"/>
@@ -5590,8 +5815,10 @@
       <c r="BI59" s="5"/>
       <c r="BJ59" s="5"/>
       <c r="BK59" s="5"/>
-    </row>
-    <row r="60" spans="3:63" x14ac:dyDescent="0.25">
+      <c r="BL59" s="5"/>
+      <c r="BM59" s="5"/>
+    </row>
+    <row r="60" spans="3:65" x14ac:dyDescent="0.25">
       <c r="C60" s="5"/>
       <c r="D60" s="5"/>
       <c r="E60" s="5"/>
@@ -5653,8 +5880,10 @@
       <c r="BI60" s="5"/>
       <c r="BJ60" s="5"/>
       <c r="BK60" s="5"/>
-    </row>
-    <row r="61" spans="3:63" x14ac:dyDescent="0.25">
+      <c r="BL60" s="5"/>
+      <c r="BM60" s="5"/>
+    </row>
+    <row r="61" spans="3:65" x14ac:dyDescent="0.25">
       <c r="C61" s="5"/>
       <c r="D61" s="5"/>
       <c r="E61" s="5"/>
@@ -5716,8 +5945,10 @@
       <c r="BI61" s="5"/>
       <c r="BJ61" s="5"/>
       <c r="BK61" s="5"/>
-    </row>
-    <row r="62" spans="3:63" x14ac:dyDescent="0.25">
+      <c r="BL61" s="5"/>
+      <c r="BM61" s="5"/>
+    </row>
+    <row r="62" spans="3:65" x14ac:dyDescent="0.25">
       <c r="C62" s="5"/>
       <c r="D62" s="5"/>
       <c r="E62" s="5"/>
@@ -5779,8 +6010,10 @@
       <c r="BI62" s="5"/>
       <c r="BJ62" s="5"/>
       <c r="BK62" s="5"/>
-    </row>
-    <row r="63" spans="3:63" x14ac:dyDescent="0.25">
+      <c r="BL62" s="5"/>
+      <c r="BM62" s="5"/>
+    </row>
+    <row r="63" spans="3:65" x14ac:dyDescent="0.25">
       <c r="C63" s="5"/>
       <c r="D63" s="5"/>
       <c r="E63" s="5"/>
@@ -5842,8 +6075,10 @@
       <c r="BI63" s="5"/>
       <c r="BJ63" s="5"/>
       <c r="BK63" s="5"/>
-    </row>
-    <row r="64" spans="3:63" x14ac:dyDescent="0.25">
+      <c r="BL63" s="5"/>
+      <c r="BM63" s="5"/>
+    </row>
+    <row r="64" spans="3:65" x14ac:dyDescent="0.25">
       <c r="C64" s="5"/>
       <c r="D64" s="5"/>
       <c r="E64" s="5"/>
@@ -5905,8 +6140,10 @@
       <c r="BI64" s="5"/>
       <c r="BJ64" s="5"/>
       <c r="BK64" s="5"/>
-    </row>
-    <row r="65" spans="3:63" x14ac:dyDescent="0.25">
+      <c r="BL64" s="5"/>
+      <c r="BM64" s="5"/>
+    </row>
+    <row r="65" spans="3:65" x14ac:dyDescent="0.25">
       <c r="C65" s="5"/>
       <c r="D65" s="5"/>
       <c r="E65" s="5"/>
@@ -5968,8 +6205,10 @@
       <c r="BI65" s="5"/>
       <c r="BJ65" s="5"/>
       <c r="BK65" s="5"/>
-    </row>
-    <row r="66" spans="3:63" x14ac:dyDescent="0.25">
+      <c r="BL65" s="5"/>
+      <c r="BM65" s="5"/>
+    </row>
+    <row r="66" spans="3:65" x14ac:dyDescent="0.25">
       <c r="C66" s="5"/>
       <c r="D66" s="5"/>
       <c r="E66" s="5"/>
@@ -6031,8 +6270,10 @@
       <c r="BI66" s="5"/>
       <c r="BJ66" s="5"/>
       <c r="BK66" s="5"/>
-    </row>
-    <row r="67" spans="3:63" x14ac:dyDescent="0.25">
+      <c r="BL66" s="5"/>
+      <c r="BM66" s="5"/>
+    </row>
+    <row r="67" spans="3:65" x14ac:dyDescent="0.25">
       <c r="C67" s="5"/>
       <c r="D67" s="5"/>
       <c r="E67" s="5"/>
@@ -6094,8 +6335,10 @@
       <c r="BI67" s="5"/>
       <c r="BJ67" s="5"/>
       <c r="BK67" s="5"/>
-    </row>
-    <row r="68" spans="3:63" x14ac:dyDescent="0.25">
+      <c r="BL67" s="5"/>
+      <c r="BM67" s="5"/>
+    </row>
+    <row r="68" spans="3:65" x14ac:dyDescent="0.25">
       <c r="C68" s="5"/>
       <c r="D68" s="5"/>
       <c r="E68" s="5"/>
@@ -6157,8 +6400,10 @@
       <c r="BI68" s="5"/>
       <c r="BJ68" s="5"/>
       <c r="BK68" s="5"/>
-    </row>
-    <row r="69" spans="3:63" x14ac:dyDescent="0.25">
+      <c r="BL68" s="5"/>
+      <c r="BM68" s="5"/>
+    </row>
+    <row r="69" spans="3:65" x14ac:dyDescent="0.25">
       <c r="C69" s="5"/>
       <c r="D69" s="5"/>
       <c r="E69" s="5"/>
@@ -6220,8 +6465,10 @@
       <c r="BI69" s="5"/>
       <c r="BJ69" s="5"/>
       <c r="BK69" s="5"/>
-    </row>
-    <row r="70" spans="3:63" x14ac:dyDescent="0.25">
+      <c r="BL69" s="5"/>
+      <c r="BM69" s="5"/>
+    </row>
+    <row r="70" spans="3:65" x14ac:dyDescent="0.25">
       <c r="C70" s="5"/>
       <c r="D70" s="5"/>
       <c r="E70" s="5"/>
@@ -6283,8 +6530,10 @@
       <c r="BI70" s="5"/>
       <c r="BJ70" s="5"/>
       <c r="BK70" s="5"/>
-    </row>
-    <row r="71" spans="3:63" x14ac:dyDescent="0.25">
+      <c r="BL70" s="5"/>
+      <c r="BM70" s="5"/>
+    </row>
+    <row r="71" spans="3:65" x14ac:dyDescent="0.25">
       <c r="C71" s="5"/>
       <c r="D71" s="5"/>
       <c r="E71" s="5"/>
@@ -6346,8 +6595,10 @@
       <c r="BI71" s="5"/>
       <c r="BJ71" s="5"/>
       <c r="BK71" s="5"/>
-    </row>
-    <row r="72" spans="3:63" x14ac:dyDescent="0.25">
+      <c r="BL71" s="5"/>
+      <c r="BM71" s="5"/>
+    </row>
+    <row r="72" spans="3:65" x14ac:dyDescent="0.25">
       <c r="C72" s="5"/>
       <c r="D72" s="5"/>
       <c r="E72" s="5"/>
@@ -6409,8 +6660,10 @@
       <c r="BI72" s="5"/>
       <c r="BJ72" s="5"/>
       <c r="BK72" s="5"/>
-    </row>
-    <row r="73" spans="3:63" x14ac:dyDescent="0.25">
+      <c r="BL72" s="5"/>
+      <c r="BM72" s="5"/>
+    </row>
+    <row r="73" spans="3:65" x14ac:dyDescent="0.25">
       <c r="C73" s="5"/>
       <c r="D73" s="5"/>
       <c r="E73" s="5"/>
@@ -6472,8 +6725,10 @@
       <c r="BI73" s="5"/>
       <c r="BJ73" s="5"/>
       <c r="BK73" s="5"/>
-    </row>
-    <row r="74" spans="3:63" x14ac:dyDescent="0.25">
+      <c r="BL73" s="5"/>
+      <c r="BM73" s="5"/>
+    </row>
+    <row r="74" spans="3:65" x14ac:dyDescent="0.25">
       <c r="C74" s="5"/>
       <c r="D74" s="5"/>
       <c r="E74" s="5"/>
@@ -6535,8 +6790,10 @@
       <c r="BI74" s="5"/>
       <c r="BJ74" s="5"/>
       <c r="BK74" s="5"/>
-    </row>
-    <row r="75" spans="3:63" x14ac:dyDescent="0.25">
+      <c r="BL74" s="5"/>
+      <c r="BM74" s="5"/>
+    </row>
+    <row r="75" spans="3:65" x14ac:dyDescent="0.25">
       <c r="C75" s="5"/>
       <c r="D75" s="5"/>
       <c r="E75" s="5"/>
@@ -6598,8 +6855,10 @@
       <c r="BI75" s="5"/>
       <c r="BJ75" s="5"/>
       <c r="BK75" s="5"/>
-    </row>
-    <row r="76" spans="3:63" x14ac:dyDescent="0.25">
+      <c r="BL75" s="5"/>
+      <c r="BM75" s="5"/>
+    </row>
+    <row r="76" spans="3:65" x14ac:dyDescent="0.25">
       <c r="C76" s="5"/>
       <c r="D76" s="5"/>
       <c r="E76" s="5"/>
@@ -6661,8 +6920,10 @@
       <c r="BI76" s="5"/>
       <c r="BJ76" s="5"/>
       <c r="BK76" s="5"/>
-    </row>
-    <row r="77" spans="3:63" x14ac:dyDescent="0.25">
+      <c r="BL76" s="5"/>
+      <c r="BM76" s="5"/>
+    </row>
+    <row r="77" spans="3:65" x14ac:dyDescent="0.25">
       <c r="C77" s="5"/>
       <c r="D77" s="5"/>
       <c r="E77" s="5"/>
@@ -6724,8 +6985,10 @@
       <c r="BI77" s="5"/>
       <c r="BJ77" s="5"/>
       <c r="BK77" s="5"/>
-    </row>
-    <row r="78" spans="3:63" x14ac:dyDescent="0.25">
+      <c r="BL77" s="5"/>
+      <c r="BM77" s="5"/>
+    </row>
+    <row r="78" spans="3:65" x14ac:dyDescent="0.25">
       <c r="C78" s="5"/>
       <c r="D78" s="5"/>
       <c r="E78" s="5"/>
@@ -6787,8 +7050,10 @@
       <c r="BI78" s="5"/>
       <c r="BJ78" s="5"/>
       <c r="BK78" s="5"/>
-    </row>
-    <row r="79" spans="3:63" x14ac:dyDescent="0.25">
+      <c r="BL78" s="5"/>
+      <c r="BM78" s="5"/>
+    </row>
+    <row r="79" spans="3:65" x14ac:dyDescent="0.25">
       <c r="C79" s="5"/>
       <c r="D79" s="5"/>
       <c r="E79" s="5"/>
@@ -6850,8 +7115,10 @@
       <c r="BI79" s="5"/>
       <c r="BJ79" s="5"/>
       <c r="BK79" s="5"/>
-    </row>
-    <row r="80" spans="3:63" x14ac:dyDescent="0.25">
+      <c r="BL79" s="5"/>
+      <c r="BM79" s="5"/>
+    </row>
+    <row r="80" spans="3:65" x14ac:dyDescent="0.25">
       <c r="C80" s="5"/>
       <c r="D80" s="5"/>
       <c r="E80" s="5"/>
@@ -6913,8 +7180,10 @@
       <c r="BI80" s="5"/>
       <c r="BJ80" s="5"/>
       <c r="BK80" s="5"/>
-    </row>
-    <row r="81" spans="3:63" x14ac:dyDescent="0.25">
+      <c r="BL80" s="5"/>
+      <c r="BM80" s="5"/>
+    </row>
+    <row r="81" spans="3:65" x14ac:dyDescent="0.25">
       <c r="C81" s="5"/>
       <c r="D81" s="5"/>
       <c r="E81" s="5"/>
@@ -6976,8 +7245,10 @@
       <c r="BI81" s="5"/>
       <c r="BJ81" s="5"/>
       <c r="BK81" s="5"/>
-    </row>
-    <row r="82" spans="3:63" x14ac:dyDescent="0.25">
+      <c r="BL81" s="5"/>
+      <c r="BM81" s="5"/>
+    </row>
+    <row r="82" spans="3:65" x14ac:dyDescent="0.25">
       <c r="C82" s="5"/>
       <c r="D82" s="5"/>
       <c r="E82" s="5"/>
@@ -7039,8 +7310,10 @@
       <c r="BI82" s="5"/>
       <c r="BJ82" s="5"/>
       <c r="BK82" s="5"/>
-    </row>
-    <row r="83" spans="3:63" x14ac:dyDescent="0.25">
+      <c r="BL82" s="5"/>
+      <c r="BM82" s="5"/>
+    </row>
+    <row r="83" spans="3:65" x14ac:dyDescent="0.25">
       <c r="C83" s="5"/>
       <c r="D83" s="5"/>
       <c r="E83" s="5"/>
@@ -7102,8 +7375,10 @@
       <c r="BI83" s="5"/>
       <c r="BJ83" s="5"/>
       <c r="BK83" s="5"/>
-    </row>
-    <row r="84" spans="3:63" x14ac:dyDescent="0.25">
+      <c r="BL83" s="5"/>
+      <c r="BM83" s="5"/>
+    </row>
+    <row r="84" spans="3:65" x14ac:dyDescent="0.25">
       <c r="C84" s="5"/>
       <c r="D84" s="5"/>
       <c r="E84" s="5"/>
@@ -7165,8 +7440,10 @@
       <c r="BI84" s="5"/>
       <c r="BJ84" s="5"/>
       <c r="BK84" s="5"/>
-    </row>
-    <row r="85" spans="3:63" x14ac:dyDescent="0.25">
+      <c r="BL84" s="5"/>
+      <c r="BM84" s="5"/>
+    </row>
+    <row r="85" spans="3:65" x14ac:dyDescent="0.25">
       <c r="C85" s="5"/>
       <c r="D85" s="5"/>
       <c r="E85" s="5"/>
@@ -7228,8 +7505,10 @@
       <c r="BI85" s="5"/>
       <c r="BJ85" s="5"/>
       <c r="BK85" s="5"/>
-    </row>
-    <row r="86" spans="3:63" x14ac:dyDescent="0.25">
+      <c r="BL85" s="5"/>
+      <c r="BM85" s="5"/>
+    </row>
+    <row r="86" spans="3:65" x14ac:dyDescent="0.25">
       <c r="C86" s="5"/>
       <c r="D86" s="5"/>
       <c r="E86" s="5"/>
@@ -7291,8 +7570,10 @@
       <c r="BI86" s="5"/>
       <c r="BJ86" s="5"/>
       <c r="BK86" s="5"/>
-    </row>
-    <row r="87" spans="3:63" x14ac:dyDescent="0.25">
+      <c r="BL86" s="5"/>
+      <c r="BM86" s="5"/>
+    </row>
+    <row r="87" spans="3:65" x14ac:dyDescent="0.25">
       <c r="C87" s="5"/>
       <c r="D87" s="5"/>
       <c r="E87" s="5"/>
@@ -7354,8 +7635,10 @@
       <c r="BI87" s="5"/>
       <c r="BJ87" s="5"/>
       <c r="BK87" s="5"/>
-    </row>
-    <row r="88" spans="3:63" x14ac:dyDescent="0.25">
+      <c r="BL87" s="5"/>
+      <c r="BM87" s="5"/>
+    </row>
+    <row r="88" spans="3:65" x14ac:dyDescent="0.25">
       <c r="C88" s="5"/>
       <c r="D88" s="5"/>
       <c r="E88" s="5"/>
@@ -7417,8 +7700,10 @@
       <c r="BI88" s="5"/>
       <c r="BJ88" s="5"/>
       <c r="BK88" s="5"/>
-    </row>
-    <row r="89" spans="3:63" x14ac:dyDescent="0.25">
+      <c r="BL88" s="5"/>
+      <c r="BM88" s="5"/>
+    </row>
+    <row r="89" spans="3:65" x14ac:dyDescent="0.25">
       <c r="C89" s="5"/>
       <c r="D89" s="5"/>
       <c r="E89" s="5"/>
@@ -7480,8 +7765,10 @@
       <c r="BI89" s="5"/>
       <c r="BJ89" s="5"/>
       <c r="BK89" s="5"/>
-    </row>
-    <row r="90" spans="3:63" x14ac:dyDescent="0.25">
+      <c r="BL89" s="5"/>
+      <c r="BM89" s="5"/>
+    </row>
+    <row r="90" spans="3:65" x14ac:dyDescent="0.25">
       <c r="C90" s="5"/>
       <c r="D90" s="5"/>
       <c r="E90" s="5"/>
@@ -7543,8 +7830,10 @@
       <c r="BI90" s="5"/>
       <c r="BJ90" s="5"/>
       <c r="BK90" s="5"/>
-    </row>
-    <row r="91" spans="3:63" x14ac:dyDescent="0.25">
+      <c r="BL90" s="5"/>
+      <c r="BM90" s="5"/>
+    </row>
+    <row r="91" spans="3:65" x14ac:dyDescent="0.25">
       <c r="C91" s="5"/>
       <c r="D91" s="5"/>
       <c r="E91" s="5"/>
@@ -7606,8 +7895,10 @@
       <c r="BI91" s="5"/>
       <c r="BJ91" s="5"/>
       <c r="BK91" s="5"/>
-    </row>
-    <row r="92" spans="3:63" x14ac:dyDescent="0.25">
+      <c r="BL91" s="5"/>
+      <c r="BM91" s="5"/>
+    </row>
+    <row r="92" spans="3:65" x14ac:dyDescent="0.25">
       <c r="C92" s="5"/>
       <c r="D92" s="5"/>
       <c r="E92" s="5"/>
@@ -7669,8 +7960,10 @@
       <c r="BI92" s="5"/>
       <c r="BJ92" s="5"/>
       <c r="BK92" s="5"/>
-    </row>
-    <row r="93" spans="3:63" x14ac:dyDescent="0.25">
+      <c r="BL92" s="5"/>
+      <c r="BM92" s="5"/>
+    </row>
+    <row r="93" spans="3:65" x14ac:dyDescent="0.25">
       <c r="C93" s="5"/>
       <c r="D93" s="5"/>
       <c r="E93" s="5"/>
@@ -7732,8 +8025,10 @@
       <c r="BI93" s="5"/>
       <c r="BJ93" s="5"/>
       <c r="BK93" s="5"/>
-    </row>
-    <row r="94" spans="3:63" x14ac:dyDescent="0.25">
+      <c r="BL93" s="5"/>
+      <c r="BM93" s="5"/>
+    </row>
+    <row r="94" spans="3:65" x14ac:dyDescent="0.25">
       <c r="C94" s="5"/>
       <c r="D94" s="5"/>
       <c r="E94" s="5"/>
@@ -7795,8 +8090,10 @@
       <c r="BI94" s="5"/>
       <c r="BJ94" s="5"/>
       <c r="BK94" s="5"/>
-    </row>
-    <row r="95" spans="3:63" x14ac:dyDescent="0.25">
+      <c r="BL94" s="5"/>
+      <c r="BM94" s="5"/>
+    </row>
+    <row r="95" spans="3:65" x14ac:dyDescent="0.25">
       <c r="C95" s="5"/>
       <c r="D95" s="5"/>
       <c r="E95" s="5"/>
@@ -7858,8 +8155,10 @@
       <c r="BI95" s="5"/>
       <c r="BJ95" s="5"/>
       <c r="BK95" s="5"/>
-    </row>
-    <row r="96" spans="3:63" x14ac:dyDescent="0.25">
+      <c r="BL95" s="5"/>
+      <c r="BM95" s="5"/>
+    </row>
+    <row r="96" spans="3:65" x14ac:dyDescent="0.25">
       <c r="C96" s="5"/>
       <c r="D96" s="5"/>
       <c r="E96" s="5"/>
@@ -7921,8 +8220,10 @@
       <c r="BI96" s="5"/>
       <c r="BJ96" s="5"/>
       <c r="BK96" s="5"/>
-    </row>
-    <row r="97" spans="3:63" x14ac:dyDescent="0.25">
+      <c r="BL96" s="5"/>
+      <c r="BM96" s="5"/>
+    </row>
+    <row r="97" spans="3:65" x14ac:dyDescent="0.25">
       <c r="C97" s="5"/>
       <c r="D97" s="5"/>
       <c r="E97" s="5"/>
@@ -7984,8 +8285,10 @@
       <c r="BI97" s="5"/>
       <c r="BJ97" s="5"/>
       <c r="BK97" s="5"/>
-    </row>
-    <row r="98" spans="3:63" x14ac:dyDescent="0.25">
+      <c r="BL97" s="5"/>
+      <c r="BM97" s="5"/>
+    </row>
+    <row r="98" spans="3:65" x14ac:dyDescent="0.25">
       <c r="C98" s="5"/>
       <c r="D98" s="5"/>
       <c r="E98" s="5"/>
@@ -8047,8 +8350,10 @@
       <c r="BI98" s="5"/>
       <c r="BJ98" s="5"/>
       <c r="BK98" s="5"/>
-    </row>
-    <row r="99" spans="3:63" x14ac:dyDescent="0.25">
+      <c r="BL98" s="5"/>
+      <c r="BM98" s="5"/>
+    </row>
+    <row r="99" spans="3:65" x14ac:dyDescent="0.25">
       <c r="C99" s="5"/>
       <c r="D99" s="5"/>
       <c r="E99" s="5"/>
@@ -8110,8 +8415,10 @@
       <c r="BI99" s="5"/>
       <c r="BJ99" s="5"/>
       <c r="BK99" s="5"/>
-    </row>
-    <row r="100" spans="3:63" x14ac:dyDescent="0.25">
+      <c r="BL99" s="5"/>
+      <c r="BM99" s="5"/>
+    </row>
+    <row r="100" spans="3:65" x14ac:dyDescent="0.25">
       <c r="C100" s="5"/>
       <c r="D100" s="5"/>
       <c r="E100" s="5"/>
@@ -8173,8 +8480,10 @@
       <c r="BI100" s="5"/>
       <c r="BJ100" s="5"/>
       <c r="BK100" s="5"/>
-    </row>
-    <row r="101" spans="3:63" x14ac:dyDescent="0.25">
+      <c r="BL100" s="5"/>
+      <c r="BM100" s="5"/>
+    </row>
+    <row r="101" spans="3:65" x14ac:dyDescent="0.25">
       <c r="C101" s="5"/>
       <c r="D101" s="5"/>
       <c r="E101" s="5"/>
@@ -8236,8 +8545,10 @@
       <c r="BI101" s="5"/>
       <c r="BJ101" s="5"/>
       <c r="BK101" s="5"/>
-    </row>
-    <row r="102" spans="3:63" x14ac:dyDescent="0.25">
+      <c r="BL101" s="5"/>
+      <c r="BM101" s="5"/>
+    </row>
+    <row r="102" spans="3:65" x14ac:dyDescent="0.25">
       <c r="C102" s="5"/>
       <c r="D102" s="5"/>
       <c r="E102" s="5"/>
@@ -8299,8 +8610,10 @@
       <c r="BI102" s="5"/>
       <c r="BJ102" s="5"/>
       <c r="BK102" s="5"/>
-    </row>
-    <row r="103" spans="3:63" x14ac:dyDescent="0.25">
+      <c r="BL102" s="5"/>
+      <c r="BM102" s="5"/>
+    </row>
+    <row r="103" spans="3:65" x14ac:dyDescent="0.25">
       <c r="C103" s="5"/>
       <c r="D103" s="5"/>
       <c r="E103" s="5"/>
@@ -8362,8 +8675,10 @@
       <c r="BI103" s="5"/>
       <c r="BJ103" s="5"/>
       <c r="BK103" s="5"/>
-    </row>
-    <row r="104" spans="3:63" x14ac:dyDescent="0.25">
+      <c r="BL103" s="5"/>
+      <c r="BM103" s="5"/>
+    </row>
+    <row r="104" spans="3:65" x14ac:dyDescent="0.25">
       <c r="C104" s="5"/>
       <c r="D104" s="5"/>
       <c r="E104" s="5"/>
@@ -8425,8 +8740,10 @@
       <c r="BI104" s="5"/>
       <c r="BJ104" s="5"/>
       <c r="BK104" s="5"/>
-    </row>
-    <row r="105" spans="3:63" x14ac:dyDescent="0.25">
+      <c r="BL104" s="5"/>
+      <c r="BM104" s="5"/>
+    </row>
+    <row r="105" spans="3:65" x14ac:dyDescent="0.25">
       <c r="C105" s="5"/>
       <c r="D105" s="5"/>
       <c r="E105" s="5"/>
@@ -8488,8 +8805,10 @@
       <c r="BI105" s="5"/>
       <c r="BJ105" s="5"/>
       <c r="BK105" s="5"/>
-    </row>
-    <row r="106" spans="3:63" x14ac:dyDescent="0.25">
+      <c r="BL105" s="5"/>
+      <c r="BM105" s="5"/>
+    </row>
+    <row r="106" spans="3:65" x14ac:dyDescent="0.25">
       <c r="C106" s="5"/>
       <c r="D106" s="5"/>
       <c r="E106" s="5"/>
@@ -8551,8 +8870,10 @@
       <c r="BI106" s="5"/>
       <c r="BJ106" s="5"/>
       <c r="BK106" s="5"/>
-    </row>
-    <row r="107" spans="3:63" x14ac:dyDescent="0.25">
+      <c r="BL106" s="5"/>
+      <c r="BM106" s="5"/>
+    </row>
+    <row r="107" spans="3:65" x14ac:dyDescent="0.25">
       <c r="C107" s="5"/>
       <c r="D107" s="5"/>
       <c r="E107" s="5"/>
@@ -8614,8 +8935,10 @@
       <c r="BI107" s="5"/>
       <c r="BJ107" s="5"/>
       <c r="BK107" s="5"/>
-    </row>
-    <row r="108" spans="3:63" x14ac:dyDescent="0.25">
+      <c r="BL107" s="5"/>
+      <c r="BM107" s="5"/>
+    </row>
+    <row r="108" spans="3:65" x14ac:dyDescent="0.25">
       <c r="C108" s="5"/>
       <c r="D108" s="5"/>
       <c r="E108" s="5"/>
@@ -8677,8 +9000,10 @@
       <c r="BI108" s="5"/>
       <c r="BJ108" s="5"/>
       <c r="BK108" s="5"/>
-    </row>
-    <row r="109" spans="3:63" x14ac:dyDescent="0.25">
+      <c r="BL108" s="5"/>
+      <c r="BM108" s="5"/>
+    </row>
+    <row r="109" spans="3:65" x14ac:dyDescent="0.25">
       <c r="C109" s="5"/>
       <c r="D109" s="5"/>
       <c r="E109" s="5"/>
@@ -8740,8 +9065,10 @@
       <c r="BI109" s="5"/>
       <c r="BJ109" s="5"/>
       <c r="BK109" s="5"/>
-    </row>
-    <row r="110" spans="3:63" x14ac:dyDescent="0.25">
+      <c r="BL109" s="5"/>
+      <c r="BM109" s="5"/>
+    </row>
+    <row r="110" spans="3:65" x14ac:dyDescent="0.25">
       <c r="C110" s="5"/>
       <c r="D110" s="5"/>
       <c r="E110" s="5"/>
@@ -8803,8 +9130,10 @@
       <c r="BI110" s="5"/>
       <c r="BJ110" s="5"/>
       <c r="BK110" s="5"/>
-    </row>
-    <row r="111" spans="3:63" x14ac:dyDescent="0.25">
+      <c r="BL110" s="5"/>
+      <c r="BM110" s="5"/>
+    </row>
+    <row r="111" spans="3:65" x14ac:dyDescent="0.25">
       <c r="C111" s="5"/>
       <c r="D111" s="5"/>
       <c r="E111" s="5"/>
@@ -8866,8 +9195,10 @@
       <c r="BI111" s="5"/>
       <c r="BJ111" s="5"/>
       <c r="BK111" s="5"/>
-    </row>
-    <row r="112" spans="3:63" x14ac:dyDescent="0.25">
+      <c r="BL111" s="5"/>
+      <c r="BM111" s="5"/>
+    </row>
+    <row r="112" spans="3:65" x14ac:dyDescent="0.25">
       <c r="C112" s="5"/>
       <c r="D112" s="5"/>
       <c r="E112" s="5"/>
@@ -8929,8 +9260,10 @@
       <c r="BI112" s="5"/>
       <c r="BJ112" s="5"/>
       <c r="BK112" s="5"/>
-    </row>
-    <row r="113" spans="3:63" x14ac:dyDescent="0.25">
+      <c r="BL112" s="5"/>
+      <c r="BM112" s="5"/>
+    </row>
+    <row r="113" spans="3:65" x14ac:dyDescent="0.25">
       <c r="C113" s="5"/>
       <c r="D113" s="5"/>
       <c r="E113" s="5"/>
@@ -8992,8 +9325,10 @@
       <c r="BI113" s="5"/>
       <c r="BJ113" s="5"/>
       <c r="BK113" s="5"/>
-    </row>
-    <row r="114" spans="3:63" x14ac:dyDescent="0.25">
+      <c r="BL113" s="5"/>
+      <c r="BM113" s="5"/>
+    </row>
+    <row r="114" spans="3:65" x14ac:dyDescent="0.25">
       <c r="C114" s="5"/>
       <c r="D114" s="5"/>
       <c r="E114" s="5"/>
@@ -9055,8 +9390,10 @@
       <c r="BI114" s="5"/>
       <c r="BJ114" s="5"/>
       <c r="BK114" s="5"/>
-    </row>
-    <row r="115" spans="3:63" x14ac:dyDescent="0.25">
+      <c r="BL114" s="5"/>
+      <c r="BM114" s="5"/>
+    </row>
+    <row r="115" spans="3:65" x14ac:dyDescent="0.25">
       <c r="C115" s="5"/>
       <c r="D115" s="5"/>
       <c r="E115" s="5"/>
@@ -9118,8 +9455,10 @@
       <c r="BI115" s="5"/>
       <c r="BJ115" s="5"/>
       <c r="BK115" s="5"/>
-    </row>
-    <row r="116" spans="3:63" x14ac:dyDescent="0.25">
+      <c r="BL115" s="5"/>
+      <c r="BM115" s="5"/>
+    </row>
+    <row r="116" spans="3:65" x14ac:dyDescent="0.25">
       <c r="C116" s="5"/>
       <c r="D116" s="5"/>
       <c r="E116" s="5"/>
@@ -9181,8 +9520,10 @@
       <c r="BI116" s="5"/>
       <c r="BJ116" s="5"/>
       <c r="BK116" s="5"/>
-    </row>
-    <row r="117" spans="3:63" x14ac:dyDescent="0.25">
+      <c r="BL116" s="5"/>
+      <c r="BM116" s="5"/>
+    </row>
+    <row r="117" spans="3:65" x14ac:dyDescent="0.25">
       <c r="C117" s="5"/>
       <c r="D117" s="5"/>
       <c r="E117" s="5"/>
@@ -9244,8 +9585,10 @@
       <c r="BI117" s="5"/>
       <c r="BJ117" s="5"/>
       <c r="BK117" s="5"/>
-    </row>
-    <row r="118" spans="3:63" x14ac:dyDescent="0.25">
+      <c r="BL117" s="5"/>
+      <c r="BM117" s="5"/>
+    </row>
+    <row r="118" spans="3:65" x14ac:dyDescent="0.25">
       <c r="C118" s="5"/>
       <c r="D118" s="5"/>
       <c r="E118" s="5"/>
@@ -9307,8 +9650,10 @@
       <c r="BI118" s="5"/>
       <c r="BJ118" s="5"/>
       <c r="BK118" s="5"/>
-    </row>
-    <row r="119" spans="3:63" x14ac:dyDescent="0.25">
+      <c r="BL118" s="5"/>
+      <c r="BM118" s="5"/>
+    </row>
+    <row r="119" spans="3:65" x14ac:dyDescent="0.25">
       <c r="C119" s="5"/>
       <c r="D119" s="5"/>
       <c r="E119" s="5"/>
@@ -9370,8 +9715,10 @@
       <c r="BI119" s="5"/>
       <c r="BJ119" s="5"/>
       <c r="BK119" s="5"/>
-    </row>
-    <row r="120" spans="3:63" x14ac:dyDescent="0.25">
+      <c r="BL119" s="5"/>
+      <c r="BM119" s="5"/>
+    </row>
+    <row r="120" spans="3:65" x14ac:dyDescent="0.25">
       <c r="C120" s="5"/>
       <c r="D120" s="5"/>
       <c r="E120" s="5"/>
@@ -9433,8 +9780,10 @@
       <c r="BI120" s="5"/>
       <c r="BJ120" s="5"/>
       <c r="BK120" s="5"/>
-    </row>
-    <row r="121" spans="3:63" x14ac:dyDescent="0.25">
+      <c r="BL120" s="5"/>
+      <c r="BM120" s="5"/>
+    </row>
+    <row r="121" spans="3:65" x14ac:dyDescent="0.25">
       <c r="C121" s="5"/>
       <c r="D121" s="5"/>
       <c r="E121" s="5"/>
@@ -9496,8 +9845,10 @@
       <c r="BI121" s="5"/>
       <c r="BJ121" s="5"/>
       <c r="BK121" s="5"/>
-    </row>
-    <row r="122" spans="3:63" x14ac:dyDescent="0.25">
+      <c r="BL121" s="5"/>
+      <c r="BM121" s="5"/>
+    </row>
+    <row r="122" spans="3:65" x14ac:dyDescent="0.25">
       <c r="C122" s="5"/>
       <c r="D122" s="5"/>
       <c r="E122" s="5"/>
@@ -9559,8 +9910,10 @@
       <c r="BI122" s="5"/>
       <c r="BJ122" s="5"/>
       <c r="BK122" s="5"/>
-    </row>
-    <row r="123" spans="3:63" x14ac:dyDescent="0.25">
+      <c r="BL122" s="5"/>
+      <c r="BM122" s="5"/>
+    </row>
+    <row r="123" spans="3:65" x14ac:dyDescent="0.25">
       <c r="C123" s="5"/>
       <c r="D123" s="5"/>
       <c r="E123" s="5"/>
@@ -9622,8 +9975,10 @@
       <c r="BI123" s="5"/>
       <c r="BJ123" s="5"/>
       <c r="BK123" s="5"/>
-    </row>
-    <row r="124" spans="3:63" x14ac:dyDescent="0.25">
+      <c r="BL123" s="5"/>
+      <c r="BM123" s="5"/>
+    </row>
+    <row r="124" spans="3:65" x14ac:dyDescent="0.25">
       <c r="C124" s="5"/>
       <c r="D124" s="5"/>
       <c r="E124" s="5"/>
@@ -9685,8 +10040,10 @@
       <c r="BI124" s="5"/>
       <c r="BJ124" s="5"/>
       <c r="BK124" s="5"/>
-    </row>
-    <row r="125" spans="3:63" x14ac:dyDescent="0.25">
+      <c r="BL124" s="5"/>
+      <c r="BM124" s="5"/>
+    </row>
+    <row r="125" spans="3:65" x14ac:dyDescent="0.25">
       <c r="C125" s="5"/>
       <c r="D125" s="5"/>
       <c r="E125" s="5"/>
@@ -9748,8 +10105,10 @@
       <c r="BI125" s="5"/>
       <c r="BJ125" s="5"/>
       <c r="BK125" s="5"/>
-    </row>
-    <row r="126" spans="3:63" x14ac:dyDescent="0.25">
+      <c r="BL125" s="5"/>
+      <c r="BM125" s="5"/>
+    </row>
+    <row r="126" spans="3:65" x14ac:dyDescent="0.25">
       <c r="C126" s="5"/>
       <c r="D126" s="5"/>
       <c r="E126" s="5"/>
@@ -9811,8 +10170,10 @@
       <c r="BI126" s="5"/>
       <c r="BJ126" s="5"/>
       <c r="BK126" s="5"/>
-    </row>
-    <row r="127" spans="3:63" x14ac:dyDescent="0.25">
+      <c r="BL126" s="5"/>
+      <c r="BM126" s="5"/>
+    </row>
+    <row r="127" spans="3:65" x14ac:dyDescent="0.25">
       <c r="C127" s="5"/>
       <c r="D127" s="5"/>
       <c r="E127" s="5"/>
@@ -9874,8 +10235,10 @@
       <c r="BI127" s="5"/>
       <c r="BJ127" s="5"/>
       <c r="BK127" s="5"/>
-    </row>
-    <row r="128" spans="3:63" x14ac:dyDescent="0.25">
+      <c r="BL127" s="5"/>
+      <c r="BM127" s="5"/>
+    </row>
+    <row r="128" spans="3:65" x14ac:dyDescent="0.25">
       <c r="C128" s="5"/>
       <c r="D128" s="5"/>
       <c r="E128" s="5"/>
@@ -9937,8 +10300,10 @@
       <c r="BI128" s="5"/>
       <c r="BJ128" s="5"/>
       <c r="BK128" s="5"/>
-    </row>
-    <row r="129" spans="3:63" x14ac:dyDescent="0.25">
+      <c r="BL128" s="5"/>
+      <c r="BM128" s="5"/>
+    </row>
+    <row r="129" spans="3:65" x14ac:dyDescent="0.25">
       <c r="C129" s="5"/>
       <c r="D129" s="5"/>
       <c r="E129" s="5"/>
@@ -10000,8 +10365,10 @@
       <c r="BI129" s="5"/>
       <c r="BJ129" s="5"/>
       <c r="BK129" s="5"/>
-    </row>
-    <row r="130" spans="3:63" x14ac:dyDescent="0.25">
+      <c r="BL129" s="5"/>
+      <c r="BM129" s="5"/>
+    </row>
+    <row r="130" spans="3:65" x14ac:dyDescent="0.25">
       <c r="C130" s="5"/>
       <c r="D130" s="5"/>
       <c r="E130" s="5"/>
@@ -10063,8 +10430,10 @@
       <c r="BI130" s="5"/>
       <c r="BJ130" s="5"/>
       <c r="BK130" s="5"/>
-    </row>
-    <row r="131" spans="3:63" x14ac:dyDescent="0.25">
+      <c r="BL130" s="5"/>
+      <c r="BM130" s="5"/>
+    </row>
+    <row r="131" spans="3:65" x14ac:dyDescent="0.25">
       <c r="C131" s="5"/>
       <c r="D131" s="5"/>
       <c r="E131" s="5"/>
@@ -10126,8 +10495,10 @@
       <c r="BI131" s="5"/>
       <c r="BJ131" s="5"/>
       <c r="BK131" s="5"/>
-    </row>
-    <row r="132" spans="3:63" x14ac:dyDescent="0.25">
+      <c r="BL131" s="5"/>
+      <c r="BM131" s="5"/>
+    </row>
+    <row r="132" spans="3:65" x14ac:dyDescent="0.25">
       <c r="C132" s="5"/>
       <c r="D132" s="5"/>
       <c r="E132" s="5"/>
@@ -10189,8 +10560,10 @@
       <c r="BI132" s="5"/>
       <c r="BJ132" s="5"/>
       <c r="BK132" s="5"/>
-    </row>
-    <row r="133" spans="3:63" x14ac:dyDescent="0.25">
+      <c r="BL132" s="5"/>
+      <c r="BM132" s="5"/>
+    </row>
+    <row r="133" spans="3:65" x14ac:dyDescent="0.25">
       <c r="C133" s="5"/>
       <c r="D133" s="5"/>
       <c r="E133" s="5"/>
@@ -10252,8 +10625,10 @@
       <c r="BI133" s="5"/>
       <c r="BJ133" s="5"/>
       <c r="BK133" s="5"/>
-    </row>
-    <row r="134" spans="3:63" x14ac:dyDescent="0.25">
+      <c r="BL133" s="5"/>
+      <c r="BM133" s="5"/>
+    </row>
+    <row r="134" spans="3:65" x14ac:dyDescent="0.25">
       <c r="C134" s="5"/>
       <c r="D134" s="5"/>
       <c r="E134" s="5"/>
@@ -10315,8 +10690,10 @@
       <c r="BI134" s="5"/>
       <c r="BJ134" s="5"/>
       <c r="BK134" s="5"/>
-    </row>
-    <row r="135" spans="3:63" x14ac:dyDescent="0.25">
+      <c r="BL134" s="5"/>
+      <c r="BM134" s="5"/>
+    </row>
+    <row r="135" spans="3:65" x14ac:dyDescent="0.25">
       <c r="C135" s="5"/>
       <c r="D135" s="5"/>
       <c r="E135" s="5"/>
@@ -10378,8 +10755,10 @@
       <c r="BI135" s="5"/>
       <c r="BJ135" s="5"/>
       <c r="BK135" s="5"/>
-    </row>
-    <row r="136" spans="3:63" x14ac:dyDescent="0.25">
+      <c r="BL135" s="5"/>
+      <c r="BM135" s="5"/>
+    </row>
+    <row r="136" spans="3:65" x14ac:dyDescent="0.25">
       <c r="C136" s="5"/>
       <c r="D136" s="5"/>
       <c r="E136" s="5"/>
@@ -10441,8 +10820,10 @@
       <c r="BI136" s="5"/>
       <c r="BJ136" s="5"/>
       <c r="BK136" s="5"/>
-    </row>
-    <row r="137" spans="3:63" x14ac:dyDescent="0.25">
+      <c r="BL136" s="5"/>
+      <c r="BM136" s="5"/>
+    </row>
+    <row r="137" spans="3:65" x14ac:dyDescent="0.25">
       <c r="C137" s="5"/>
       <c r="D137" s="5"/>
       <c r="E137" s="5"/>
@@ -10504,8 +10885,10 @@
       <c r="BI137" s="5"/>
       <c r="BJ137" s="5"/>
       <c r="BK137" s="5"/>
-    </row>
-    <row r="138" spans="3:63" x14ac:dyDescent="0.25">
+      <c r="BL137" s="5"/>
+      <c r="BM137" s="5"/>
+    </row>
+    <row r="138" spans="3:65" x14ac:dyDescent="0.25">
       <c r="C138" s="5"/>
       <c r="D138" s="5"/>
       <c r="E138" s="5"/>
@@ -10567,8 +10950,10 @@
       <c r="BI138" s="5"/>
       <c r="BJ138" s="5"/>
       <c r="BK138" s="5"/>
-    </row>
-    <row r="139" spans="3:63" x14ac:dyDescent="0.25">
+      <c r="BL138" s="5"/>
+      <c r="BM138" s="5"/>
+    </row>
+    <row r="139" spans="3:65" x14ac:dyDescent="0.25">
       <c r="C139" s="5"/>
       <c r="D139" s="5"/>
       <c r="E139" s="5"/>
@@ -10630,8 +11015,10 @@
       <c r="BI139" s="5"/>
       <c r="BJ139" s="5"/>
       <c r="BK139" s="5"/>
-    </row>
-    <row r="140" spans="3:63" x14ac:dyDescent="0.25">
+      <c r="BL139" s="5"/>
+      <c r="BM139" s="5"/>
+    </row>
+    <row r="140" spans="3:65" x14ac:dyDescent="0.25">
       <c r="C140" s="5"/>
       <c r="D140" s="5"/>
       <c r="E140" s="5"/>
@@ -10693,8 +11080,10 @@
       <c r="BI140" s="5"/>
       <c r="BJ140" s="5"/>
       <c r="BK140" s="5"/>
-    </row>
-    <row r="141" spans="3:63" x14ac:dyDescent="0.25">
+      <c r="BL140" s="5"/>
+      <c r="BM140" s="5"/>
+    </row>
+    <row r="141" spans="3:65" x14ac:dyDescent="0.25">
       <c r="C141" s="5"/>
       <c r="D141" s="5"/>
       <c r="E141" s="5"/>
@@ -10756,8 +11145,10 @@
       <c r="BI141" s="5"/>
       <c r="BJ141" s="5"/>
       <c r="BK141" s="5"/>
-    </row>
-    <row r="142" spans="3:63" x14ac:dyDescent="0.25">
+      <c r="BL141" s="5"/>
+      <c r="BM141" s="5"/>
+    </row>
+    <row r="142" spans="3:65" x14ac:dyDescent="0.25">
       <c r="C142" s="5"/>
       <c r="D142" s="5"/>
       <c r="E142" s="5"/>
@@ -10819,8 +11210,10 @@
       <c r="BI142" s="5"/>
       <c r="BJ142" s="5"/>
       <c r="BK142" s="5"/>
-    </row>
-    <row r="143" spans="3:63" x14ac:dyDescent="0.25">
+      <c r="BL142" s="5"/>
+      <c r="BM142" s="5"/>
+    </row>
+    <row r="143" spans="3:65" x14ac:dyDescent="0.25">
       <c r="C143" s="5"/>
       <c r="D143" s="5"/>
       <c r="E143" s="5"/>
@@ -10882,8 +11275,10 @@
       <c r="BI143" s="5"/>
       <c r="BJ143" s="5"/>
       <c r="BK143" s="5"/>
-    </row>
-    <row r="144" spans="3:63" x14ac:dyDescent="0.25">
+      <c r="BL143" s="5"/>
+      <c r="BM143" s="5"/>
+    </row>
+    <row r="144" spans="3:65" x14ac:dyDescent="0.25">
       <c r="C144" s="5"/>
       <c r="D144" s="5"/>
       <c r="E144" s="5"/>
@@ -10945,8 +11340,10 @@
       <c r="BI144" s="5"/>
       <c r="BJ144" s="5"/>
       <c r="BK144" s="5"/>
-    </row>
-    <row r="145" spans="3:63" x14ac:dyDescent="0.25">
+      <c r="BL144" s="5"/>
+      <c r="BM144" s="5"/>
+    </row>
+    <row r="145" spans="3:65" x14ac:dyDescent="0.25">
       <c r="C145" s="5"/>
       <c r="D145" s="5"/>
       <c r="E145" s="5"/>
@@ -11008,8 +11405,10 @@
       <c r="BI145" s="5"/>
       <c r="BJ145" s="5"/>
       <c r="BK145" s="5"/>
-    </row>
-    <row r="146" spans="3:63" x14ac:dyDescent="0.25">
+      <c r="BL145" s="5"/>
+      <c r="BM145" s="5"/>
+    </row>
+    <row r="146" spans="3:65" x14ac:dyDescent="0.25">
       <c r="C146" s="5"/>
       <c r="D146" s="5"/>
       <c r="E146" s="5"/>
@@ -11071,8 +11470,10 @@
       <c r="BI146" s="5"/>
       <c r="BJ146" s="5"/>
       <c r="BK146" s="5"/>
-    </row>
-    <row r="147" spans="3:63" x14ac:dyDescent="0.25">
+      <c r="BL146" s="5"/>
+      <c r="BM146" s="5"/>
+    </row>
+    <row r="147" spans="3:65" x14ac:dyDescent="0.25">
       <c r="C147" s="5"/>
       <c r="D147" s="5"/>
       <c r="E147" s="5"/>
@@ -11134,8 +11535,10 @@
       <c r="BI147" s="5"/>
       <c r="BJ147" s="5"/>
       <c r="BK147" s="5"/>
-    </row>
-    <row r="148" spans="3:63" x14ac:dyDescent="0.25">
+      <c r="BL147" s="5"/>
+      <c r="BM147" s="5"/>
+    </row>
+    <row r="148" spans="3:65" x14ac:dyDescent="0.25">
       <c r="C148" s="5"/>
       <c r="D148" s="5"/>
       <c r="E148" s="5"/>
@@ -11197,8 +11600,10 @@
       <c r="BI148" s="5"/>
       <c r="BJ148" s="5"/>
       <c r="BK148" s="5"/>
-    </row>
-    <row r="149" spans="3:63" x14ac:dyDescent="0.25">
+      <c r="BL148" s="5"/>
+      <c r="BM148" s="5"/>
+    </row>
+    <row r="149" spans="3:65" x14ac:dyDescent="0.25">
       <c r="C149" s="5"/>
       <c r="D149" s="5"/>
       <c r="E149" s="5"/>
@@ -11260,8 +11665,10 @@
       <c r="BI149" s="5"/>
       <c r="BJ149" s="5"/>
       <c r="BK149" s="5"/>
-    </row>
-    <row r="150" spans="3:63" x14ac:dyDescent="0.25">
+      <c r="BL149" s="5"/>
+      <c r="BM149" s="5"/>
+    </row>
+    <row r="150" spans="3:65" x14ac:dyDescent="0.25">
       <c r="C150" s="5"/>
       <c r="D150" s="5"/>
       <c r="E150" s="5"/>
@@ -11323,8 +11730,10 @@
       <c r="BI150" s="5"/>
       <c r="BJ150" s="5"/>
       <c r="BK150" s="5"/>
-    </row>
-    <row r="151" spans="3:63" x14ac:dyDescent="0.25">
+      <c r="BL150" s="5"/>
+      <c r="BM150" s="5"/>
+    </row>
+    <row r="151" spans="3:65" x14ac:dyDescent="0.25">
       <c r="C151" s="5"/>
       <c r="D151" s="5"/>
       <c r="E151" s="5"/>
@@ -11386,8 +11795,10 @@
       <c r="BI151" s="5"/>
       <c r="BJ151" s="5"/>
       <c r="BK151" s="5"/>
-    </row>
-    <row r="152" spans="3:63" x14ac:dyDescent="0.25">
+      <c r="BL151" s="5"/>
+      <c r="BM151" s="5"/>
+    </row>
+    <row r="152" spans="3:65" x14ac:dyDescent="0.25">
       <c r="C152" s="5"/>
       <c r="D152" s="5"/>
       <c r="E152" s="5"/>
@@ -11449,8 +11860,10 @@
       <c r="BI152" s="5"/>
       <c r="BJ152" s="5"/>
       <c r="BK152" s="5"/>
-    </row>
-    <row r="153" spans="3:63" x14ac:dyDescent="0.25">
+      <c r="BL152" s="5"/>
+      <c r="BM152" s="5"/>
+    </row>
+    <row r="153" spans="3:65" x14ac:dyDescent="0.25">
       <c r="C153" s="5"/>
       <c r="D153" s="5"/>
       <c r="E153" s="5"/>
@@ -11512,8 +11925,10 @@
       <c r="BI153" s="5"/>
       <c r="BJ153" s="5"/>
       <c r="BK153" s="5"/>
-    </row>
-    <row r="154" spans="3:63" x14ac:dyDescent="0.25">
+      <c r="BL153" s="5"/>
+      <c r="BM153" s="5"/>
+    </row>
+    <row r="154" spans="3:65" x14ac:dyDescent="0.25">
       <c r="C154" s="5"/>
       <c r="D154" s="5"/>
       <c r="E154" s="5"/>
@@ -11575,8 +11990,10 @@
       <c r="BI154" s="5"/>
       <c r="BJ154" s="5"/>
       <c r="BK154" s="5"/>
-    </row>
-    <row r="155" spans="3:63" x14ac:dyDescent="0.25">
+      <c r="BL154" s="5"/>
+      <c r="BM154" s="5"/>
+    </row>
+    <row r="155" spans="3:65" x14ac:dyDescent="0.25">
       <c r="C155" s="6"/>
       <c r="D155" s="6"/>
       <c r="E155" s="6"/>
@@ -11637,8 +12054,10 @@
       <c r="BH155" s="6"/>
       <c r="BI155" s="6"/>
       <c r="BJ155" s="6"/>
-    </row>
-    <row r="156" spans="3:63" x14ac:dyDescent="0.25">
+      <c r="BK155" s="6"/>
+      <c r="BL155" s="6"/>
+    </row>
+    <row r="156" spans="3:65" x14ac:dyDescent="0.25">
       <c r="C156" s="6"/>
       <c r="D156" s="6"/>
       <c r="E156" s="6"/>
@@ -11699,8 +12118,10 @@
       <c r="BH156" s="6"/>
       <c r="BI156" s="6"/>
       <c r="BJ156" s="6"/>
-    </row>
-    <row r="157" spans="3:63" x14ac:dyDescent="0.25">
+      <c r="BK156" s="6"/>
+      <c r="BL156" s="6"/>
+    </row>
+    <row r="157" spans="3:65" x14ac:dyDescent="0.25">
       <c r="C157" s="6"/>
       <c r="D157" s="6"/>
       <c r="E157" s="6"/>
@@ -11761,8 +12182,10 @@
       <c r="BH157" s="6"/>
       <c r="BI157" s="6"/>
       <c r="BJ157" s="6"/>
-    </row>
-    <row r="158" spans="3:63" x14ac:dyDescent="0.25">
+      <c r="BK157" s="6"/>
+      <c r="BL157" s="6"/>
+    </row>
+    <row r="158" spans="3:65" x14ac:dyDescent="0.25">
       <c r="C158" s="6"/>
       <c r="D158" s="6"/>
       <c r="E158" s="6"/>
@@ -11823,8 +12246,10 @@
       <c r="BH158" s="6"/>
       <c r="BI158" s="6"/>
       <c r="BJ158" s="6"/>
-    </row>
-    <row r="159" spans="3:63" x14ac:dyDescent="0.25">
+      <c r="BK158" s="6"/>
+      <c r="BL158" s="6"/>
+    </row>
+    <row r="159" spans="3:65" x14ac:dyDescent="0.25">
       <c r="C159" s="6"/>
       <c r="D159" s="6"/>
       <c r="E159" s="6"/>
@@ -11885,8 +12310,10 @@
       <c r="BH159" s="6"/>
       <c r="BI159" s="6"/>
       <c r="BJ159" s="6"/>
-    </row>
-    <row r="160" spans="3:63" x14ac:dyDescent="0.25">
+      <c r="BK159" s="6"/>
+      <c r="BL159" s="6"/>
+    </row>
+    <row r="160" spans="3:65" x14ac:dyDescent="0.25">
       <c r="C160" s="6"/>
       <c r="D160" s="6"/>
       <c r="E160" s="6"/>
@@ -11947,8 +12374,10 @@
       <c r="BH160" s="6"/>
       <c r="BI160" s="6"/>
       <c r="BJ160" s="6"/>
-    </row>
-    <row r="161" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK160" s="6"/>
+      <c r="BL160" s="6"/>
+    </row>
+    <row r="161" spans="3:64" x14ac:dyDescent="0.25">
       <c r="C161" s="6"/>
       <c r="D161" s="6"/>
       <c r="E161" s="6"/>
@@ -12009,8 +12438,10 @@
       <c r="BH161" s="6"/>
       <c r="BI161" s="6"/>
       <c r="BJ161" s="6"/>
-    </row>
-    <row r="162" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK161" s="6"/>
+      <c r="BL161" s="6"/>
+    </row>
+    <row r="162" spans="3:64" x14ac:dyDescent="0.25">
       <c r="C162" s="6"/>
       <c r="D162" s="6"/>
       <c r="E162" s="6"/>
@@ -12071,8 +12502,10 @@
       <c r="BH162" s="6"/>
       <c r="BI162" s="6"/>
       <c r="BJ162" s="6"/>
-    </row>
-    <row r="163" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK162" s="6"/>
+      <c r="BL162" s="6"/>
+    </row>
+    <row r="163" spans="3:64" x14ac:dyDescent="0.25">
       <c r="C163" s="6"/>
       <c r="D163" s="6"/>
       <c r="E163" s="6"/>
@@ -12133,8 +12566,10 @@
       <c r="BH163" s="6"/>
       <c r="BI163" s="6"/>
       <c r="BJ163" s="6"/>
-    </row>
-    <row r="164" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK163" s="6"/>
+      <c r="BL163" s="6"/>
+    </row>
+    <row r="164" spans="3:64" x14ac:dyDescent="0.25">
       <c r="C164" s="6"/>
       <c r="D164" s="6"/>
       <c r="E164" s="6"/>
@@ -12195,8 +12630,10 @@
       <c r="BH164" s="6"/>
       <c r="BI164" s="6"/>
       <c r="BJ164" s="6"/>
-    </row>
-    <row r="165" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK164" s="6"/>
+      <c r="BL164" s="6"/>
+    </row>
+    <row r="165" spans="3:64" x14ac:dyDescent="0.25">
       <c r="C165" s="6"/>
       <c r="D165" s="6"/>
       <c r="E165" s="6"/>
@@ -12257,8 +12694,10 @@
       <c r="BH165" s="6"/>
       <c r="BI165" s="6"/>
       <c r="BJ165" s="6"/>
-    </row>
-    <row r="166" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK165" s="6"/>
+      <c r="BL165" s="6"/>
+    </row>
+    <row r="166" spans="3:64" x14ac:dyDescent="0.25">
       <c r="C166" s="6"/>
       <c r="D166" s="6"/>
       <c r="E166" s="6"/>
@@ -12319,8 +12758,10 @@
       <c r="BH166" s="6"/>
       <c r="BI166" s="6"/>
       <c r="BJ166" s="6"/>
-    </row>
-    <row r="167" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK166" s="6"/>
+      <c r="BL166" s="6"/>
+    </row>
+    <row r="167" spans="3:64" x14ac:dyDescent="0.25">
       <c r="C167" s="6"/>
       <c r="D167" s="6"/>
       <c r="E167" s="6"/>
@@ -12381,8 +12822,10 @@
       <c r="BH167" s="6"/>
       <c r="BI167" s="6"/>
       <c r="BJ167" s="6"/>
-    </row>
-    <row r="168" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK167" s="6"/>
+      <c r="BL167" s="6"/>
+    </row>
+    <row r="168" spans="3:64" x14ac:dyDescent="0.25">
       <c r="C168" s="6"/>
       <c r="D168" s="6"/>
       <c r="E168" s="6"/>
@@ -12443,8 +12886,10 @@
       <c r="BH168" s="6"/>
       <c r="BI168" s="6"/>
       <c r="BJ168" s="6"/>
-    </row>
-    <row r="169" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK168" s="6"/>
+      <c r="BL168" s="6"/>
+    </row>
+    <row r="169" spans="3:64" x14ac:dyDescent="0.25">
       <c r="C169" s="6"/>
       <c r="D169" s="6"/>
       <c r="E169" s="6"/>
@@ -12505,8 +12950,10 @@
       <c r="BH169" s="6"/>
       <c r="BI169" s="6"/>
       <c r="BJ169" s="6"/>
-    </row>
-    <row r="170" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK169" s="6"/>
+      <c r="BL169" s="6"/>
+    </row>
+    <row r="170" spans="3:64" x14ac:dyDescent="0.25">
       <c r="C170" s="6"/>
       <c r="D170" s="6"/>
       <c r="E170" s="6"/>
@@ -12567,8 +13014,10 @@
       <c r="BH170" s="6"/>
       <c r="BI170" s="6"/>
       <c r="BJ170" s="6"/>
-    </row>
-    <row r="171" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK170" s="6"/>
+      <c r="BL170" s="6"/>
+    </row>
+    <row r="171" spans="3:64" x14ac:dyDescent="0.25">
       <c r="C171" s="6"/>
       <c r="D171" s="6"/>
       <c r="E171" s="6"/>
@@ -12629,8 +13078,10 @@
       <c r="BH171" s="6"/>
       <c r="BI171" s="6"/>
       <c r="BJ171" s="6"/>
-    </row>
-    <row r="172" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK171" s="6"/>
+      <c r="BL171" s="6"/>
+    </row>
+    <row r="172" spans="3:64" x14ac:dyDescent="0.25">
       <c r="C172" s="6"/>
       <c r="D172" s="6"/>
       <c r="E172" s="6"/>
@@ -12691,8 +13142,10 @@
       <c r="BH172" s="6"/>
       <c r="BI172" s="6"/>
       <c r="BJ172" s="6"/>
-    </row>
-    <row r="173" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK172" s="6"/>
+      <c r="BL172" s="6"/>
+    </row>
+    <row r="173" spans="3:64" x14ac:dyDescent="0.25">
       <c r="C173" s="6"/>
       <c r="D173" s="6"/>
       <c r="E173" s="6"/>
@@ -12753,8 +13206,10 @@
       <c r="BH173" s="6"/>
       <c r="BI173" s="6"/>
       <c r="BJ173" s="6"/>
-    </row>
-    <row r="174" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK173" s="6"/>
+      <c r="BL173" s="6"/>
+    </row>
+    <row r="174" spans="3:64" x14ac:dyDescent="0.25">
       <c r="C174" s="6"/>
       <c r="D174" s="6"/>
       <c r="E174" s="6"/>
@@ -12815,8 +13270,10 @@
       <c r="BH174" s="6"/>
       <c r="BI174" s="6"/>
       <c r="BJ174" s="6"/>
-    </row>
-    <row r="175" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK174" s="6"/>
+      <c r="BL174" s="6"/>
+    </row>
+    <row r="175" spans="3:64" x14ac:dyDescent="0.25">
       <c r="C175" s="6"/>
       <c r="D175" s="6"/>
       <c r="E175" s="6"/>
@@ -12877,8 +13334,10 @@
       <c r="BH175" s="6"/>
       <c r="BI175" s="6"/>
       <c r="BJ175" s="6"/>
-    </row>
-    <row r="176" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK175" s="6"/>
+      <c r="BL175" s="6"/>
+    </row>
+    <row r="176" spans="3:64" x14ac:dyDescent="0.25">
       <c r="C176" s="6"/>
       <c r="D176" s="6"/>
       <c r="E176" s="6"/>
@@ -12939,8 +13398,10 @@
       <c r="BH176" s="6"/>
       <c r="BI176" s="6"/>
       <c r="BJ176" s="6"/>
-    </row>
-    <row r="177" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK176" s="6"/>
+      <c r="BL176" s="6"/>
+    </row>
+    <row r="177" spans="3:64" x14ac:dyDescent="0.25">
       <c r="C177" s="6"/>
       <c r="D177" s="6"/>
       <c r="E177" s="6"/>
@@ -13001,8 +13462,10 @@
       <c r="BH177" s="6"/>
       <c r="BI177" s="6"/>
       <c r="BJ177" s="6"/>
-    </row>
-    <row r="178" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK177" s="6"/>
+      <c r="BL177" s="6"/>
+    </row>
+    <row r="178" spans="3:64" x14ac:dyDescent="0.25">
       <c r="C178" s="6"/>
       <c r="D178" s="6"/>
       <c r="E178" s="6"/>
@@ -13063,8 +13526,10 @@
       <c r="BH178" s="6"/>
       <c r="BI178" s="6"/>
       <c r="BJ178" s="6"/>
-    </row>
-    <row r="179" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK178" s="6"/>
+      <c r="BL178" s="6"/>
+    </row>
+    <row r="179" spans="3:64" x14ac:dyDescent="0.25">
       <c r="C179" s="6"/>
       <c r="D179" s="6"/>
       <c r="E179" s="6"/>
@@ -13125,8 +13590,10 @@
       <c r="BH179" s="6"/>
       <c r="BI179" s="6"/>
       <c r="BJ179" s="6"/>
-    </row>
-    <row r="180" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK179" s="6"/>
+      <c r="BL179" s="6"/>
+    </row>
+    <row r="180" spans="3:64" x14ac:dyDescent="0.25">
       <c r="C180" s="6"/>
       <c r="D180" s="6"/>
       <c r="E180" s="6"/>
@@ -13187,8 +13654,10 @@
       <c r="BH180" s="6"/>
       <c r="BI180" s="6"/>
       <c r="BJ180" s="6"/>
-    </row>
-    <row r="181" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK180" s="6"/>
+      <c r="BL180" s="6"/>
+    </row>
+    <row r="181" spans="3:64" x14ac:dyDescent="0.25">
       <c r="C181" s="6"/>
       <c r="D181" s="6"/>
       <c r="E181" s="6"/>
@@ -13249,8 +13718,10 @@
       <c r="BH181" s="6"/>
       <c r="BI181" s="6"/>
       <c r="BJ181" s="6"/>
-    </row>
-    <row r="182" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK181" s="6"/>
+      <c r="BL181" s="6"/>
+    </row>
+    <row r="182" spans="3:64" x14ac:dyDescent="0.25">
       <c r="C182" s="6"/>
       <c r="D182" s="6"/>
       <c r="E182" s="6"/>
@@ -13311,8 +13782,10 @@
       <c r="BH182" s="6"/>
       <c r="BI182" s="6"/>
       <c r="BJ182" s="6"/>
-    </row>
-    <row r="183" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK182" s="6"/>
+      <c r="BL182" s="6"/>
+    </row>
+    <row r="183" spans="3:64" x14ac:dyDescent="0.25">
       <c r="C183" s="6"/>
       <c r="D183" s="6"/>
       <c r="E183" s="6"/>
@@ -13373,8 +13846,10 @@
       <c r="BH183" s="6"/>
       <c r="BI183" s="6"/>
       <c r="BJ183" s="6"/>
-    </row>
-    <row r="184" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK183" s="6"/>
+      <c r="BL183" s="6"/>
+    </row>
+    <row r="184" spans="3:64" x14ac:dyDescent="0.25">
       <c r="C184" s="6"/>
       <c r="D184" s="6"/>
       <c r="E184" s="6"/>
@@ -13435,8 +13910,10 @@
       <c r="BH184" s="6"/>
       <c r="BI184" s="6"/>
       <c r="BJ184" s="6"/>
-    </row>
-    <row r="185" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK184" s="6"/>
+      <c r="BL184" s="6"/>
+    </row>
+    <row r="185" spans="3:64" x14ac:dyDescent="0.25">
       <c r="C185" s="6"/>
       <c r="D185" s="6"/>
       <c r="E185" s="6"/>
@@ -13497,8 +13974,10 @@
       <c r="BH185" s="6"/>
       <c r="BI185" s="6"/>
       <c r="BJ185" s="6"/>
-    </row>
-    <row r="186" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK185" s="6"/>
+      <c r="BL185" s="6"/>
+    </row>
+    <row r="186" spans="3:64" x14ac:dyDescent="0.25">
       <c r="C186" s="6"/>
       <c r="D186" s="6"/>
       <c r="E186" s="6"/>
@@ -13559,8 +14038,10 @@
       <c r="BH186" s="6"/>
       <c r="BI186" s="6"/>
       <c r="BJ186" s="6"/>
-    </row>
-    <row r="187" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK186" s="6"/>
+      <c r="BL186" s="6"/>
+    </row>
+    <row r="187" spans="3:64" x14ac:dyDescent="0.25">
       <c r="C187" s="6"/>
       <c r="D187" s="6"/>
       <c r="E187" s="6"/>
@@ -13621,8 +14102,10 @@
       <c r="BH187" s="6"/>
       <c r="BI187" s="6"/>
       <c r="BJ187" s="6"/>
-    </row>
-    <row r="188" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK187" s="6"/>
+      <c r="BL187" s="6"/>
+    </row>
+    <row r="188" spans="3:64" x14ac:dyDescent="0.25">
       <c r="C188" s="6"/>
       <c r="D188" s="6"/>
       <c r="E188" s="6"/>
@@ -13683,8 +14166,10 @@
       <c r="BH188" s="6"/>
       <c r="BI188" s="6"/>
       <c r="BJ188" s="6"/>
-    </row>
-    <row r="189" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK188" s="6"/>
+      <c r="BL188" s="6"/>
+    </row>
+    <row r="189" spans="3:64" x14ac:dyDescent="0.25">
       <c r="C189" s="6"/>
       <c r="D189" s="6"/>
       <c r="E189" s="6"/>
@@ -13745,8 +14230,10 @@
       <c r="BH189" s="6"/>
       <c r="BI189" s="6"/>
       <c r="BJ189" s="6"/>
-    </row>
-    <row r="190" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK189" s="6"/>
+      <c r="BL189" s="6"/>
+    </row>
+    <row r="190" spans="3:64" x14ac:dyDescent="0.25">
       <c r="C190" s="6"/>
       <c r="D190" s="6"/>
       <c r="E190" s="6"/>
@@ -13807,8 +14294,10 @@
       <c r="BH190" s="6"/>
       <c r="BI190" s="6"/>
       <c r="BJ190" s="6"/>
-    </row>
-    <row r="191" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK190" s="6"/>
+      <c r="BL190" s="6"/>
+    </row>
+    <row r="191" spans="3:64" x14ac:dyDescent="0.25">
       <c r="C191" s="6"/>
       <c r="D191" s="6"/>
       <c r="E191" s="6"/>
@@ -13869,8 +14358,10 @@
       <c r="BH191" s="6"/>
       <c r="BI191" s="6"/>
       <c r="BJ191" s="6"/>
-    </row>
-    <row r="192" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK191" s="6"/>
+      <c r="BL191" s="6"/>
+    </row>
+    <row r="192" spans="3:64" x14ac:dyDescent="0.25">
       <c r="C192" s="6"/>
       <c r="D192" s="6"/>
       <c r="E192" s="6"/>
@@ -13931,8 +14422,10 @@
       <c r="BH192" s="6"/>
       <c r="BI192" s="6"/>
       <c r="BJ192" s="6"/>
-    </row>
-    <row r="193" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK192" s="6"/>
+      <c r="BL192" s="6"/>
+    </row>
+    <row r="193" spans="3:64" x14ac:dyDescent="0.25">
       <c r="C193" s="6"/>
       <c r="D193" s="6"/>
       <c r="E193" s="6"/>
@@ -13993,8 +14486,10 @@
       <c r="BH193" s="6"/>
       <c r="BI193" s="6"/>
       <c r="BJ193" s="6"/>
-    </row>
-    <row r="194" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK193" s="6"/>
+      <c r="BL193" s="6"/>
+    </row>
+    <row r="194" spans="3:64" x14ac:dyDescent="0.25">
       <c r="C194" s="6"/>
       <c r="D194" s="6"/>
       <c r="E194" s="6"/>
@@ -14055,8 +14550,10 @@
       <c r="BH194" s="6"/>
       <c r="BI194" s="6"/>
       <c r="BJ194" s="6"/>
-    </row>
-    <row r="195" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK194" s="6"/>
+      <c r="BL194" s="6"/>
+    </row>
+    <row r="195" spans="3:64" x14ac:dyDescent="0.25">
       <c r="C195" s="6"/>
       <c r="D195" s="6"/>
       <c r="E195" s="6"/>
@@ -14117,8 +14614,10 @@
       <c r="BH195" s="6"/>
       <c r="BI195" s="6"/>
       <c r="BJ195" s="6"/>
-    </row>
-    <row r="196" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK195" s="6"/>
+      <c r="BL195" s="6"/>
+    </row>
+    <row r="196" spans="3:64" x14ac:dyDescent="0.25">
       <c r="C196" s="6"/>
       <c r="D196" s="6"/>
       <c r="E196" s="6"/>
@@ -14179,8 +14678,10 @@
       <c r="BH196" s="6"/>
       <c r="BI196" s="6"/>
       <c r="BJ196" s="6"/>
-    </row>
-    <row r="197" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK196" s="6"/>
+      <c r="BL196" s="6"/>
+    </row>
+    <row r="197" spans="3:64" x14ac:dyDescent="0.25">
       <c r="C197" s="6"/>
       <c r="D197" s="6"/>
       <c r="E197" s="6"/>
@@ -14241,8 +14742,10 @@
       <c r="BH197" s="6"/>
       <c r="BI197" s="6"/>
       <c r="BJ197" s="6"/>
-    </row>
-    <row r="198" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK197" s="6"/>
+      <c r="BL197" s="6"/>
+    </row>
+    <row r="198" spans="3:64" x14ac:dyDescent="0.25">
       <c r="C198" s="6"/>
       <c r="D198" s="6"/>
       <c r="E198" s="6"/>
@@ -14303,8 +14806,10 @@
       <c r="BH198" s="6"/>
       <c r="BI198" s="6"/>
       <c r="BJ198" s="6"/>
-    </row>
-    <row r="199" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK198" s="6"/>
+      <c r="BL198" s="6"/>
+    </row>
+    <row r="199" spans="3:64" x14ac:dyDescent="0.25">
       <c r="C199" s="6"/>
       <c r="D199" s="6"/>
       <c r="E199" s="6"/>
@@ -14365,8 +14870,10 @@
       <c r="BH199" s="6"/>
       <c r="BI199" s="6"/>
       <c r="BJ199" s="6"/>
-    </row>
-    <row r="200" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK199" s="6"/>
+      <c r="BL199" s="6"/>
+    </row>
+    <row r="200" spans="3:64" x14ac:dyDescent="0.25">
       <c r="C200" s="6"/>
       <c r="D200" s="6"/>
       <c r="E200" s="6"/>
@@ -14427,8 +14934,10 @@
       <c r="BH200" s="6"/>
       <c r="BI200" s="6"/>
       <c r="BJ200" s="6"/>
-    </row>
-    <row r="201" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK200" s="6"/>
+      <c r="BL200" s="6"/>
+    </row>
+    <row r="201" spans="3:64" x14ac:dyDescent="0.25">
       <c r="C201" s="6"/>
       <c r="D201" s="6"/>
       <c r="E201" s="6"/>
@@ -14489,8 +14998,10 @@
       <c r="BH201" s="6"/>
       <c r="BI201" s="6"/>
       <c r="BJ201" s="6"/>
-    </row>
-    <row r="202" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK201" s="6"/>
+      <c r="BL201" s="6"/>
+    </row>
+    <row r="202" spans="3:64" x14ac:dyDescent="0.25">
       <c r="C202" s="6"/>
       <c r="D202" s="6"/>
       <c r="E202" s="6"/>
@@ -14551,8 +15062,10 @@
       <c r="BH202" s="6"/>
       <c r="BI202" s="6"/>
       <c r="BJ202" s="6"/>
-    </row>
-    <row r="203" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK202" s="6"/>
+      <c r="BL202" s="6"/>
+    </row>
+    <row r="203" spans="3:64" x14ac:dyDescent="0.25">
       <c r="C203" s="6"/>
       <c r="D203" s="6"/>
       <c r="E203" s="6"/>
@@ -14613,8 +15126,10 @@
       <c r="BH203" s="6"/>
       <c r="BI203" s="6"/>
       <c r="BJ203" s="6"/>
-    </row>
-    <row r="204" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK203" s="6"/>
+      <c r="BL203" s="6"/>
+    </row>
+    <row r="204" spans="3:64" x14ac:dyDescent="0.25">
       <c r="C204" s="6"/>
       <c r="D204" s="6"/>
       <c r="E204" s="6"/>
@@ -14675,8 +15190,10 @@
       <c r="BH204" s="6"/>
       <c r="BI204" s="6"/>
       <c r="BJ204" s="6"/>
-    </row>
-    <row r="205" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK204" s="6"/>
+      <c r="BL204" s="6"/>
+    </row>
+    <row r="205" spans="3:64" x14ac:dyDescent="0.25">
       <c r="C205" s="6"/>
       <c r="D205" s="6"/>
       <c r="E205" s="6"/>
@@ -14737,8 +15254,10 @@
       <c r="BH205" s="6"/>
       <c r="BI205" s="6"/>
       <c r="BJ205" s="6"/>
-    </row>
-    <row r="206" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK205" s="6"/>
+      <c r="BL205" s="6"/>
+    </row>
+    <row r="206" spans="3:64" x14ac:dyDescent="0.25">
       <c r="C206" s="6"/>
       <c r="D206" s="6"/>
       <c r="E206" s="6"/>
@@ -14799,8 +15318,10 @@
       <c r="BH206" s="6"/>
       <c r="BI206" s="6"/>
       <c r="BJ206" s="6"/>
-    </row>
-    <row r="207" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK206" s="6"/>
+      <c r="BL206" s="6"/>
+    </row>
+    <row r="207" spans="3:64" x14ac:dyDescent="0.25">
       <c r="C207" s="6"/>
       <c r="D207" s="6"/>
       <c r="E207" s="6"/>
@@ -14861,8 +15382,10 @@
       <c r="BH207" s="6"/>
       <c r="BI207" s="6"/>
       <c r="BJ207" s="6"/>
-    </row>
-    <row r="208" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK207" s="6"/>
+      <c r="BL207" s="6"/>
+    </row>
+    <row r="208" spans="3:64" x14ac:dyDescent="0.25">
       <c r="C208" s="6"/>
       <c r="D208" s="6"/>
       <c r="E208" s="6"/>
@@ -14923,8 +15446,10 @@
       <c r="BH208" s="6"/>
       <c r="BI208" s="6"/>
       <c r="BJ208" s="6"/>
-    </row>
-    <row r="209" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK208" s="6"/>
+      <c r="BL208" s="6"/>
+    </row>
+    <row r="209" spans="3:64" x14ac:dyDescent="0.25">
       <c r="C209" s="6"/>
       <c r="D209" s="6"/>
       <c r="E209" s="6"/>
@@ -14985,8 +15510,10 @@
       <c r="BH209" s="6"/>
       <c r="BI209" s="6"/>
       <c r="BJ209" s="6"/>
-    </row>
-    <row r="210" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK209" s="6"/>
+      <c r="BL209" s="6"/>
+    </row>
+    <row r="210" spans="3:64" x14ac:dyDescent="0.25">
       <c r="C210" s="6"/>
       <c r="D210" s="6"/>
       <c r="E210" s="6"/>
@@ -15047,8 +15574,10 @@
       <c r="BH210" s="6"/>
       <c r="BI210" s="6"/>
       <c r="BJ210" s="6"/>
-    </row>
-    <row r="211" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK210" s="6"/>
+      <c r="BL210" s="6"/>
+    </row>
+    <row r="211" spans="3:64" x14ac:dyDescent="0.25">
       <c r="C211" s="6"/>
       <c r="D211" s="6"/>
       <c r="E211" s="6"/>
@@ -15109,8 +15638,10 @@
       <c r="BH211" s="6"/>
       <c r="BI211" s="6"/>
       <c r="BJ211" s="6"/>
-    </row>
-    <row r="212" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK211" s="6"/>
+      <c r="BL211" s="6"/>
+    </row>
+    <row r="212" spans="3:64" x14ac:dyDescent="0.25">
       <c r="C212" s="6"/>
       <c r="D212" s="6"/>
       <c r="E212" s="6"/>
@@ -15171,8 +15702,10 @@
       <c r="BH212" s="6"/>
       <c r="BI212" s="6"/>
       <c r="BJ212" s="6"/>
-    </row>
-    <row r="213" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK212" s="6"/>
+      <c r="BL212" s="6"/>
+    </row>
+    <row r="213" spans="3:64" x14ac:dyDescent="0.25">
       <c r="C213" s="6"/>
       <c r="D213" s="6"/>
       <c r="E213" s="6"/>
@@ -15233,8 +15766,10 @@
       <c r="BH213" s="6"/>
       <c r="BI213" s="6"/>
       <c r="BJ213" s="6"/>
-    </row>
-    <row r="214" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK213" s="6"/>
+      <c r="BL213" s="6"/>
+    </row>
+    <row r="214" spans="3:64" x14ac:dyDescent="0.25">
       <c r="C214" s="6"/>
       <c r="D214" s="6"/>
       <c r="E214" s="6"/>
@@ -15295,8 +15830,10 @@
       <c r="BH214" s="6"/>
       <c r="BI214" s="6"/>
       <c r="BJ214" s="6"/>
-    </row>
-    <row r="215" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK214" s="6"/>
+      <c r="BL214" s="6"/>
+    </row>
+    <row r="215" spans="3:64" x14ac:dyDescent="0.25">
       <c r="C215" s="6"/>
       <c r="D215" s="6"/>
       <c r="E215" s="6"/>
@@ -15357,8 +15894,10 @@
       <c r="BH215" s="6"/>
       <c r="BI215" s="6"/>
       <c r="BJ215" s="6"/>
-    </row>
-    <row r="216" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK215" s="6"/>
+      <c r="BL215" s="6"/>
+    </row>
+    <row r="216" spans="3:64" x14ac:dyDescent="0.25">
       <c r="C216" s="6"/>
       <c r="D216" s="6"/>
       <c r="E216" s="6"/>
@@ -15419,8 +15958,10 @@
       <c r="BH216" s="6"/>
       <c r="BI216" s="6"/>
       <c r="BJ216" s="6"/>
-    </row>
-    <row r="217" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK216" s="6"/>
+      <c r="BL216" s="6"/>
+    </row>
+    <row r="217" spans="3:64" x14ac:dyDescent="0.25">
       <c r="C217" s="6"/>
       <c r="D217" s="6"/>
       <c r="E217" s="6"/>
@@ -15481,8 +16022,10 @@
       <c r="BH217" s="6"/>
       <c r="BI217" s="6"/>
       <c r="BJ217" s="6"/>
-    </row>
-    <row r="218" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK217" s="6"/>
+      <c r="BL217" s="6"/>
+    </row>
+    <row r="218" spans="3:64" x14ac:dyDescent="0.25">
       <c r="C218" s="6"/>
       <c r="D218" s="6"/>
       <c r="E218" s="6"/>
@@ -15543,8 +16086,10 @@
       <c r="BH218" s="6"/>
       <c r="BI218" s="6"/>
       <c r="BJ218" s="6"/>
-    </row>
-    <row r="219" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK218" s="6"/>
+      <c r="BL218" s="6"/>
+    </row>
+    <row r="219" spans="3:64" x14ac:dyDescent="0.25">
       <c r="C219" s="6"/>
       <c r="D219" s="6"/>
       <c r="E219" s="6"/>
@@ -15605,8 +16150,10 @@
       <c r="BH219" s="6"/>
       <c r="BI219" s="6"/>
       <c r="BJ219" s="6"/>
-    </row>
-    <row r="220" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK219" s="6"/>
+      <c r="BL219" s="6"/>
+    </row>
+    <row r="220" spans="3:64" x14ac:dyDescent="0.25">
       <c r="C220" s="6"/>
       <c r="D220" s="6"/>
       <c r="E220" s="6"/>
@@ -15667,8 +16214,10 @@
       <c r="BH220" s="6"/>
       <c r="BI220" s="6"/>
       <c r="BJ220" s="6"/>
-    </row>
-    <row r="221" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK220" s="6"/>
+      <c r="BL220" s="6"/>
+    </row>
+    <row r="221" spans="3:64" x14ac:dyDescent="0.25">
       <c r="C221" s="6"/>
       <c r="D221" s="6"/>
       <c r="E221" s="6"/>
@@ -15729,8 +16278,10 @@
       <c r="BH221" s="6"/>
       <c r="BI221" s="6"/>
       <c r="BJ221" s="6"/>
-    </row>
-    <row r="222" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK221" s="6"/>
+      <c r="BL221" s="6"/>
+    </row>
+    <row r="222" spans="3:64" x14ac:dyDescent="0.25">
       <c r="C222" s="6"/>
       <c r="D222" s="6"/>
       <c r="E222" s="6"/>
@@ -15791,8 +16342,10 @@
       <c r="BH222" s="6"/>
       <c r="BI222" s="6"/>
       <c r="BJ222" s="6"/>
-    </row>
-    <row r="223" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK222" s="6"/>
+      <c r="BL222" s="6"/>
+    </row>
+    <row r="223" spans="3:64" x14ac:dyDescent="0.25">
       <c r="C223" s="6"/>
       <c r="D223" s="6"/>
       <c r="E223" s="6"/>
@@ -15853,8 +16406,10 @@
       <c r="BH223" s="6"/>
       <c r="BI223" s="6"/>
       <c r="BJ223" s="6"/>
-    </row>
-    <row r="224" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK223" s="6"/>
+      <c r="BL223" s="6"/>
+    </row>
+    <row r="224" spans="3:64" x14ac:dyDescent="0.25">
       <c r="C224" s="6"/>
       <c r="D224" s="6"/>
       <c r="E224" s="6"/>
@@ -15915,8 +16470,10 @@
       <c r="BH224" s="6"/>
       <c r="BI224" s="6"/>
       <c r="BJ224" s="6"/>
-    </row>
-    <row r="225" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK224" s="6"/>
+      <c r="BL224" s="6"/>
+    </row>
+    <row r="225" spans="3:64" x14ac:dyDescent="0.25">
       <c r="C225" s="6"/>
       <c r="D225" s="6"/>
       <c r="E225" s="6"/>
@@ -15977,8 +16534,10 @@
       <c r="BH225" s="6"/>
       <c r="BI225" s="6"/>
       <c r="BJ225" s="6"/>
-    </row>
-    <row r="226" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK225" s="6"/>
+      <c r="BL225" s="6"/>
+    </row>
+    <row r="226" spans="3:64" x14ac:dyDescent="0.25">
       <c r="C226" s="6"/>
       <c r="D226" s="6"/>
       <c r="E226" s="6"/>
@@ -16039,8 +16598,10 @@
       <c r="BH226" s="6"/>
       <c r="BI226" s="6"/>
       <c r="BJ226" s="6"/>
-    </row>
-    <row r="227" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK226" s="6"/>
+      <c r="BL226" s="6"/>
+    </row>
+    <row r="227" spans="3:64" x14ac:dyDescent="0.25">
       <c r="C227" s="6"/>
       <c r="D227" s="6"/>
       <c r="E227" s="6"/>
@@ -16101,8 +16662,10 @@
       <c r="BH227" s="6"/>
       <c r="BI227" s="6"/>
       <c r="BJ227" s="6"/>
-    </row>
-    <row r="228" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK227" s="6"/>
+      <c r="BL227" s="6"/>
+    </row>
+    <row r="228" spans="3:64" x14ac:dyDescent="0.25">
       <c r="C228" s="6"/>
       <c r="D228" s="6"/>
       <c r="E228" s="6"/>
@@ -16163,8 +16726,10 @@
       <c r="BH228" s="6"/>
       <c r="BI228" s="6"/>
       <c r="BJ228" s="6"/>
-    </row>
-    <row r="229" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK228" s="6"/>
+      <c r="BL228" s="6"/>
+    </row>
+    <row r="229" spans="3:64" x14ac:dyDescent="0.25">
       <c r="C229" s="6"/>
       <c r="D229" s="6"/>
       <c r="E229" s="6"/>
@@ -16225,8 +16790,10 @@
       <c r="BH229" s="6"/>
       <c r="BI229" s="6"/>
       <c r="BJ229" s="6"/>
-    </row>
-    <row r="230" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK229" s="6"/>
+      <c r="BL229" s="6"/>
+    </row>
+    <row r="230" spans="3:64" x14ac:dyDescent="0.25">
       <c r="C230" s="6"/>
       <c r="D230" s="6"/>
       <c r="E230" s="6"/>
@@ -16287,8 +16854,10 @@
       <c r="BH230" s="6"/>
       <c r="BI230" s="6"/>
       <c r="BJ230" s="6"/>
-    </row>
-    <row r="231" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK230" s="6"/>
+      <c r="BL230" s="6"/>
+    </row>
+    <row r="231" spans="3:64" x14ac:dyDescent="0.25">
       <c r="C231" s="6"/>
       <c r="D231" s="6"/>
       <c r="E231" s="6"/>
@@ -16349,8 +16918,10 @@
       <c r="BH231" s="6"/>
       <c r="BI231" s="6"/>
       <c r="BJ231" s="6"/>
-    </row>
-    <row r="232" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK231" s="6"/>
+      <c r="BL231" s="6"/>
+    </row>
+    <row r="232" spans="3:64" x14ac:dyDescent="0.25">
       <c r="C232" s="6"/>
       <c r="D232" s="6"/>
       <c r="E232" s="6"/>
@@ -16411,8 +16982,10 @@
       <c r="BH232" s="6"/>
       <c r="BI232" s="6"/>
       <c r="BJ232" s="6"/>
-    </row>
-    <row r="233" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK232" s="6"/>
+      <c r="BL232" s="6"/>
+    </row>
+    <row r="233" spans="3:64" x14ac:dyDescent="0.25">
       <c r="C233" s="6"/>
       <c r="D233" s="6"/>
       <c r="E233" s="6"/>
@@ -16473,8 +17046,10 @@
       <c r="BH233" s="6"/>
       <c r="BI233" s="6"/>
       <c r="BJ233" s="6"/>
-    </row>
-    <row r="234" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK233" s="6"/>
+      <c r="BL233" s="6"/>
+    </row>
+    <row r="234" spans="3:64" x14ac:dyDescent="0.25">
       <c r="C234" s="6"/>
       <c r="D234" s="6"/>
       <c r="E234" s="6"/>
@@ -16535,8 +17110,10 @@
       <c r="BH234" s="6"/>
       <c r="BI234" s="6"/>
       <c r="BJ234" s="6"/>
-    </row>
-    <row r="235" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK234" s="6"/>
+      <c r="BL234" s="6"/>
+    </row>
+    <row r="235" spans="3:64" x14ac:dyDescent="0.25">
       <c r="C235" s="6"/>
       <c r="D235" s="6"/>
       <c r="E235" s="6"/>
@@ -16597,8 +17174,10 @@
       <c r="BH235" s="6"/>
       <c r="BI235" s="6"/>
       <c r="BJ235" s="6"/>
-    </row>
-    <row r="236" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK235" s="6"/>
+      <c r="BL235" s="6"/>
+    </row>
+    <row r="236" spans="3:64" x14ac:dyDescent="0.25">
       <c r="C236" s="6"/>
       <c r="D236" s="6"/>
       <c r="E236" s="6"/>
@@ -16659,8 +17238,10 @@
       <c r="BH236" s="6"/>
       <c r="BI236" s="6"/>
       <c r="BJ236" s="6"/>
-    </row>
-    <row r="237" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK236" s="6"/>
+      <c r="BL236" s="6"/>
+    </row>
+    <row r="237" spans="3:64" x14ac:dyDescent="0.25">
       <c r="C237" s="6"/>
       <c r="D237" s="6"/>
       <c r="E237" s="6"/>
@@ -16721,8 +17302,10 @@
       <c r="BH237" s="6"/>
       <c r="BI237" s="6"/>
       <c r="BJ237" s="6"/>
-    </row>
-    <row r="238" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK237" s="6"/>
+      <c r="BL237" s="6"/>
+    </row>
+    <row r="238" spans="3:64" x14ac:dyDescent="0.25">
       <c r="C238" s="6"/>
       <c r="D238" s="6"/>
       <c r="E238" s="6"/>
@@ -16783,8 +17366,10 @@
       <c r="BH238" s="6"/>
       <c r="BI238" s="6"/>
       <c r="BJ238" s="6"/>
-    </row>
-    <row r="239" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK238" s="6"/>
+      <c r="BL238" s="6"/>
+    </row>
+    <row r="239" spans="3:64" x14ac:dyDescent="0.25">
       <c r="C239" s="6"/>
       <c r="D239" s="6"/>
       <c r="E239" s="6"/>
@@ -16845,8 +17430,10 @@
       <c r="BH239" s="6"/>
       <c r="BI239" s="6"/>
       <c r="BJ239" s="6"/>
-    </row>
-    <row r="240" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK239" s="6"/>
+      <c r="BL239" s="6"/>
+    </row>
+    <row r="240" spans="3:64" x14ac:dyDescent="0.25">
       <c r="C240" s="6"/>
       <c r="D240" s="6"/>
       <c r="E240" s="6"/>
@@ -16907,8 +17494,10 @@
       <c r="BH240" s="6"/>
       <c r="BI240" s="6"/>
       <c r="BJ240" s="6"/>
-    </row>
-    <row r="241" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK240" s="6"/>
+      <c r="BL240" s="6"/>
+    </row>
+    <row r="241" spans="3:64" x14ac:dyDescent="0.25">
       <c r="C241" s="6"/>
       <c r="D241" s="6"/>
       <c r="E241" s="6"/>
@@ -16969,8 +17558,10 @@
       <c r="BH241" s="6"/>
       <c r="BI241" s="6"/>
       <c r="BJ241" s="6"/>
-    </row>
-    <row r="242" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK241" s="6"/>
+      <c r="BL241" s="6"/>
+    </row>
+    <row r="242" spans="3:64" x14ac:dyDescent="0.25">
       <c r="C242" s="6"/>
       <c r="D242" s="6"/>
       <c r="E242" s="6"/>
@@ -17031,8 +17622,10 @@
       <c r="BH242" s="6"/>
       <c r="BI242" s="6"/>
       <c r="BJ242" s="6"/>
-    </row>
-    <row r="243" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK242" s="6"/>
+      <c r="BL242" s="6"/>
+    </row>
+    <row r="243" spans="3:64" x14ac:dyDescent="0.25">
       <c r="C243" s="6"/>
       <c r="D243" s="6"/>
       <c r="E243" s="6"/>
@@ -17093,8 +17686,10 @@
       <c r="BH243" s="6"/>
       <c r="BI243" s="6"/>
       <c r="BJ243" s="6"/>
-    </row>
-    <row r="244" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK243" s="6"/>
+      <c r="BL243" s="6"/>
+    </row>
+    <row r="244" spans="3:64" x14ac:dyDescent="0.25">
       <c r="C244" s="6"/>
       <c r="D244" s="6"/>
       <c r="E244" s="6"/>
@@ -17155,8 +17750,10 @@
       <c r="BH244" s="6"/>
       <c r="BI244" s="6"/>
       <c r="BJ244" s="6"/>
-    </row>
-    <row r="245" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK244" s="6"/>
+      <c r="BL244" s="6"/>
+    </row>
+    <row r="245" spans="3:64" x14ac:dyDescent="0.25">
       <c r="C245" s="6"/>
       <c r="D245" s="6"/>
       <c r="E245" s="6"/>
@@ -17217,8 +17814,10 @@
       <c r="BH245" s="6"/>
       <c r="BI245" s="6"/>
       <c r="BJ245" s="6"/>
-    </row>
-    <row r="246" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK245" s="6"/>
+      <c r="BL245" s="6"/>
+    </row>
+    <row r="246" spans="3:64" x14ac:dyDescent="0.25">
       <c r="C246" s="6"/>
       <c r="D246" s="6"/>
       <c r="E246" s="6"/>
@@ -17279,8 +17878,10 @@
       <c r="BH246" s="6"/>
       <c r="BI246" s="6"/>
       <c r="BJ246" s="6"/>
-    </row>
-    <row r="247" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK246" s="6"/>
+      <c r="BL246" s="6"/>
+    </row>
+    <row r="247" spans="3:64" x14ac:dyDescent="0.25">
       <c r="C247" s="6"/>
       <c r="D247" s="6"/>
       <c r="E247" s="6"/>
@@ -17341,8 +17942,10 @@
       <c r="BH247" s="6"/>
       <c r="BI247" s="6"/>
       <c r="BJ247" s="6"/>
-    </row>
-    <row r="248" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK247" s="6"/>
+      <c r="BL247" s="6"/>
+    </row>
+    <row r="248" spans="3:64" x14ac:dyDescent="0.25">
       <c r="C248" s="6"/>
       <c r="D248" s="6"/>
       <c r="E248" s="6"/>
@@ -17403,8 +18006,10 @@
       <c r="BH248" s="6"/>
       <c r="BI248" s="6"/>
       <c r="BJ248" s="6"/>
-    </row>
-    <row r="249" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK248" s="6"/>
+      <c r="BL248" s="6"/>
+    </row>
+    <row r="249" spans="3:64" x14ac:dyDescent="0.25">
       <c r="C249" s="6"/>
       <c r="D249" s="6"/>
       <c r="E249" s="6"/>
@@ -17465,8 +18070,10 @@
       <c r="BH249" s="6"/>
       <c r="BI249" s="6"/>
       <c r="BJ249" s="6"/>
-    </row>
-    <row r="250" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK249" s="6"/>
+      <c r="BL249" s="6"/>
+    </row>
+    <row r="250" spans="3:64" x14ac:dyDescent="0.25">
       <c r="C250" s="6"/>
       <c r="D250" s="6"/>
       <c r="E250" s="6"/>
@@ -17527,8 +18134,10 @@
       <c r="BH250" s="6"/>
       <c r="BI250" s="6"/>
       <c r="BJ250" s="6"/>
-    </row>
-    <row r="251" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK250" s="6"/>
+      <c r="BL250" s="6"/>
+    </row>
+    <row r="251" spans="3:64" x14ac:dyDescent="0.25">
       <c r="C251" s="6"/>
       <c r="D251" s="6"/>
       <c r="E251" s="6"/>
@@ -17589,8 +18198,10 @@
       <c r="BH251" s="6"/>
       <c r="BI251" s="6"/>
       <c r="BJ251" s="6"/>
-    </row>
-    <row r="252" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK251" s="6"/>
+      <c r="BL251" s="6"/>
+    </row>
+    <row r="252" spans="3:64" x14ac:dyDescent="0.25">
       <c r="C252" s="6"/>
       <c r="D252" s="6"/>
       <c r="E252" s="6"/>
@@ -17651,8 +18262,10 @@
       <c r="BH252" s="6"/>
       <c r="BI252" s="6"/>
       <c r="BJ252" s="6"/>
-    </row>
-    <row r="253" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK252" s="6"/>
+      <c r="BL252" s="6"/>
+    </row>
+    <row r="253" spans="3:64" x14ac:dyDescent="0.25">
       <c r="C253" s="6"/>
       <c r="D253" s="6"/>
       <c r="E253" s="6"/>
@@ -17713,8 +18326,10 @@
       <c r="BH253" s="6"/>
       <c r="BI253" s="6"/>
       <c r="BJ253" s="6"/>
-    </row>
-    <row r="254" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK253" s="6"/>
+      <c r="BL253" s="6"/>
+    </row>
+    <row r="254" spans="3:64" x14ac:dyDescent="0.25">
       <c r="C254" s="6"/>
       <c r="D254" s="6"/>
       <c r="E254" s="6"/>
@@ -17775,8 +18390,10 @@
       <c r="BH254" s="6"/>
       <c r="BI254" s="6"/>
       <c r="BJ254" s="6"/>
-    </row>
-    <row r="255" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK254" s="6"/>
+      <c r="BL254" s="6"/>
+    </row>
+    <row r="255" spans="3:64" x14ac:dyDescent="0.25">
       <c r="C255" s="6"/>
       <c r="D255" s="6"/>
       <c r="E255" s="6"/>
@@ -17837,8 +18454,10 @@
       <c r="BH255" s="6"/>
       <c r="BI255" s="6"/>
       <c r="BJ255" s="6"/>
-    </row>
-    <row r="256" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK255" s="6"/>
+      <c r="BL255" s="6"/>
+    </row>
+    <row r="256" spans="3:64" x14ac:dyDescent="0.25">
       <c r="C256" s="6"/>
       <c r="D256" s="6"/>
       <c r="E256" s="6"/>
@@ -17899,8 +18518,10 @@
       <c r="BH256" s="6"/>
       <c r="BI256" s="6"/>
       <c r="BJ256" s="6"/>
-    </row>
-    <row r="257" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK256" s="6"/>
+      <c r="BL256" s="6"/>
+    </row>
+    <row r="257" spans="3:64" x14ac:dyDescent="0.25">
       <c r="C257" s="6"/>
       <c r="D257" s="6"/>
       <c r="E257" s="6"/>
@@ -17961,8 +18582,10 @@
       <c r="BH257" s="6"/>
       <c r="BI257" s="6"/>
       <c r="BJ257" s="6"/>
-    </row>
-    <row r="258" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK257" s="6"/>
+      <c r="BL257" s="6"/>
+    </row>
+    <row r="258" spans="3:64" x14ac:dyDescent="0.25">
       <c r="C258" s="6"/>
       <c r="D258" s="6"/>
       <c r="E258" s="6"/>
@@ -18023,8 +18646,10 @@
       <c r="BH258" s="6"/>
       <c r="BI258" s="6"/>
       <c r="BJ258" s="6"/>
-    </row>
-    <row r="259" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK258" s="6"/>
+      <c r="BL258" s="6"/>
+    </row>
+    <row r="259" spans="3:64" x14ac:dyDescent="0.25">
       <c r="C259" s="6"/>
       <c r="D259" s="6"/>
       <c r="E259" s="6"/>
@@ -18085,8 +18710,10 @@
       <c r="BH259" s="6"/>
       <c r="BI259" s="6"/>
       <c r="BJ259" s="6"/>
-    </row>
-    <row r="260" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK259" s="6"/>
+      <c r="BL259" s="6"/>
+    </row>
+    <row r="260" spans="3:64" x14ac:dyDescent="0.25">
       <c r="C260" s="6"/>
       <c r="D260" s="6"/>
       <c r="E260" s="6"/>
@@ -18147,8 +18774,10 @@
       <c r="BH260" s="6"/>
       <c r="BI260" s="6"/>
       <c r="BJ260" s="6"/>
-    </row>
-    <row r="261" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK260" s="6"/>
+      <c r="BL260" s="6"/>
+    </row>
+    <row r="261" spans="3:64" x14ac:dyDescent="0.25">
       <c r="C261" s="6"/>
       <c r="D261" s="6"/>
       <c r="E261" s="6"/>
@@ -18209,8 +18838,10 @@
       <c r="BH261" s="6"/>
       <c r="BI261" s="6"/>
       <c r="BJ261" s="6"/>
-    </row>
-    <row r="262" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK261" s="6"/>
+      <c r="BL261" s="6"/>
+    </row>
+    <row r="262" spans="3:64" x14ac:dyDescent="0.25">
       <c r="C262" s="6"/>
       <c r="D262" s="6"/>
       <c r="E262" s="6"/>
@@ -18271,8 +18902,10 @@
       <c r="BH262" s="6"/>
       <c r="BI262" s="6"/>
       <c r="BJ262" s="6"/>
-    </row>
-    <row r="263" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK262" s="6"/>
+      <c r="BL262" s="6"/>
+    </row>
+    <row r="263" spans="3:64" x14ac:dyDescent="0.25">
       <c r="C263" s="6"/>
       <c r="D263" s="6"/>
       <c r="E263" s="6"/>
@@ -18333,8 +18966,10 @@
       <c r="BH263" s="6"/>
       <c r="BI263" s="6"/>
       <c r="BJ263" s="6"/>
-    </row>
-    <row r="264" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK263" s="6"/>
+      <c r="BL263" s="6"/>
+    </row>
+    <row r="264" spans="3:64" x14ac:dyDescent="0.25">
       <c r="C264" s="6"/>
       <c r="D264" s="6"/>
       <c r="E264" s="6"/>
@@ -18395,8 +19030,10 @@
       <c r="BH264" s="6"/>
       <c r="BI264" s="6"/>
       <c r="BJ264" s="6"/>
-    </row>
-    <row r="265" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK264" s="6"/>
+      <c r="BL264" s="6"/>
+    </row>
+    <row r="265" spans="3:64" x14ac:dyDescent="0.25">
       <c r="C265" s="6"/>
       <c r="D265" s="6"/>
       <c r="E265" s="6"/>
@@ -18457,8 +19094,10 @@
       <c r="BH265" s="6"/>
       <c r="BI265" s="6"/>
       <c r="BJ265" s="6"/>
-    </row>
-    <row r="266" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK265" s="6"/>
+      <c r="BL265" s="6"/>
+    </row>
+    <row r="266" spans="3:64" x14ac:dyDescent="0.25">
       <c r="C266" s="6"/>
       <c r="D266" s="6"/>
       <c r="E266" s="6"/>
@@ -18519,8 +19158,10 @@
       <c r="BH266" s="6"/>
       <c r="BI266" s="6"/>
       <c r="BJ266" s="6"/>
-    </row>
-    <row r="267" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK266" s="6"/>
+      <c r="BL266" s="6"/>
+    </row>
+    <row r="267" spans="3:64" x14ac:dyDescent="0.25">
       <c r="C267" s="6"/>
       <c r="D267" s="6"/>
       <c r="E267" s="6"/>
@@ -18581,8 +19222,10 @@
       <c r="BH267" s="6"/>
       <c r="BI267" s="6"/>
       <c r="BJ267" s="6"/>
-    </row>
-    <row r="268" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK267" s="6"/>
+      <c r="BL267" s="6"/>
+    </row>
+    <row r="268" spans="3:64" x14ac:dyDescent="0.25">
       <c r="C268" s="6"/>
       <c r="D268" s="6"/>
       <c r="E268" s="6"/>
@@ -18643,8 +19286,10 @@
       <c r="BH268" s="6"/>
       <c r="BI268" s="6"/>
       <c r="BJ268" s="6"/>
-    </row>
-    <row r="269" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK268" s="6"/>
+      <c r="BL268" s="6"/>
+    </row>
+    <row r="269" spans="3:64" x14ac:dyDescent="0.25">
       <c r="C269" s="6"/>
       <c r="D269" s="6"/>
       <c r="E269" s="6"/>
@@ -18705,6 +19350,8 @@
       <c r="BH269" s="6"/>
       <c r="BI269" s="6"/>
       <c r="BJ269" s="6"/>
+      <c r="BK269" s="6"/>
+      <c r="BL269" s="6"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/BC.MI.xlsx
+++ b/BC.MI.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75CD35EC-32B6-4BCB-B17B-B47B3214A41E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EABB09A7-212E-4ED1-AD0B-1861A0B632BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21060" xr2:uid="{6AFCE97C-0CAA-47F0-9D92-585A8A3029EA}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" xr2:uid="{6AFCE97C-0CAA-47F0-9D92-585A8A3029EA}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -736,8 +736,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFA851A1-D74E-4AEB-99AF-D5881E06E123}">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -759,7 +759,7 @@
         <v>1</v>
       </c>
       <c r="J2" s="2">
-        <v>108.4</v>
+        <v>96.16</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -782,7 +782,7 @@
       </c>
       <c r="J4" s="8">
         <f>+J2*J3</f>
-        <v>7370.5144783999995</v>
+        <v>6538.271884159999</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
@@ -793,7 +793,8 @@
         <v>4</v>
       </c>
       <c r="J5" s="8">
-        <v>182.05</v>
+        <f>242.657+1.184</f>
+        <v>243.84100000000001</v>
       </c>
       <c r="K5" s="3" t="s">
         <v>66</v>
@@ -804,8 +805,8 @@
         <v>5</v>
       </c>
       <c r="J6" s="8">
-        <f>3.72+1.244+124.676+155.192</f>
-        <v>284.83199999999999</v>
+        <f>2.995+4.045</f>
+        <v>7.04</v>
       </c>
       <c r="K6" s="3" t="s">
         <v>66</v>
@@ -817,7 +818,7 @@
       </c>
       <c r="J7" s="8">
         <f>+J4+J6-J5</f>
-        <v>7473.2964783999996</v>
+        <v>6301.4708841599986</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
@@ -847,10 +848,10 @@
   <dimension ref="A1:BM269"/>
   <sheetViews>
     <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B18" sqref="B18"/>
+      <selection pane="bottomRight" activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1552,7 +1553,7 @@
       </c>
       <c r="H10" s="8"/>
       <c r="I10" s="8">
-        <v>243.148</v>
+        <v>243.21299999999999</v>
       </c>
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
@@ -2106,29 +2107,28 @@
       </c>
       <c r="H16" s="9"/>
       <c r="I16" s="9">
-        <f t="shared" ref="I16" si="14">+I14+I15</f>
-        <v>684.04700000000003</v>
+        <v>684.13499999999999</v>
       </c>
       <c r="J16" s="9"/>
       <c r="K16" s="8"/>
       <c r="L16" s="9">
-        <f t="shared" ref="L16:P16" si="15">+L14+L15</f>
+        <f t="shared" ref="L16:P16" si="14">+L14+L15</f>
         <v>552.99599999999998</v>
       </c>
       <c r="M16" s="9">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>607.76099999999997</v>
       </c>
       <c r="N16" s="9">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>544.01300000000003</v>
       </c>
       <c r="O16" s="9">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>712.17900000000009</v>
       </c>
       <c r="P16" s="9">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>919.70800000000008</v>
       </c>
       <c r="Q16" s="9">
@@ -2204,7 +2204,9 @@
         <v>39.276000000000003</v>
       </c>
       <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
+      <c r="I17" s="8">
+        <v>58.384</v>
+      </c>
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
       <c r="L17" s="8">
@@ -2281,27 +2283,33 @@
         <v>35</v>
       </c>
       <c r="C18" s="8">
-        <f t="shared" ref="C18:F18" si="16">+C16-C17</f>
+        <f t="shared" ref="C18:F18" si="15">+C16-C17</f>
         <v>0</v>
       </c>
       <c r="D18" s="8">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="E18" s="8">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>489.94200000000001</v>
       </c>
       <c r="F18" s="8">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>535.13499999999999</v>
       </c>
       <c r="G18" s="8">
         <f>+G16-G17</f>
         <v>581.38600000000008</v>
       </c>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
+      <c r="H18" s="8">
+        <f t="shared" ref="H18:I18" si="16">+H16-H17</f>
+        <v>0</v>
+      </c>
+      <c r="I18" s="8">
+        <f t="shared" si="16"/>
+        <v>625.75099999999998</v>
+      </c>
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
       <c r="L18" s="8">
@@ -2397,7 +2405,9 @@
         <v>281.505</v>
       </c>
       <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
+      <c r="I19" s="8">
+        <v>291.43700000000001</v>
+      </c>
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
       <c r="L19" s="8">
@@ -2486,7 +2496,9 @@
         <v>113.197</v>
       </c>
       <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
+      <c r="I20" s="8">
+        <v>125.614</v>
+      </c>
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
       <c r="L20" s="8">
@@ -2575,7 +2587,9 @@
         <v>10.613</v>
       </c>
       <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
+      <c r="I21" s="8">
+        <v>8.9450000000000003</v>
+      </c>
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
       <c r="L21" s="8">
@@ -2664,7 +2678,9 @@
         <v>1.7669999999999999</v>
       </c>
       <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
+      <c r="I22" s="8">
+        <v>1.556</v>
+      </c>
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
       <c r="L22" s="8">
@@ -2753,7 +2769,9 @@
         <v>0.78900000000000003</v>
       </c>
       <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
+      <c r="I23" s="8">
+        <v>0.82099999999999995</v>
+      </c>
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
       <c r="L23" s="8">
@@ -2842,7 +2860,9 @@
         <v>73.167000000000002</v>
       </c>
       <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
+      <c r="I24" s="8">
+        <v>86.778000000000006</v>
+      </c>
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
       <c r="L24" s="8">
@@ -2931,7 +2951,9 @@
         <v>0.873</v>
       </c>
       <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
+      <c r="I25" s="8">
+        <v>1.5169999999999999</v>
+      </c>
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
       <c r="L25" s="8">
@@ -3031,7 +3053,10 @@
         <f t="shared" ref="H26:R26" si="19">+H18-SUM(H19:H21)+H22+H23-H24-H25</f>
         <v>0</v>
       </c>
-      <c r="I26" s="8"/>
+      <c r="I26" s="8">
+        <f t="shared" si="19"/>
+        <v>113.83699999999995</v>
+      </c>
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
       <c r="L26" s="8">
@@ -3127,7 +3152,9 @@
         <v>28.606000000000002</v>
       </c>
       <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
+      <c r="I27" s="8">
+        <v>53.683999999999997</v>
+      </c>
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
       <c r="L27" s="8">
@@ -3216,7 +3243,9 @@
         <v>19.265999999999998</v>
       </c>
       <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
+      <c r="I28" s="8">
+        <v>47.203000000000003</v>
+      </c>
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
       <c r="L28" s="8">
@@ -3313,10 +3342,13 @@
         <v>95.247000000000043</v>
       </c>
       <c r="H29" s="8">
-        <f t="shared" ref="H29" si="21">+H26-H27+H28</f>
+        <f t="shared" ref="H29:I29" si="21">+H26-H27+H28</f>
         <v>0</v>
       </c>
-      <c r="I29" s="8"/>
+      <c r="I29" s="8">
+        <f t="shared" si="21"/>
+        <v>107.35599999999995</v>
+      </c>
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
       <c r="L29" s="8">
@@ -3412,7 +3444,9 @@
         <v>29.17</v>
       </c>
       <c r="H30" s="8"/>
-      <c r="I30" s="8"/>
+      <c r="I30" s="8">
+        <v>30.706</v>
+      </c>
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
       <c r="L30" s="8">
@@ -3509,10 +3543,13 @@
         <v>66.077000000000041</v>
       </c>
       <c r="H31" s="8">
-        <f t="shared" ref="H31" si="24">+H29-H30</f>
+        <f t="shared" ref="H31:I31" si="24">+H29-H30</f>
         <v>0</v>
       </c>
-      <c r="I31" s="8"/>
+      <c r="I31" s="8">
+        <f t="shared" si="24"/>
+        <v>76.649999999999949</v>
+      </c>
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
       <c r="L31" s="8">
@@ -3608,7 +3645,9 @@
         <v>5.1379999999999999</v>
       </c>
       <c r="H32" s="8"/>
-      <c r="I32" s="8"/>
+      <c r="I32" s="8">
+        <v>3.387</v>
+      </c>
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
       <c r="L32" s="8">
@@ -3705,10 +3744,13 @@
         <v>60.939000000000043</v>
       </c>
       <c r="H33" s="8">
-        <f t="shared" ref="H33" si="27">+H31-H32</f>
+        <f t="shared" ref="H33:I33" si="27">+H31-H32</f>
         <v>0</v>
       </c>
-      <c r="I33" s="8"/>
+      <c r="I33" s="8">
+        <f t="shared" si="27"/>
+        <v>73.262999999999948</v>
+      </c>
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
       <c r="L33" s="8">
@@ -3869,7 +3911,7 @@
         <v>0.90879845229778977</v>
       </c>
       <c r="F35" s="7">
-        <f t="shared" ref="F35:H35" si="30">+F33/F36</f>
+        <f t="shared" ref="F35:I35" si="30">+F33/F36</f>
         <v>0.77719022089206724</v>
       </c>
       <c r="G35" s="7">
@@ -3880,7 +3922,10 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="I35" s="7"/>
+      <c r="I35" s="7" t="e">
+        <f t="shared" si="30"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="J35" s="7"/>
       <c r="K35" s="8"/>
       <c r="L35" s="7">
@@ -4568,7 +4613,7 @@
       </c>
       <c r="I43" s="11">
         <f>+I16/G16-1</f>
-        <v>0.10212482800622569</v>
+        <v>0.10226661210127252</v>
       </c>
       <c r="J43" s="11" t="e">
         <f t="shared" ref="J43" si="42">+J16/H16-1</f>
@@ -4678,7 +4723,7 @@
       </c>
       <c r="I44" s="10">
         <f t="shared" si="44"/>
-        <v>0</v>
+        <v>0.91466011825151461</v>
       </c>
       <c r="J44" s="10" t="e">
         <f t="shared" si="44"/>
@@ -4791,7 +4836,7 @@
       </c>
       <c r="I45" s="10">
         <f t="shared" si="46"/>
-        <v>0</v>
+        <v>0.1663955213517799</v>
       </c>
       <c r="J45" s="10" t="e">
         <f t="shared" si="46"/>
@@ -4902,9 +4947,9 @@
         <f t="shared" si="48"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I46" s="10" t="e">
+      <c r="I46" s="10">
         <f t="shared" si="48"/>
-        <v>#DIV/0!</v>
+        <v>0.28602034352993788</v>
       </c>
       <c r="J46" s="10" t="e">
         <f t="shared" si="48"/>

--- a/BC.MI.xlsx
+++ b/BC.MI.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EABB09A7-212E-4ED1-AD0B-1861A0B632BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44EE47E6-373C-4E29-BCCD-BE5F18829854}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" xr2:uid="{6AFCE97C-0CAA-47F0-9D92-585A8A3029EA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21060" xr2:uid="{6AFCE97C-0CAA-47F0-9D92-585A8A3029EA}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="71">
   <si>
     <t>numbers in mio EUR</t>
   </si>
@@ -245,6 +245,12 @@
   <si>
     <t>H225</t>
   </si>
+  <si>
+    <t>Short Report:</t>
+  </si>
+  <si>
+    <t>https://www.morpheus-research.com/cucinelli/</t>
+  </si>
 </sst>
 </file>
 
@@ -253,13 +259,19 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -324,25 +336,26 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -734,10 +747,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFA851A1-D74E-4AEB-99AF-D5881E06E123}">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -759,7 +772,7 @@
         <v>1</v>
       </c>
       <c r="J2" s="2">
-        <v>96.16</v>
+        <v>85.3</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -782,7 +795,7 @@
       </c>
       <c r="J4" s="8">
         <f>+J2*J3</f>
-        <v>6538.271884159999</v>
+        <v>5799.8605627999996</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
@@ -818,7 +831,7 @@
       </c>
       <c r="J7" s="8">
         <f>+J4+J6-J5</f>
-        <v>6301.4708841599986</v>
+        <v>5563.0595627999992</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
@@ -832,6 +845,16 @@
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B11" s="12" t="s">
         <v>64</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B34" s="13" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B35" s="2" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/BC.MI.xlsx
+++ b/BC.MI.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44EE47E6-373C-4E29-BCCD-BE5F18829854}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EBCB867-37A3-4A11-AAC3-66E2BA31E0CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21060" xr2:uid="{6AFCE97C-0CAA-47F0-9D92-585A8A3029EA}"/>
+    <workbookView xWindow="225" yWindow="3510" windowWidth="38175" windowHeight="15240" xr2:uid="{6AFCE97C-0CAA-47F0-9D92-585A8A3029EA}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -750,7 +750,7 @@
   <dimension ref="A1:K35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -772,7 +772,7 @@
         <v>1</v>
       </c>
       <c r="J2" s="2">
-        <v>85.3</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -795,7 +795,7 @@
       </c>
       <c r="J4" s="8">
         <f>+J2*J3</f>
-        <v>5799.8605627999996</v>
+        <v>6323.4118679999992</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
@@ -831,7 +831,7 @@
       </c>
       <c r="J7" s="8">
         <f>+J4+J6-J5</f>
-        <v>5563.0595627999992</v>
+        <v>6086.6108679999988</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">

--- a/BC.MI.xlsx
+++ b/BC.MI.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EBCB867-37A3-4A11-AAC3-66E2BA31E0CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E1478C7-EC28-4669-B8B5-A9323F2150CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="225" yWindow="3510" windowWidth="38175" windowHeight="15240" xr2:uid="{6AFCE97C-0CAA-47F0-9D92-585A8A3029EA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21060" activeTab="1" xr2:uid="{6AFCE97C-0CAA-47F0-9D92-585A8A3029EA}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -749,7 +749,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFA851A1-D74E-4AEB-99AF-D5881E06E123}">
   <dimension ref="A1:K35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
       <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
@@ -870,11 +870,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1334857E-06C9-4A6E-809B-B62D56C178F7}">
   <dimension ref="A1:BM269"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I12" sqref="I12"/>
+      <selection pane="bottomRight" activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
